--- a/REGULAR/BUDGET/PENALES, GUILLERMA.xlsx
+++ b/REGULAR/BUDGET/PENALES, GUILLERMA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\BUDGET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\BUDGET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99B821C-037C-4052-A6C2-22EEB0AC03A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="494">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1490,12 +1489,39 @@
   </si>
   <si>
     <t>UT(0-4-28)</t>
+  </si>
+  <si>
+    <t>UT(1-5-11)</t>
+  </si>
+  <si>
+    <t>UT(0-0-9)</t>
+  </si>
+  <si>
+    <t>UT(0-5-54)</t>
+  </si>
+  <si>
+    <t>UT(0-4-4 )</t>
+  </si>
+  <si>
+    <t>6/1/2023 (5)</t>
+  </si>
+  <si>
+    <t>UT(0-1-56)</t>
+  </si>
+  <si>
+    <t>UT(0-0-11)</t>
+  </si>
+  <si>
+    <t>UT(0-5-5)</t>
+  </si>
+  <si>
+    <t>UT(0-3-42)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2234,7 +2260,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2277,7 +2303,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2341,7 +2367,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2401,7 +2427,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2467,7 +2493,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2530,7 +2556,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2628,7 +2654,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2687,7 +2713,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2752,7 +2778,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2795,7 +2821,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2870,7 +2896,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3056,7 +3082,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3122,7 +3148,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3180,7 +3206,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3246,7 +3272,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3302,7 +3328,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3377,7 +3403,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3420,7 +3446,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3486,7 +3512,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3542,7 +3568,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3621,7 +3647,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3638,26 +3664,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K875" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K875" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K886" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K886"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3964,7 +3990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3974,7 +4000,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3982,34 +4008,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K875"/>
+  <dimension ref="A2:K886"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3708" topLeftCell="A846" activePane="bottomLeft"/>
+      <pane ySplit="3705" topLeftCell="A834" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="C851" sqref="C851"/>
+      <selection pane="bottomLeft" activeCell="F840" sqref="F840"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4032,7 +4058,7 @@
       <c r="J2" s="62"/>
       <c r="K2" s="63"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4052,7 +4078,7 @@
       <c r="J3" s="64"/>
       <c r="K3" s="65"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4074,7 +4100,7 @@
       <c r="J4" s="66"/>
       <c r="K4" s="67"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4082,7 +4108,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4095,7 +4121,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="60" t="s">
@@ -4112,7 +4138,7 @@
       <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4147,7 +4173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4156,7 +4182,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>18.739999999999895</v>
+        <v>11.966999999999871</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4171,7 +4197,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
         <v>72</v>
       </c>
@@ -4193,7 +4219,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>32295</v>
       </c>
@@ -4216,7 +4242,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <f>EDATE(A11,1)</f>
         <v>32325</v>
@@ -4240,7 +4266,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <f>EDATE(A12,1)</f>
         <v>32356</v>
@@ -4264,7 +4290,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <f t="shared" ref="A14:A17" si="1">EDATE(A13,1)</f>
         <v>32387</v>
@@ -4288,7 +4314,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <f t="shared" si="1"/>
         <v>32417</v>
@@ -4312,7 +4338,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <f t="shared" si="1"/>
         <v>32448</v>
@@ -4336,7 +4362,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <f t="shared" si="1"/>
         <v>32478</v>
@@ -4364,7 +4390,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
         <v>74</v>
       </c>
@@ -4385,7 +4411,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <f>EDATE(A17,1)</f>
         <v>32509</v>
@@ -4409,7 +4435,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <f>EDATE(A19,1)</f>
         <v>32540</v>
@@ -4433,7 +4459,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <f t="shared" ref="A21:A30" si="2">EDATE(A20,1)</f>
         <v>32568</v>
@@ -4457,7 +4483,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <f t="shared" si="2"/>
         <v>32599</v>
@@ -4481,7 +4507,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <f t="shared" si="2"/>
         <v>32629</v>
@@ -4505,7 +4531,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <f t="shared" si="2"/>
         <v>32660</v>
@@ -4529,7 +4555,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <f t="shared" si="2"/>
         <v>32690</v>
@@ -4553,7 +4579,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <f t="shared" si="2"/>
         <v>32721</v>
@@ -4577,7 +4603,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <f>EDATE(A26,1)</f>
         <v>32752</v>
@@ -4601,7 +4627,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <f t="shared" si="2"/>
         <v>32782</v>
@@ -4625,7 +4651,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <f t="shared" si="2"/>
         <v>32813</v>
@@ -4649,7 +4675,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <f t="shared" si="2"/>
         <v>32843</v>
@@ -4677,7 +4703,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
         <v>75</v>
       </c>
@@ -4698,7 +4724,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <f>EDATE(A30,1)</f>
         <v>32874</v>
@@ -4722,7 +4748,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
         <f>EDATE(A32,1)</f>
         <v>32905</v>
@@ -4746,7 +4772,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <f t="shared" ref="A34:A43" si="3">EDATE(A33,1)</f>
         <v>32933</v>
@@ -4770,7 +4796,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <f t="shared" si="3"/>
         <v>32964</v>
@@ -4794,7 +4820,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="23">
         <f t="shared" si="3"/>
         <v>32994</v>
@@ -4818,7 +4844,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <f t="shared" si="3"/>
         <v>33025</v>
@@ -4842,7 +4868,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23">
         <f t="shared" si="3"/>
         <v>33055</v>
@@ -4866,7 +4892,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <f t="shared" si="3"/>
         <v>33086</v>
@@ -4890,7 +4916,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <f t="shared" si="3"/>
         <v>33117</v>
@@ -4914,7 +4940,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <f t="shared" si="3"/>
         <v>33147</v>
@@ -4938,7 +4964,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23">
         <f t="shared" si="3"/>
         <v>33178</v>
@@ -4962,7 +4988,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <f t="shared" si="3"/>
         <v>33208</v>
@@ -4990,7 +5016,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="45" t="s">
         <v>76</v>
       </c>
@@ -5011,7 +5037,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <f>EDATE(A43,1)</f>
         <v>33239</v>
@@ -5035,7 +5061,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <f>EDATE(A45,1)</f>
         <v>33270</v>
@@ -5059,7 +5085,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23">
         <f t="shared" ref="A47:A56" si="4">EDATE(A46,1)</f>
         <v>33298</v>
@@ -5083,7 +5109,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23">
         <f t="shared" si="4"/>
         <v>33329</v>
@@ -5107,7 +5133,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <f t="shared" si="4"/>
         <v>33359</v>
@@ -5131,7 +5157,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23">
         <f t="shared" si="4"/>
         <v>33390</v>
@@ -5155,7 +5181,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23">
         <f t="shared" si="4"/>
         <v>33420</v>
@@ -5179,7 +5205,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23">
         <f t="shared" si="4"/>
         <v>33451</v>
@@ -5203,7 +5229,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <f t="shared" si="4"/>
         <v>33482</v>
@@ -5227,7 +5253,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23">
         <f t="shared" si="4"/>
         <v>33512</v>
@@ -5251,7 +5277,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <f>EDATE(A54,1)</f>
         <v>33543</v>
@@ -5275,7 +5301,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <f t="shared" si="4"/>
         <v>33573</v>
@@ -5303,7 +5329,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="45" t="s">
         <v>77</v>
       </c>
@@ -5324,7 +5350,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <f>EDATE(A56,1)</f>
         <v>33604</v>
@@ -5348,7 +5374,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <f>EDATE(A58,1)</f>
         <v>33635</v>
@@ -5372,7 +5398,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <f t="shared" ref="A60:A69" si="5">EDATE(A59,1)</f>
         <v>33664</v>
@@ -5396,7 +5422,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <f t="shared" si="5"/>
         <v>33695</v>
@@ -5420,7 +5446,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23">
         <f t="shared" si="5"/>
         <v>33725</v>
@@ -5444,7 +5470,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <f t="shared" si="5"/>
         <v>33756</v>
@@ -5468,7 +5494,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23">
         <f t="shared" si="5"/>
         <v>33786</v>
@@ -5492,7 +5518,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
         <f t="shared" si="5"/>
         <v>33817</v>
@@ -5516,7 +5542,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="23">
         <f t="shared" si="5"/>
         <v>33848</v>
@@ -5540,7 +5566,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <f t="shared" si="5"/>
         <v>33878</v>
@@ -5564,7 +5590,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <f>EDATE(A67,1)</f>
         <v>33909</v>
@@ -5588,7 +5614,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23">
         <f t="shared" si="5"/>
         <v>33939</v>
@@ -5616,7 +5642,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="45" t="s">
         <v>78</v>
       </c>
@@ -5637,7 +5663,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23">
         <f>EDATE(A69,1)</f>
         <v>33970</v>
@@ -5661,7 +5687,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <f>EDATE(A71,1)</f>
         <v>34001</v>
@@ -5685,7 +5711,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23">
         <f t="shared" ref="A73:A81" si="6">EDATE(A72,1)</f>
         <v>34029</v>
@@ -5709,7 +5735,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23">
         <f t="shared" si="6"/>
         <v>34060</v>
@@ -5733,7 +5759,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <f t="shared" si="6"/>
         <v>34090</v>
@@ -5757,7 +5783,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23">
         <f t="shared" si="6"/>
         <v>34121</v>
@@ -5781,7 +5807,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <f t="shared" si="6"/>
         <v>34151</v>
@@ -5805,7 +5831,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23">
         <f t="shared" si="6"/>
         <v>34182</v>
@@ -5829,7 +5855,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23">
         <f t="shared" si="6"/>
         <v>34213</v>
@@ -5853,7 +5879,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <f t="shared" si="6"/>
         <v>34243</v>
@@ -5877,7 +5903,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <f t="shared" si="6"/>
         <v>34274</v>
@@ -5901,7 +5927,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23">
         <f>EDATE(A81,1)</f>
         <v>34304</v>
@@ -5929,7 +5955,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="49" t="s">
         <v>79</v>
       </c>
@@ -5950,7 +5976,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="50" t="s">
         <v>80</v>
       </c>
@@ -5975,7 +6001,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="52" t="s">
         <v>82</v>
       </c>
@@ -6000,7 +6026,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23">
         <v>34608</v>
       </c>
@@ -6027,7 +6053,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <f>EDATE(A86,1)</f>
         <v>34639</v>
@@ -6055,7 +6081,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
         <f>EDATE(A87,1)</f>
         <v>34669</v>
@@ -6083,7 +6109,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="45" t="s">
         <v>86</v>
       </c>
@@ -6104,7 +6130,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <f>EDATE(A88,1)</f>
         <v>34700</v>
@@ -6132,7 +6158,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23"/>
       <c r="B91" s="20" t="s">
         <v>87</v>
@@ -6155,7 +6181,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
         <f>EDATE(A90,1)</f>
         <v>34731</v>
@@ -6183,7 +6209,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="23">
         <f t="shared" ref="A93:A107" si="8">EDATE(A92,1)</f>
         <v>34759</v>
@@ -6211,7 +6237,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23"/>
       <c r="B94" s="20" t="s">
         <v>53</v>
@@ -6234,7 +6260,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <f>EDATE(A93,1)</f>
         <v>34790</v>
@@ -6262,7 +6288,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23">
         <f t="shared" si="8"/>
         <v>34820</v>
@@ -6290,7 +6316,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23"/>
       <c r="B97" s="20" t="s">
         <v>53</v>
@@ -6313,7 +6339,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <f>EDATE(A96,1)</f>
         <v>34851</v>
@@ -6341,7 +6367,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>91</v>
@@ -6364,7 +6390,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <f>EDATE(A98,1)</f>
         <v>34881</v>
@@ -6392,7 +6418,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23"/>
       <c r="B101" s="20" t="s">
         <v>54</v>
@@ -6415,7 +6441,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <f>EDATE(A100,1)</f>
         <v>34912</v>
@@ -6443,7 +6469,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23"/>
       <c r="B103" s="20" t="s">
         <v>54</v>
@@ -6466,7 +6492,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <f>EDATE(A102,1)</f>
         <v>34943</v>
@@ -6494,7 +6520,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
         <f t="shared" si="8"/>
         <v>34973</v>
@@ -6522,7 +6548,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <f>EDATE(A105,1)</f>
         <v>35004</v>
@@ -6546,7 +6572,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <f t="shared" si="8"/>
         <v>35034</v>
@@ -6572,7 +6598,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="45" t="s">
         <v>94</v>
       </c>
@@ -6593,7 +6619,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
         <f>EDATE(A107,1)</f>
         <v>35065</v>
@@ -6617,7 +6643,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <f>EDATE(A109,1)</f>
         <v>35096</v>
@@ -6645,7 +6671,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>95</v>
@@ -6668,7 +6694,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
         <f>EDATE(A110,1)</f>
         <v>35125</v>
@@ -6692,7 +6718,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
         <f t="shared" ref="A113:A122" si="9">EDATE(A112,1)</f>
         <v>35156</v>
@@ -6716,7 +6742,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <f t="shared" si="9"/>
         <v>35186</v>
@@ -6744,7 +6770,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="23"/>
       <c r="B115" s="20" t="s">
         <v>53</v>
@@ -6767,7 +6793,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <f>EDATE(A114,1)</f>
         <v>35217</v>
@@ -6795,7 +6821,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>96</v>
@@ -6818,7 +6844,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
         <f>EDATE(A116,1)</f>
         <v>35247</v>
@@ -6842,7 +6868,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
         <f t="shared" si="9"/>
         <v>35278</v>
@@ -6870,7 +6896,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23"/>
       <c r="B120" s="20" t="s">
         <v>53</v>
@@ -6893,7 +6919,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23">
         <f>EDATE(A119,1)</f>
         <v>35309</v>
@@ -6917,7 +6943,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <f t="shared" si="9"/>
         <v>35339</v>
@@ -6945,7 +6971,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23"/>
       <c r="B123" s="20" t="s">
         <v>85</v>
@@ -6968,7 +6994,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <f>EDATE(A122,1)</f>
         <v>35370</v>
@@ -6996,7 +7022,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23">
         <f>EDATE(A124,1)</f>
         <v>35400</v>
@@ -7024,7 +7050,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="45" t="s">
         <v>98</v>
       </c>
@@ -7045,7 +7071,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23">
         <f>EDATE(A125,1)</f>
         <v>35431</v>
@@ -7069,7 +7095,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23">
         <f>EDATE(A127,1)</f>
         <v>35462</v>
@@ -7093,7 +7119,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23">
         <f t="shared" ref="A129:A140" si="10">EDATE(A128,1)</f>
         <v>35490</v>
@@ -7117,7 +7143,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <f t="shared" si="10"/>
         <v>35521</v>
@@ -7141,7 +7167,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <f t="shared" si="10"/>
         <v>35551</v>
@@ -7165,7 +7191,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23">
         <f t="shared" si="10"/>
         <v>35582</v>
@@ -7189,7 +7215,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <f t="shared" si="10"/>
         <v>35612</v>
@@ -7219,7 +7245,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23"/>
       <c r="B134" s="20" t="s">
         <v>53</v>
@@ -7244,7 +7270,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23">
         <f>EDATE(A133,1)</f>
         <v>35643</v>
@@ -7274,7 +7300,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23"/>
       <c r="B136" s="20" t="s">
         <v>53</v>
@@ -7299,7 +7325,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23">
         <f>EDATE(A135,1)</f>
         <v>35674</v>
@@ -7329,7 +7355,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <f>EDATE(A137,1)</f>
         <v>35704</v>
@@ -7359,7 +7385,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="23">
         <f t="shared" si="10"/>
         <v>35735</v>
@@ -7387,7 +7413,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23">
         <f t="shared" si="10"/>
         <v>35765</v>
@@ -7415,7 +7441,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="45" t="s">
         <v>101</v>
       </c>
@@ -7436,7 +7462,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23">
         <f>EDATE(A140,1)</f>
         <v>35796</v>
@@ -7460,7 +7486,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <f>EDATE(A142,1)</f>
         <v>35827</v>
@@ -7484,7 +7510,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <f t="shared" ref="A144:A148" si="12">EDATE(A143,1)</f>
         <v>35855</v>
@@ -7508,7 +7534,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <f t="shared" si="12"/>
         <v>35886</v>
@@ -7536,7 +7562,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23">
         <f t="shared" si="12"/>
         <v>35916</v>
@@ -7564,7 +7590,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <f t="shared" si="12"/>
         <v>35947</v>
@@ -7592,7 +7618,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23">
         <f t="shared" si="12"/>
         <v>35977</v>
@@ -7622,7 +7648,7 @@
         <v>45122</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>103</v>
@@ -7645,7 +7671,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23">
         <f>EDATE(A148,1)</f>
         <v>36008</v>
@@ -7675,7 +7701,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>50</v>
@@ -7698,7 +7724,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23"/>
       <c r="B152" s="20" t="s">
         <v>104</v>
@@ -7721,7 +7747,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23">
         <f>EDATE(A150,1)</f>
         <v>36039</v>
@@ -7751,7 +7777,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>105</v>
@@ -7774,7 +7800,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <f>EDATE(A153,1)</f>
         <v>36069</v>
@@ -7804,7 +7830,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>53</v>
@@ -7827,7 +7853,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="53"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23"/>
       <c r="B157" s="20" t="s">
         <v>106</v>
@@ -7850,7 +7876,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="53"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23">
         <f>EDATE(A155,1)</f>
         <v>36100</v>
@@ -7878,7 +7904,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23">
         <f>EDATE(A158,1)</f>
         <v>36130</v>
@@ -7902,7 +7928,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="45" t="s">
         <v>108</v>
       </c>
@@ -7923,7 +7949,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23">
         <f>EDATE(A159,1)</f>
         <v>36161</v>
@@ -7953,7 +7979,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23"/>
       <c r="B162" s="20" t="s">
         <v>109</v>
@@ -7976,7 +8002,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23">
         <f>EDATE(A161,1)</f>
         <v>36192</v>
@@ -8006,7 +8032,7 @@
         <v>44982</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>51</v>
@@ -8029,7 +8055,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23"/>
       <c r="B165" s="20" t="s">
         <v>53</v>
@@ -8054,7 +8080,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
         <v>110</v>
@@ -8077,7 +8103,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23">
         <f>EDATE(A163,1)</f>
         <v>36220</v>
@@ -8105,7 +8131,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23">
         <f t="shared" ref="A168" si="13">EDATE(A167,1)</f>
         <v>36251</v>
@@ -8133,7 +8159,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
         <v>53</v>
@@ -8158,7 +8184,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>112</v>
@@ -8181,7 +8207,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23">
         <f>EDATE(A168,1)</f>
         <v>36281</v>
@@ -8211,7 +8237,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>50</v>
@@ -8234,7 +8260,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23"/>
       <c r="B173" s="20" t="s">
         <v>113</v>
@@ -8257,7 +8283,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23">
         <f>EDATE(A171,1)</f>
         <v>36312</v>
@@ -8287,7 +8313,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23"/>
       <c r="B175" s="20" t="s">
         <v>50</v>
@@ -8310,7 +8336,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>114</v>
@@ -8333,7 +8359,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <f>EDATE(A174,1)</f>
         <v>36342</v>
@@ -8363,7 +8389,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
         <v>53</v>
@@ -8388,7 +8414,7 @@
         <v>45137</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23"/>
       <c r="B179" s="20" t="s">
         <v>116</v>
@@ -8411,7 +8437,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="53"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23">
         <f>EDATE(A177,1)</f>
         <v>36373</v>
@@ -8441,7 +8467,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>117</v>
@@ -8464,7 +8490,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
         <v>50</v>
@@ -8487,7 +8513,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23">
         <f>EDATE(A180,1)</f>
         <v>36404</v>
@@ -8517,7 +8543,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>53</v>
@@ -8542,7 +8568,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23"/>
       <c r="B185" s="20" t="s">
         <v>118</v>
@@ -8565,7 +8591,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23">
         <f>EDATE(A183,1)</f>
         <v>36434</v>
@@ -8595,7 +8621,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>91</v>
@@ -8620,7 +8646,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>119</v>
@@ -8643,7 +8669,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="23">
         <f>EDATE(A186,1)</f>
         <v>36465</v>
@@ -8673,7 +8699,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
         <v>97</v>
@@ -8698,7 +8724,7 @@
         <v>45255</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23"/>
       <c r="B191" s="20" t="s">
         <v>120</v>
@@ -8721,7 +8747,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23">
         <f>EDATE(A189,1)</f>
         <v>36495</v>
@@ -8751,7 +8777,7 @@
         <v>45277</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>53</v>
@@ -8776,7 +8802,7 @@
         <v>45275</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
         <v>121</v>
@@ -8799,7 +8825,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="45" t="s">
         <v>122</v>
       </c>
@@ -8820,7 +8846,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23">
         <f>EDATE(A192,1)</f>
         <v>36526</v>
@@ -8850,7 +8876,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>50</v>
@@ -8873,7 +8899,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>123</v>
@@ -8896,7 +8922,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23"/>
       <c r="B199" s="20" t="s">
         <v>56</v>
@@ -8921,7 +8947,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23">
         <f>EDATE(A196,1)</f>
         <v>36557</v>
@@ -8949,7 +8975,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23">
         <f t="shared" ref="A201" si="14">EDATE(A200,1)</f>
         <v>36586</v>
@@ -8979,7 +9005,7 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>124</v>
@@ -9002,7 +9028,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23">
         <f>EDATE(A201,1)</f>
         <v>36617</v>
@@ -9032,7 +9058,7 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>50</v>
@@ -9055,7 +9081,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23"/>
       <c r="B205" s="20" t="s">
         <v>125</v>
@@ -9078,7 +9104,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23">
         <f>EDATE(A203,1)</f>
         <v>36647</v>
@@ -9106,7 +9132,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23">
         <f>EDATE(A206,1)</f>
         <v>36678</v>
@@ -9134,7 +9160,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>127</v>
@@ -9157,7 +9183,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23">
         <f>EDATE(A207,1)</f>
         <v>36708</v>
@@ -9187,7 +9213,7 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
         <v>128</v>
@@ -9210,7 +9236,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23">
         <f>EDATE(A209,1)</f>
         <v>36739</v>
@@ -9240,7 +9266,7 @@
         <v>45145</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>91</v>
@@ -9265,7 +9291,7 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="23"/>
       <c r="B213" s="20" t="s">
         <v>123</v>
@@ -9288,7 +9314,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23">
         <f>EDATE(A211,1)</f>
         <v>36770</v>
@@ -9318,7 +9344,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>91</v>
@@ -9343,7 +9369,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
         <v>129</v>
@@ -9366,7 +9392,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23">
         <f>EDATE(A214,1)</f>
         <v>36800</v>
@@ -9396,7 +9422,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23"/>
       <c r="B218" s="20" t="s">
         <v>91</v>
@@ -9421,7 +9447,7 @@
         <v>45229</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>130</v>
@@ -9444,7 +9470,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23">
         <f>EDATE(A217,1)</f>
         <v>36831</v>
@@ -9474,7 +9500,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
         <v>54</v>
@@ -9499,7 +9525,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>56</v>
@@ -9524,7 +9550,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23"/>
       <c r="B223" s="20" t="s">
         <v>131</v>
@@ -9547,7 +9573,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23">
         <f>EDATE(A220,1)</f>
         <v>36861</v>
@@ -9577,7 +9603,7 @@
         <v>45271</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>92</v>
@@ -9602,7 +9628,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>132</v>
@@ -9625,7 +9651,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="45" t="s">
         <v>133</v>
       </c>
@@ -9646,7 +9672,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23">
         <f>EDATE(A224,1)</f>
         <v>36892</v>
@@ -9674,7 +9700,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23">
         <f>EDATE(A228,1)</f>
         <v>36923</v>
@@ -9704,7 +9730,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>53</v>
@@ -9729,7 +9755,7 @@
         <v>44973</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23"/>
       <c r="B231" s="20" t="s">
         <v>134</v>
@@ -9752,7 +9778,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23">
         <f>EDATE(A229,1)</f>
         <v>36951</v>
@@ -9780,7 +9806,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23">
         <f t="shared" ref="A233:A234" si="16">EDATE(A232,1)</f>
         <v>36982</v>
@@ -9808,7 +9834,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23">
         <f t="shared" si="16"/>
         <v>37012</v>
@@ -9838,7 +9864,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>137</v>
@@ -9861,7 +9887,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23">
         <f>EDATE(A234,1)</f>
         <v>37043</v>
@@ -9891,7 +9917,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
         <v>50</v>
@@ -9914,7 +9940,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="23"/>
       <c r="B238" s="20" t="s">
         <v>50</v>
@@ -9937,7 +9963,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="23"/>
       <c r="B239" s="20" t="s">
         <v>138</v>
@@ -9960,7 +9986,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="53"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23">
         <f>EDATE(A236,1)</f>
         <v>37073</v>
@@ -9990,7 +10016,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
         <v>53</v>
@@ -10015,7 +10041,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
         <v>139</v>
@@ -10038,7 +10064,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="23">
         <f>EDATE(A240,1)</f>
         <v>37104</v>
@@ -10068,7 +10094,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23"/>
       <c r="B244" s="20" t="s">
         <v>140</v>
@@ -10091,7 +10117,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23">
         <f>EDATE(A243,1)</f>
         <v>37135</v>
@@ -10121,7 +10147,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23"/>
       <c r="B246" s="20" t="s">
         <v>115</v>
@@ -10146,7 +10172,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
         <v>141</v>
@@ -10169,7 +10195,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23">
         <f>EDATE(A245,1)</f>
         <v>37165</v>
@@ -10199,7 +10225,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>53</v>
@@ -10224,7 +10250,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23"/>
       <c r="B250" s="20" t="s">
         <v>142</v>
@@ -10247,7 +10273,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23">
         <f>EDATE(A248,1)</f>
         <v>37196</v>
@@ -10277,7 +10303,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23"/>
       <c r="B252" s="20" t="s">
         <v>53</v>
@@ -10302,7 +10328,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
         <v>143</v>
@@ -10325,7 +10351,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <f>EDATE(A251,1)</f>
         <v>37226</v>
@@ -10353,7 +10379,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="45" t="s">
         <v>145</v>
       </c>
@@ -10374,7 +10400,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23">
         <f>EDATE(A254,1)</f>
         <v>37257</v>
@@ -10402,7 +10428,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23">
         <f>EDATE(A256,1)</f>
         <v>37288</v>
@@ -10432,7 +10458,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>92</v>
@@ -10457,7 +10483,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23"/>
       <c r="B259" s="20" t="s">
         <v>54</v>
@@ -10482,7 +10508,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23"/>
       <c r="B260" s="20" t="s">
         <v>50</v>
@@ -10505,7 +10531,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23"/>
       <c r="B261" s="20" t="s">
         <v>50</v>
@@ -10528,7 +10554,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23"/>
       <c r="B262" s="20" t="s">
         <v>53</v>
@@ -10553,7 +10579,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>56</v>
@@ -10578,7 +10604,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23"/>
       <c r="B264" s="20" t="s">
         <v>148</v>
@@ -10601,7 +10627,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="53"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23">
         <f>EDATE(A257,1)</f>
         <v>37316</v>
@@ -10629,7 +10655,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23">
         <f t="shared" ref="A266:A291" si="17">EDATE(A265,1)</f>
         <v>37347</v>
@@ -10659,7 +10685,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>149</v>
@@ -10682,7 +10708,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23">
         <f>EDATE(A266,1)</f>
         <v>37377</v>
@@ -10712,7 +10738,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23"/>
       <c r="B269" s="20" t="s">
         <v>56</v>
@@ -10737,7 +10763,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>53</v>
@@ -10762,7 +10788,7 @@
         <v>45073</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23"/>
       <c r="B271" s="20" t="s">
         <v>53</v>
@@ -10787,7 +10813,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>56</v>
@@ -10812,7 +10838,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23"/>
       <c r="B273" s="20" t="s">
         <v>150</v>
@@ -10835,7 +10861,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23">
         <f>EDATE(A268,1)</f>
         <v>37408</v>
@@ -10863,7 +10889,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
         <v>56</v>
@@ -10888,7 +10914,7 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23"/>
       <c r="B276" s="20" t="s">
         <v>151</v>
@@ -10911,7 +10937,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="53"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>53</v>
@@ -10936,7 +10962,7 @@
         <v>45105</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23">
         <f>EDATE(A274,1)</f>
         <v>37438</v>
@@ -10966,7 +10992,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>92</v>
@@ -10991,7 +11017,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23"/>
       <c r="B280" s="20" t="s">
         <v>152</v>
@@ -11014,7 +11040,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="23">
         <f>EDATE(A278,1)</f>
         <v>37469</v>
@@ -11044,7 +11070,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23"/>
       <c r="B282" s="20" t="s">
         <v>153</v>
@@ -11067,7 +11093,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
         <v>53</v>
@@ -11092,7 +11118,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23">
         <f>EDATE(A281,1)</f>
         <v>37500</v>
@@ -11122,7 +11148,7 @@
         <v>45167</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
         <v>92</v>
@@ -11147,7 +11173,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
         <v>56</v>
@@ -11172,7 +11198,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23"/>
       <c r="B287" s="20" t="s">
         <v>154</v>
@@ -11195,7 +11221,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="53"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23">
         <f>EDATE(A284,1)</f>
         <v>37530</v>
@@ -11225,7 +11251,7 @@
         <v>45215</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>155</v>
@@ -11248,7 +11274,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23">
         <f>EDATE(A288,1)</f>
         <v>37561</v>
@@ -11276,7 +11302,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23">
         <f t="shared" si="17"/>
         <v>37591</v>
@@ -11306,7 +11332,7 @@
         <v>45276</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>157</v>
@@ -11329,7 +11355,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="45" t="s">
         <v>158</v>
       </c>
@@ -11350,7 +11376,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23">
         <f>EDATE(A291,1)</f>
         <v>37622</v>
@@ -11380,7 +11406,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
         <v>53</v>
@@ -11405,7 +11431,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23"/>
       <c r="B296" s="20" t="s">
         <v>159</v>
@@ -11428,7 +11454,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23">
         <f>EDATE(A294,1)</f>
         <v>37653</v>
@@ -11458,7 +11484,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
         <v>161</v>
@@ -11481,7 +11507,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23">
         <f>EDATE(A297,1)</f>
         <v>37681</v>
@@ -11509,7 +11535,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23"/>
       <c r="B300" s="20" t="s">
         <v>163</v>
@@ -11532,7 +11558,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23">
         <f>EDATE(A299,1)</f>
         <v>37712</v>
@@ -11562,7 +11588,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23"/>
       <c r="B302" s="20" t="s">
         <v>53</v>
@@ -11587,7 +11613,7 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
         <v>164</v>
@@ -11610,7 +11636,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23">
         <f>EDATE(A301,1)</f>
         <v>37742</v>
@@ -11640,7 +11666,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="23"/>
       <c r="B305" s="20" t="s">
         <v>50</v>
@@ -11663,7 +11689,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23"/>
       <c r="B306" s="20" t="s">
         <v>165</v>
@@ -11686,7 +11712,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="53"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23">
         <f>EDATE(A304,1)</f>
         <v>37773</v>
@@ -11716,7 +11742,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23"/>
       <c r="B308" s="20" t="s">
         <v>166</v>
@@ -11739,7 +11765,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23">
         <f>EDATE(A307,1)</f>
         <v>37803</v>
@@ -11769,7 +11795,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
         <v>50</v>
@@ -11792,7 +11818,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23"/>
       <c r="B311" s="20" t="s">
         <v>167</v>
@@ -11815,7 +11841,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23"/>
       <c r="B312" s="20" t="s">
         <v>92</v>
@@ -11840,7 +11866,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23">
         <f>EDATE(A309,1)</f>
         <v>37834</v>
@@ -11864,7 +11890,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23">
         <f t="shared" ref="A314:A318" si="19">EDATE(A313,1)</f>
         <v>37865</v>
@@ -11890,7 +11916,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23"/>
       <c r="B315" s="20" t="s">
         <v>56</v>
@@ -11913,7 +11939,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23"/>
       <c r="B316" s="20" t="s">
         <v>168</v>
@@ -11936,7 +11962,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23">
         <f>EDATE(A314,1)</f>
         <v>37895</v>
@@ -11964,7 +11990,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23">
         <f t="shared" si="19"/>
         <v>37926</v>
@@ -11994,7 +12020,7 @@
         <v>45254</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23"/>
       <c r="B319" s="20" t="s">
         <v>170</v>
@@ -12017,7 +12043,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="53"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23">
         <f>EDATE(A318,1)</f>
         <v>37956</v>
@@ -12047,7 +12073,7 @@
         <v>45277</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
         <v>53</v>
@@ -12072,7 +12098,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23"/>
       <c r="B322" s="20" t="s">
         <v>171</v>
@@ -12095,7 +12121,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="45" t="s">
         <v>172</v>
       </c>
@@ -12116,7 +12142,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23">
         <f>EDATE(A320,1)</f>
         <v>37987</v>
@@ -12144,7 +12170,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23">
         <f>EDATE(A324,1)</f>
         <v>38018</v>
@@ -12172,7 +12198,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23"/>
       <c r="B326" s="20" t="s">
         <v>54</v>
@@ -12197,7 +12223,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23">
         <f>EDATE(A325,1)</f>
         <v>38047</v>
@@ -12227,7 +12253,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23"/>
       <c r="B328" s="20" t="s">
         <v>50</v>
@@ -12250,7 +12276,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23"/>
       <c r="B329" s="20" t="s">
         <v>175</v>
@@ -12273,7 +12299,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23">
         <f>EDATE(A327,1)</f>
         <v>38078</v>
@@ -12301,7 +12327,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23"/>
       <c r="B331" s="20" t="s">
         <v>54</v>
@@ -12326,7 +12352,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23"/>
       <c r="B332" s="20" t="s">
         <v>176</v>
@@ -12349,7 +12375,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="23">
         <f>EDATE(A330,1)</f>
         <v>38108</v>
@@ -12379,7 +12405,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23"/>
       <c r="B334" s="20" t="s">
         <v>50</v>
@@ -12402,7 +12428,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23"/>
       <c r="B335" s="20" t="s">
         <v>177</v>
@@ -12425,7 +12451,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23">
         <f>EDATE(A333,1)</f>
         <v>38139</v>
@@ -12455,7 +12481,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="23"/>
       <c r="B337" s="20" t="s">
         <v>51</v>
@@ -12480,7 +12506,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23"/>
       <c r="B338" s="20" t="s">
         <v>53</v>
@@ -12505,7 +12531,7 @@
         <v>45101</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23"/>
       <c r="B339" s="20" t="s">
         <v>56</v>
@@ -12530,7 +12556,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
         <v>127</v>
@@ -12553,7 +12579,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23">
         <f>EDATE(A336,1)</f>
         <v>38169</v>
@@ -12579,7 +12605,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="23"/>
       <c r="B342" s="20" t="s">
         <v>178</v>
@@ -12602,7 +12628,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23">
         <f>EDATE(A341,1)</f>
         <v>38200</v>
@@ -12632,7 +12658,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23"/>
       <c r="B344" s="20" t="s">
         <v>92</v>
@@ -12657,7 +12683,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="23"/>
       <c r="B345" s="20" t="s">
         <v>119</v>
@@ -12680,7 +12706,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23">
         <f>EDATE(A343,1)</f>
         <v>38231</v>
@@ -12710,7 +12736,7 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23"/>
       <c r="B347" s="20" t="s">
         <v>53</v>
@@ -12735,7 +12761,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23"/>
       <c r="B348" s="20" t="s">
         <v>179</v>
@@ -12758,7 +12784,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="53"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23">
         <f>EDATE(A346,1)</f>
         <v>38261</v>
@@ -12788,7 +12814,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="23"/>
       <c r="B350" s="20" t="s">
         <v>180</v>
@@ -12811,7 +12837,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="53"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="23">
         <f t="shared" ref="A351" si="21">EDATE(A349,1)</f>
         <v>38292</v>
@@ -12841,7 +12867,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="23"/>
       <c r="B352" s="20" t="s">
         <v>181</v>
@@ -12864,7 +12890,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="23">
         <f>EDATE(A351,1)</f>
         <v>38322</v>
@@ -12894,7 +12920,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="23"/>
       <c r="B354" s="20" t="s">
         <v>53</v>
@@ -12919,7 +12945,7 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="23"/>
       <c r="B355" s="20" t="s">
         <v>182</v>
@@ -12942,7 +12968,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="45" t="s">
         <v>183</v>
       </c>
@@ -12963,7 +12989,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="23">
         <f>EDATE(A353,1)</f>
         <v>38353</v>
@@ -12991,7 +13017,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="23"/>
       <c r="B358" s="20" t="s">
         <v>53</v>
@@ -13016,7 +13042,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="23"/>
       <c r="B359" s="20" t="s">
         <v>53</v>
@@ -13041,7 +13067,7 @@
         <v>44957</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="23"/>
       <c r="B360" s="20" t="s">
         <v>184</v>
@@ -13064,7 +13090,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="23">
         <f>EDATE(A357,1)</f>
         <v>38384</v>
@@ -13094,7 +13120,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="23"/>
       <c r="B362" s="20" t="s">
         <v>185</v>
@@ -13117,7 +13143,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="23">
         <f>EDATE(A361,1)</f>
         <v>38412</v>
@@ -13147,7 +13173,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="23"/>
       <c r="B364" s="20" t="s">
         <v>186</v>
@@ -13170,7 +13196,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="23">
         <f>EDATE(A363,1)</f>
         <v>38443</v>
@@ -13198,7 +13224,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="23">
         <f t="shared" ref="A366:A388" si="22">EDATE(A365,1)</f>
         <v>38473</v>
@@ -13228,7 +13254,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="23"/>
       <c r="B367" s="20" t="s">
         <v>68</v>
@@ -13253,7 +13279,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="23"/>
       <c r="B368" s="20" t="s">
         <v>56</v>
@@ -13278,7 +13304,7 @@
         <v>45073</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="23"/>
       <c r="B369" s="20" t="s">
         <v>188</v>
@@ -13301,7 +13327,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="53"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="23">
         <f>EDATE(A366,1)</f>
         <v>38504</v>
@@ -13331,7 +13357,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="23"/>
       <c r="B371" s="20" t="s">
         <v>50</v>
@@ -13354,7 +13380,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="23"/>
       <c r="B372" s="20" t="s">
         <v>56</v>
@@ -13379,7 +13405,7 @@
         <v>45105</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="23"/>
       <c r="B373" s="20" t="s">
         <v>53</v>
@@ -13404,7 +13430,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="23"/>
       <c r="B374" s="20" t="s">
         <v>189</v>
@@ -13427,7 +13453,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="23">
         <f>EDATE(A370,1)</f>
         <v>38534</v>
@@ -13457,7 +13483,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="23"/>
       <c r="B376" s="20" t="s">
         <v>53</v>
@@ -13482,7 +13508,7 @@
         <v>45129</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="23"/>
       <c r="B377" s="20" t="s">
         <v>53</v>
@@ -13507,7 +13533,7 @@
         <v>45137</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
         <v>190</v>
@@ -13530,7 +13556,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="23">
         <f>EDATE(A375,1)</f>
         <v>38565</v>
@@ -13558,7 +13584,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="23"/>
       <c r="B380" s="20" t="s">
         <v>53</v>
@@ -13579,7 +13605,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="23"/>
       <c r="B381" s="20" t="s">
         <v>191</v>
@@ -13602,7 +13628,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="23">
         <f>EDATE(A379,1)</f>
         <v>38596</v>
@@ -13632,7 +13658,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="23"/>
       <c r="B383" s="20" t="s">
         <v>68</v>
@@ -13657,7 +13683,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="23"/>
       <c r="B384" s="20" t="s">
         <v>192</v>
@@ -13680,7 +13706,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="23">
         <f>EDATE(A382,1)</f>
         <v>38626</v>
@@ -13708,7 +13734,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="23"/>
       <c r="B386" s="20" t="s">
         <v>194</v>
@@ -13731,7 +13757,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="23">
         <f>EDATE(A385,1)</f>
         <v>38657</v>
@@ -13759,7 +13785,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="23">
         <f t="shared" si="22"/>
         <v>38687</v>
@@ -13789,7 +13815,7 @@
         <v>45283</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="23"/>
       <c r="B389" s="20" t="s">
         <v>196</v>
@@ -13814,7 +13840,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="45" t="s">
         <v>197</v>
       </c>
@@ -13835,7 +13861,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="23">
         <f>EDATE(A388,1)</f>
         <v>38718</v>
@@ -13865,7 +13891,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="23"/>
       <c r="B392" s="20" t="s">
         <v>50</v>
@@ -13888,7 +13914,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="23"/>
       <c r="B393" s="20" t="s">
         <v>198</v>
@@ -13911,7 +13937,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="23">
         <f>EDATE(A391,1)</f>
         <v>38749</v>
@@ -13939,7 +13965,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="23">
         <f t="shared" ref="A395:A411" si="23">EDATE(A394,1)</f>
         <v>38777</v>
@@ -13967,7 +13993,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="23"/>
       <c r="B396" s="20" t="s">
         <v>50</v>
@@ -13990,7 +14016,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="23"/>
       <c r="B397" s="20" t="s">
         <v>200</v>
@@ -14013,7 +14039,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="23">
         <f>EDATE(A395,1)</f>
         <v>38808</v>
@@ -14041,7 +14067,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="23"/>
       <c r="B399" s="20" t="s">
         <v>68</v>
@@ -14066,7 +14092,7 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="23"/>
       <c r="B400" s="20" t="s">
         <v>202</v>
@@ -14091,7 +14117,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="23"/>
       <c r="B401" s="20" t="s">
         <v>54</v>
@@ -14116,7 +14142,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="23"/>
       <c r="B402" s="20" t="s">
         <v>68</v>
@@ -14141,7 +14167,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="23">
         <f>EDATE(A398,1)</f>
         <v>38838</v>
@@ -14169,7 +14195,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="23">
         <f t="shared" si="23"/>
         <v>38869</v>
@@ -14197,7 +14223,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="23">
         <f t="shared" si="23"/>
         <v>38899</v>
@@ -14227,7 +14253,7 @@
         <v>45125</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="23"/>
       <c r="B406" s="20" t="s">
         <v>53</v>
@@ -14252,7 +14278,7 @@
         <v>45127</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="23"/>
       <c r="B407" s="20" t="s">
         <v>68</v>
@@ -14277,7 +14303,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="23"/>
       <c r="B408" s="20" t="s">
         <v>92</v>
@@ -14302,7 +14328,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="23"/>
       <c r="B409" s="20" t="s">
         <v>205</v>
@@ -14325,7 +14351,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="23">
         <f>EDATE(A405,1)</f>
         <v>38930</v>
@@ -14353,7 +14379,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="23">
         <f t="shared" si="23"/>
         <v>38961</v>
@@ -14383,7 +14409,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="23"/>
       <c r="B412" s="20" t="s">
         <v>207</v>
@@ -14406,7 +14432,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="23">
         <f>EDATE(A411,1)</f>
         <v>38991</v>
@@ -14434,7 +14460,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="23">
         <f>EDATE(A413,1)</f>
         <v>39022</v>
@@ -14464,7 +14490,7 @@
         <v>45260</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="23"/>
       <c r="B415" s="20" t="s">
         <v>209</v>
@@ -14487,7 +14513,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="23">
         <f>EDATE(A414,1)</f>
         <v>39052</v>
@@ -14517,7 +14543,7 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="23"/>
       <c r="B417" s="20" t="s">
         <v>210</v>
@@ -14540,7 +14566,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="45" t="s">
         <v>211</v>
       </c>
@@ -14561,7 +14587,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="23">
         <f>EDATE(A416,1)</f>
         <v>39083</v>
@@ -14591,7 +14617,7 @@
         <v>44930</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="23"/>
       <c r="B420" s="20" t="s">
         <v>68</v>
@@ -14616,7 +14642,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="23"/>
       <c r="B421" s="20" t="s">
         <v>50</v>
@@ -14639,7 +14665,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="23"/>
       <c r="B422" s="20" t="s">
         <v>212</v>
@@ -14662,7 +14688,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="23">
         <f>EDATE(A419,1)</f>
         <v>39114</v>
@@ -14692,7 +14718,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="23"/>
       <c r="B424" s="20" t="s">
         <v>213</v>
@@ -14717,7 +14743,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="23"/>
       <c r="B425" s="20" t="s">
         <v>214</v>
@@ -14740,7 +14766,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="23">
         <f>EDATE(A423,1)</f>
         <v>39142</v>
@@ -14768,7 +14794,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="23"/>
       <c r="B427" s="20" t="s">
         <v>68</v>
@@ -14793,7 +14819,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="23"/>
       <c r="B428" s="20" t="s">
         <v>53</v>
@@ -14818,7 +14844,7 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="23"/>
       <c r="B429" s="20" t="s">
         <v>215</v>
@@ -14841,7 +14867,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="23">
         <f>EDATE(A426,1)</f>
         <v>39173</v>
@@ -14871,7 +14897,7 @@
         <v>45032</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="23"/>
       <c r="B431" s="20" t="s">
         <v>216</v>
@@ -14894,7 +14920,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="53"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="23">
         <f>EDATE(A430,1)</f>
         <v>39203</v>
@@ -14924,7 +14950,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="23"/>
       <c r="B433" s="20" t="s">
         <v>53</v>
@@ -14949,7 +14975,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="23"/>
       <c r="B434" s="20" t="s">
         <v>50</v>
@@ -14972,7 +14998,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="23"/>
       <c r="B435" s="20" t="s">
         <v>217</v>
@@ -14995,7 +15021,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="23">
         <f>EDATE(A432,1)</f>
         <v>39234</v>
@@ -15025,7 +15051,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="23"/>
       <c r="B437" s="20" t="s">
         <v>218</v>
@@ -15048,7 +15074,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="23">
         <f>EDATE(A436,1)</f>
         <v>39264</v>
@@ -15078,7 +15104,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="23"/>
       <c r="B439" s="20" t="s">
         <v>219</v>
@@ -15101,7 +15127,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="23">
         <f>EDATE(A438,1)</f>
         <v>39295</v>
@@ -15131,7 +15157,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="23"/>
       <c r="B441" s="20" t="s">
         <v>220</v>
@@ -15154,7 +15180,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="23">
         <f>EDATE(A440,1)</f>
         <v>39326</v>
@@ -15184,7 +15210,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="23"/>
       <c r="B443" s="20" t="s">
         <v>221</v>
@@ -15207,7 +15233,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="23">
         <f>EDATE(A442,1)</f>
         <v>39356</v>
@@ -15235,7 +15261,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="23">
         <f t="shared" ref="A445" si="25">EDATE(A444,1)</f>
         <v>39387</v>
@@ -15265,7 +15291,7 @@
         <v>45238</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="23"/>
       <c r="B446" s="20" t="s">
         <v>54</v>
@@ -15290,7 +15316,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="23"/>
       <c r="B447" s="20" t="s">
         <v>68</v>
@@ -15315,7 +15341,7 @@
         <v>45279</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="23"/>
       <c r="B448" s="20" t="s">
         <v>223</v>
@@ -15338,7 +15364,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="23">
         <f>EDATE(A445,1)</f>
         <v>39417</v>
@@ -15366,7 +15392,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="45" t="s">
         <v>225</v>
       </c>
@@ -15387,7 +15413,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="23">
         <f>EDATE(A449,1)</f>
         <v>39448</v>
@@ -15415,7 +15441,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="23"/>
       <c r="B452" s="20" t="s">
         <v>68</v>
@@ -15440,7 +15466,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="23"/>
       <c r="B453" s="20" t="s">
         <v>226</v>
@@ -15463,7 +15489,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="23">
         <f>EDATE(A451,1)</f>
         <v>39479</v>
@@ -15493,7 +15519,7 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="23"/>
       <c r="B455" s="20" t="s">
         <v>53</v>
@@ -15518,7 +15544,7 @@
         <v>47150</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="23"/>
       <c r="B456" s="20" t="s">
         <v>227</v>
@@ -15541,7 +15567,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="23">
         <f>EDATE(A454,1)</f>
         <v>39508</v>
@@ -15571,7 +15597,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="23"/>
       <c r="B458" s="20" t="s">
         <v>50</v>
@@ -15594,7 +15620,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="23"/>
       <c r="B459" s="20" t="s">
         <v>228</v>
@@ -15617,7 +15643,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="23">
         <f>EDATE(A457,1)</f>
         <v>39539</v>
@@ -15647,7 +15673,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="23"/>
       <c r="B461" s="20" t="s">
         <v>53</v>
@@ -15672,7 +15698,7 @@
         <v>45038</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="23"/>
       <c r="B462" s="20" t="s">
         <v>229</v>
@@ -15695,7 +15721,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="23">
         <f>EDATE(A460,1)</f>
         <v>39569</v>
@@ -15725,7 +15751,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="23"/>
       <c r="B464" s="20" t="s">
         <v>85</v>
@@ -15750,7 +15776,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="23"/>
       <c r="B465" s="20" t="s">
         <v>230</v>
@@ -15773,7 +15799,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="23">
         <f>EDATE(A463,1)</f>
         <v>39600</v>
@@ -15803,7 +15829,7 @@
         <v>45094</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="23"/>
       <c r="B467" s="20" t="s">
         <v>53</v>
@@ -15828,7 +15854,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="23"/>
       <c r="B468" s="20" t="s">
         <v>50</v>
@@ -15851,7 +15877,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="23">
         <f>EDATE(A466,1)</f>
         <v>39630</v>
@@ -15881,7 +15907,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="23"/>
       <c r="B470" s="20" t="s">
         <v>231</v>
@@ -15904,7 +15930,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="53"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="23">
         <f>EDATE(A469,1)</f>
         <v>39661</v>
@@ -15932,7 +15958,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="23"/>
       <c r="B472" s="20" t="s">
         <v>232</v>
@@ -15955,7 +15981,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="23">
         <f>EDATE(A471,1)</f>
         <v>39692</v>
@@ -15985,7 +16011,7 @@
         <v>45178</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="23"/>
       <c r="B474" s="20" t="s">
         <v>233</v>
@@ -16008,7 +16034,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="23">
         <f>EDATE(A473,1)</f>
         <v>39722</v>
@@ -16038,7 +16064,7 @@
         <v>45228</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="23"/>
       <c r="B476" s="20" t="s">
         <v>68</v>
@@ -16063,7 +16089,7 @@
         <v>45269</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="23"/>
       <c r="B477" s="20" t="s">
         <v>234</v>
@@ -16086,7 +16112,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="23">
         <f t="shared" ref="A478" si="27">EDATE(A475,1)</f>
         <v>39753</v>
@@ -16114,7 +16140,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="23">
         <f>EDATE(A478,1)</f>
         <v>39783</v>
@@ -16144,7 +16170,7 @@
         <v>45282</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="23"/>
       <c r="B480" s="20" t="s">
         <v>236</v>
@@ -16167,7 +16193,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="45" t="s">
         <v>237</v>
       </c>
@@ -16188,7 +16214,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="23">
         <f>EDATE(A479,1)</f>
         <v>39814</v>
@@ -16218,7 +16244,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="23"/>
       <c r="B483" s="20" t="s">
         <v>238</v>
@@ -16241,7 +16267,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="23">
         <f>EDATE(A482,1)</f>
         <v>39845</v>
@@ -16271,7 +16297,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="23"/>
       <c r="B485" s="20" t="s">
         <v>53</v>
@@ -16296,7 +16322,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="23"/>
       <c r="B486" s="20" t="s">
         <v>213</v>
@@ -16321,7 +16347,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="23"/>
       <c r="B487" s="20" t="s">
         <v>50</v>
@@ -16344,7 +16370,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="23"/>
       <c r="B488" s="20" t="s">
         <v>239</v>
@@ -16367,7 +16393,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="23">
         <f>EDATE(A484,1)</f>
         <v>39873</v>
@@ -16395,7 +16421,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="23">
         <f t="shared" ref="A490:A501" si="28">EDATE(A489,1)</f>
         <v>39904</v>
@@ -16423,7 +16449,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="23">
         <f t="shared" si="28"/>
         <v>39934</v>
@@ -16453,7 +16479,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="23"/>
       <c r="B492" s="20" t="s">
         <v>53</v>
@@ -16478,7 +16504,7 @@
         <v>45073</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="23"/>
       <c r="B493" s="20" t="s">
         <v>242</v>
@@ -16501,7 +16527,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="23">
         <f>EDATE(A491,1)</f>
         <v>39965</v>
@@ -16531,7 +16557,7 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="23"/>
       <c r="B495" s="20" t="s">
         <v>243</v>
@@ -16554,7 +16580,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="23">
         <f>EDATE(A494,1)</f>
         <v>39995</v>
@@ -16582,7 +16608,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="23"/>
       <c r="B497" s="20" t="s">
         <v>53</v>
@@ -16607,7 +16633,7 @@
         <v>45109</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="23">
         <f>EDATE(A496,1)</f>
         <v>40026</v>
@@ -16637,7 +16663,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="23"/>
       <c r="B499" s="20" t="s">
         <v>245</v>
@@ -16660,7 +16686,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="23">
         <f>EDATE(A498,1)</f>
         <v>40057</v>
@@ -16688,7 +16714,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="23">
         <f t="shared" si="28"/>
         <v>40087</v>
@@ -16718,7 +16744,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="23"/>
       <c r="B502" s="20" t="s">
         <v>50</v>
@@ -16741,7 +16767,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="23"/>
       <c r="B503" s="20" t="s">
         <v>247</v>
@@ -16764,7 +16790,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="23">
         <f>EDATE(A501,1)</f>
         <v>40118</v>
@@ -16794,7 +16820,7 @@
         <v>45257</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="23"/>
       <c r="B505" s="20" t="s">
         <v>248</v>
@@ -16817,7 +16843,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="23">
         <f>EDATE(A504,1)</f>
         <v>40148</v>
@@ -16845,7 +16871,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="23"/>
       <c r="B507" s="20" t="s">
         <v>249</v>
@@ -16868,7 +16894,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="23"/>
       <c r="B508" s="20" t="s">
         <v>53</v>
@@ -16893,7 +16919,7 @@
         <v>45277</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="45" t="s">
         <v>250</v>
       </c>
@@ -16914,7 +16940,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="23">
         <f>EDATE(A506,1)</f>
         <v>40179</v>
@@ -16944,7 +16970,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="23"/>
       <c r="B511" s="20" t="s">
         <v>50</v>
@@ -16967,7 +16993,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="23"/>
       <c r="B512" s="20" t="s">
         <v>53</v>
@@ -16992,7 +17018,7 @@
         <v>44954</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="23"/>
       <c r="B513" s="20" t="s">
         <v>251</v>
@@ -17015,7 +17041,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="23">
         <f>EDATE(A510,1)</f>
         <v>40210</v>
@@ -17043,7 +17069,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="23"/>
       <c r="B515" s="20" t="s">
         <v>53</v>
@@ -17068,7 +17094,7 @@
         <v>44975</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="23"/>
       <c r="B516" s="20" t="s">
         <v>53</v>
@@ -17093,7 +17119,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="23"/>
       <c r="B517" s="20" t="s">
         <v>54</v>
@@ -17118,7 +17144,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="23"/>
       <c r="B518" s="20" t="s">
         <v>252</v>
@@ -17141,7 +17167,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="23">
         <f>EDATE(A514,1)</f>
         <v>40238</v>
@@ -17171,7 +17197,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="23"/>
       <c r="B520" s="20" t="s">
         <v>53</v>
@@ -17196,7 +17222,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="23"/>
       <c r="B521" s="20" t="s">
         <v>127</v>
@@ -17219,7 +17245,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="23">
         <f>EDATE(A519,1)</f>
         <v>40269</v>
@@ -17249,7 +17275,7 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="23"/>
       <c r="B523" s="20" t="s">
         <v>53</v>
@@ -17274,7 +17300,7 @@
         <v>45037</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="23"/>
       <c r="B524" s="20" t="s">
         <v>253</v>
@@ -17297,7 +17323,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="23">
         <f>EDATE(A522,1)</f>
         <v>40299</v>
@@ -17327,7 +17353,7 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="23"/>
       <c r="B526" s="20" t="s">
         <v>53</v>
@@ -17352,7 +17378,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="23"/>
       <c r="B527" s="20" t="s">
         <v>53</v>
@@ -17377,7 +17403,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="23"/>
       <c r="B528" s="20" t="s">
         <v>53</v>
@@ -17402,7 +17428,7 @@
         <v>45067</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="23"/>
       <c r="B529" s="20" t="s">
         <v>254</v>
@@ -17425,7 +17451,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="23">
         <f>EDATE(A525,1)</f>
         <v>40330</v>
@@ -17455,7 +17481,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="23"/>
       <c r="B531" s="20" t="s">
         <v>256</v>
@@ -17478,7 +17504,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="23">
         <f>EDATE(A530,1)</f>
         <v>40360</v>
@@ -17508,7 +17534,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="23"/>
       <c r="B533" s="20" t="s">
         <v>53</v>
@@ -17533,7 +17559,7 @@
         <v>45134</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="23"/>
       <c r="B534" s="20" t="s">
         <v>50</v>
@@ -17556,7 +17582,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="23"/>
       <c r="B535" s="20" t="s">
         <v>257</v>
@@ -17579,7 +17605,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="23">
         <f>EDATE(A532,1)</f>
         <v>40391</v>
@@ -17609,7 +17635,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="23"/>
       <c r="B537" s="20" t="s">
         <v>54</v>
@@ -17634,7 +17660,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="23"/>
       <c r="B538" s="20" t="s">
         <v>258</v>
@@ -17657,7 +17683,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="23"/>
       <c r="B539" s="20" t="s">
         <v>92</v>
@@ -17680,7 +17706,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="23">
         <f>EDATE(A536,1)</f>
         <v>40422</v>
@@ -17710,7 +17736,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="23"/>
       <c r="B541" s="20" t="s">
         <v>56</v>
@@ -17735,7 +17761,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="23"/>
       <c r="B542" s="20" t="s">
         <v>259</v>
@@ -17758,7 +17784,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="23">
         <f>EDATE(A540,1)</f>
         <v>40452</v>
@@ -17788,7 +17814,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="23"/>
       <c r="B544" s="20" t="s">
         <v>260</v>
@@ -17811,7 +17837,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="23">
         <f>EDATE(A543,1)</f>
         <v>40483</v>
@@ -17841,7 +17867,7 @@
         <v>45256</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="23"/>
       <c r="B546" s="20" t="s">
         <v>261</v>
@@ -17864,7 +17890,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="23"/>
       <c r="B547" s="20" t="s">
         <v>53</v>
@@ -17889,7 +17915,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="23">
         <f t="shared" ref="A548" si="30">EDATE(A545,1)</f>
         <v>40513</v>
@@ -17917,7 +17943,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="45" t="s">
         <v>262</v>
       </c>
@@ -17938,7 +17964,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="23">
         <f>EDATE(A548,1)</f>
         <v>40544</v>
@@ -17966,7 +17992,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="23"/>
       <c r="B551" s="20" t="s">
         <v>54</v>
@@ -17991,7 +18017,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="23"/>
       <c r="B552" s="20" t="s">
         <v>263</v>
@@ -18014,7 +18040,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="23">
         <f>EDATE(A550,1)</f>
         <v>40575</v>
@@ -18044,7 +18070,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="23"/>
       <c r="B554" s="20" t="s">
         <v>92</v>
@@ -18069,7 +18095,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="23"/>
       <c r="B555" s="20" t="s">
         <v>264</v>
@@ -18092,7 +18118,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="23">
         <f>EDATE(A553,1)</f>
         <v>40603</v>
@@ -18122,7 +18148,7 @@
         <v>44987</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="23"/>
       <c r="B557" s="20" t="s">
         <v>50</v>
@@ -18145,7 +18171,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="23"/>
       <c r="B558" s="20" t="s">
         <v>53</v>
@@ -18170,7 +18196,7 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="23"/>
       <c r="B559" s="20" t="s">
         <v>265</v>
@@ -18193,7 +18219,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="23">
         <f>EDATE(A556,1)</f>
         <v>40634</v>
@@ -18221,7 +18247,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="23">
         <f t="shared" ref="A561:A566" si="31">EDATE(A560,1)</f>
         <v>40664</v>
@@ -18249,7 +18275,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="23">
         <f t="shared" si="31"/>
         <v>40695</v>
@@ -18279,7 +18305,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="23"/>
       <c r="B563" s="20" t="s">
         <v>50</v>
@@ -18302,7 +18328,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="23"/>
       <c r="B564" s="20" t="s">
         <v>268</v>
@@ -18325,7 +18351,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="23">
         <f>EDATE(A562,1)</f>
         <v>40725</v>
@@ -18353,7 +18379,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="23">
         <f t="shared" si="31"/>
         <v>40756</v>
@@ -18383,7 +18409,7 @@
         <v>45142</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="23"/>
       <c r="B567" s="20" t="s">
         <v>53</v>
@@ -18408,7 +18434,7 @@
         <v>45161</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="23"/>
       <c r="B568" s="20" t="s">
         <v>270</v>
@@ -18431,7 +18457,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="23">
         <f>EDATE(A566,1)</f>
         <v>40787</v>
@@ -18461,7 +18487,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="23"/>
       <c r="B570" s="20" t="s">
         <v>53</v>
@@ -18486,7 +18512,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="23"/>
       <c r="B571" s="20" t="s">
         <v>271</v>
@@ -18509,7 +18535,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="23">
         <f>EDATE(A569,1)</f>
         <v>40817</v>
@@ -18539,7 +18565,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="23"/>
       <c r="B573" s="20" t="s">
         <v>54</v>
@@ -18564,7 +18590,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="23"/>
       <c r="B574" s="20" t="s">
         <v>53</v>
@@ -18589,7 +18615,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="23"/>
       <c r="B575" s="20" t="s">
         <v>272</v>
@@ -18612,7 +18638,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="23">
         <f>EDATE(A572,1)</f>
         <v>40848</v>
@@ -18642,7 +18668,7 @@
         <v>45253</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="23"/>
       <c r="B577" s="20" t="s">
         <v>273</v>
@@ -18665,7 +18691,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="23">
         <f>EDATE(A576,1)</f>
         <v>40878</v>
@@ -18695,7 +18721,7 @@
         <v>45289</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="23"/>
       <c r="B579" s="20" t="s">
         <v>274</v>
@@ -18718,7 +18744,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="45" t="s">
         <v>275</v>
       </c>
@@ -18739,7 +18765,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="23">
         <f>EDATE(A578,1)</f>
         <v>40909</v>
@@ -18767,7 +18793,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="23"/>
       <c r="B582" s="20" t="s">
         <v>53</v>
@@ -18792,7 +18818,7 @@
         <v>44952</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="23"/>
       <c r="B583" s="20" t="s">
         <v>276</v>
@@ -18815,7 +18841,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="23">
         <f>EDATE(A581,1)</f>
         <v>40940</v>
@@ -18845,7 +18871,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="23"/>
       <c r="B585" s="20" t="s">
         <v>54</v>
@@ -18870,7 +18896,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="23"/>
       <c r="B586" s="20" t="s">
         <v>56</v>
@@ -18895,7 +18921,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="23"/>
       <c r="B587" s="20" t="s">
         <v>277</v>
@@ -18918,7 +18944,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="23">
         <f>EDATE(A584,1)</f>
         <v>40969</v>
@@ -18948,7 +18974,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="23"/>
       <c r="B589" s="20" t="s">
         <v>278</v>
@@ -18971,7 +18997,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="23">
         <f>EDATE(A588,1)</f>
         <v>41000</v>
@@ -19001,7 +19027,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="23"/>
       <c r="B591" s="20" t="s">
         <v>50</v>
@@ -19024,7 +19050,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="23"/>
       <c r="B592" s="20" t="s">
         <v>53</v>
@@ -19049,7 +19075,7 @@
         <v>45042</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="23"/>
       <c r="B593" s="20" t="s">
         <v>279</v>
@@ -19072,7 +19098,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="53"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="23">
         <f>EDATE(A590,1)</f>
         <v>41030</v>
@@ -19102,7 +19128,7 @@
         <v>45053</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="23"/>
       <c r="B595" s="20" t="s">
         <v>54</v>
@@ -19127,7 +19153,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="23"/>
       <c r="B596" s="20" t="s">
         <v>53</v>
@@ -19152,7 +19178,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="23"/>
       <c r="B597" s="20" t="s">
         <v>280</v>
@@ -19175,7 +19201,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="23">
         <f>EDATE(A594,1)</f>
         <v>41061</v>
@@ -19203,7 +19229,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="23">
         <f t="shared" ref="A599:A601" si="33">EDATE(A598,1)</f>
         <v>41091</v>
@@ -19231,7 +19257,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="23">
         <f t="shared" si="33"/>
         <v>41122</v>
@@ -19259,7 +19285,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="23">
         <f t="shared" si="33"/>
         <v>41153</v>
@@ -19289,7 +19315,7 @@
         <v>45189</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="23"/>
       <c r="B602" s="20" t="s">
         <v>92</v>
@@ -19314,7 +19340,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="23"/>
       <c r="B603" s="20" t="s">
         <v>283</v>
@@ -19337,7 +19363,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="23">
         <f>EDATE(A601,1)</f>
         <v>41183</v>
@@ -19367,7 +19393,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="23"/>
       <c r="B605" s="20" t="s">
         <v>284</v>
@@ -19390,7 +19416,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="23">
         <f>EDATE(A604,1)</f>
         <v>41214</v>
@@ -19420,7 +19446,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="23"/>
       <c r="B607" s="20" t="s">
         <v>285</v>
@@ -19443,7 +19469,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="23">
         <f>EDATE(A606,1)</f>
         <v>41244</v>
@@ -19471,7 +19497,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="23"/>
       <c r="B609" s="20" t="s">
         <v>286</v>
@@ -19494,7 +19520,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="45" t="s">
         <v>287</v>
       </c>
@@ -19515,7 +19541,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="23">
         <f>EDATE(A608,1)</f>
         <v>41275</v>
@@ -19545,7 +19571,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="23"/>
       <c r="B612" s="20" t="s">
         <v>288</v>
@@ -19568,7 +19594,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="53"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="23">
         <f>EDATE(A611,1)</f>
         <v>41306</v>
@@ -19596,7 +19622,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="23"/>
       <c r="B614" s="20" t="s">
         <v>53</v>
@@ -19621,7 +19647,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="23"/>
       <c r="B615" s="20" t="s">
         <v>289</v>
@@ -19644,7 +19670,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="53"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="23">
         <f>EDATE(A613,1)</f>
         <v>41334</v>
@@ -19672,7 +19698,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="23">
         <f t="shared" ref="A617:A631" si="34">EDATE(A616,1)</f>
         <v>41365</v>
@@ -19700,7 +19726,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="23"/>
       <c r="B618" s="20" t="s">
         <v>54</v>
@@ -19725,7 +19751,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="23"/>
       <c r="B619" s="20" t="s">
         <v>53</v>
@@ -19750,7 +19776,7 @@
         <v>45031</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="23"/>
       <c r="B620" s="20" t="s">
         <v>291</v>
@@ -19773,7 +19799,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="23">
         <f>EDATE(A617,1)</f>
         <v>41395</v>
@@ -19803,7 +19829,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="23"/>
       <c r="B622" s="20" t="s">
         <v>292</v>
@@ -19826,7 +19852,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="23">
         <f>EDATE(A621,1)</f>
         <v>41426</v>
@@ -19856,7 +19882,7 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="23"/>
       <c r="B624" s="20" t="s">
         <v>293</v>
@@ -19879,7 +19905,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="23">
         <f>EDATE(A623,1)</f>
         <v>41456</v>
@@ -19909,7 +19935,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="23"/>
       <c r="B626" s="20" t="s">
         <v>87</v>
@@ -19934,7 +19960,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="23"/>
       <c r="B627" s="20" t="s">
         <v>294</v>
@@ -19957,7 +19983,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="23">
         <f>EDATE(A625,1)</f>
         <v>41487</v>
@@ -19987,7 +20013,7 @@
         <v>45153</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="23"/>
       <c r="B629" s="20" t="s">
         <v>295</v>
@@ -20010,7 +20036,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="23">
         <f>EDATE(A628,1)</f>
         <v>41518</v>
@@ -20038,7 +20064,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="23">
         <f t="shared" si="34"/>
         <v>41548</v>
@@ -20068,7 +20094,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="23"/>
       <c r="B632" s="20" t="s">
         <v>185</v>
@@ -20091,7 +20117,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="23">
         <f>EDATE(A631,1)</f>
         <v>41579</v>
@@ -20121,7 +20147,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="23"/>
       <c r="B634" s="20" t="s">
         <v>50</v>
@@ -20144,7 +20170,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="23"/>
       <c r="B635" s="20" t="s">
         <v>87</v>
@@ -20169,7 +20195,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="23"/>
       <c r="B636" s="20" t="s">
         <v>116</v>
@@ -20192,7 +20218,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="23">
         <f>EDATE(A633,1)</f>
         <v>41609</v>
@@ -20222,7 +20248,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="23"/>
       <c r="B638" s="20" t="s">
         <v>53</v>
@@ -20247,7 +20273,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="23"/>
       <c r="B639" s="20" t="s">
         <v>297</v>
@@ -20270,7 +20296,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="23"/>
       <c r="B640" s="20" t="s">
         <v>298</v>
@@ -20293,7 +20319,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="45" t="s">
         <v>299</v>
       </c>
@@ -20314,7 +20340,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="23">
         <f>EDATE(A637,1)</f>
         <v>41640</v>
@@ -20344,7 +20370,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="23"/>
       <c r="B643" s="20" t="s">
         <v>202</v>
@@ -20369,7 +20395,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="23"/>
       <c r="B644" s="20" t="s">
         <v>300</v>
@@ -20392,7 +20418,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="23">
         <f>EDATE(A642,1)</f>
         <v>41671</v>
@@ -20420,7 +20446,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="23">
         <f t="shared" ref="A646:A663" si="35">EDATE(A645,1)</f>
         <v>41699</v>
@@ -20444,7 +20470,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="23">
         <f t="shared" si="35"/>
         <v>41730</v>
@@ -20472,7 +20498,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="23"/>
       <c r="B648" s="20" t="s">
         <v>302</v>
@@ -20497,7 +20523,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="23">
         <f>EDATE(A647,1)</f>
         <v>41760</v>
@@ -20527,7 +20553,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="23"/>
       <c r="B650" s="20" t="s">
         <v>106</v>
@@ -20550,7 +20576,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="23">
         <f>EDATE(A649,1)</f>
         <v>41791</v>
@@ -20580,7 +20606,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="23"/>
       <c r="B652" s="20" t="s">
         <v>53</v>
@@ -20605,7 +20631,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="23"/>
       <c r="B653" s="20" t="s">
         <v>53</v>
@@ -20630,7 +20656,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="23"/>
       <c r="B654" s="20" t="s">
         <v>303</v>
@@ -20653,7 +20679,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="23">
         <f>EDATE(A651,1)</f>
         <v>41821</v>
@@ -20683,7 +20709,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="23"/>
       <c r="B656" s="20" t="s">
         <v>50</v>
@@ -20706,7 +20732,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="23"/>
       <c r="B657" s="20" t="s">
         <v>92</v>
@@ -20731,7 +20757,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="23"/>
       <c r="B658" s="20" t="s">
         <v>304</v>
@@ -20754,7 +20780,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="23">
         <f>EDATE(A655,1)</f>
         <v>41852</v>
@@ -20784,7 +20810,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="23"/>
       <c r="B660" s="20" t="s">
         <v>53</v>
@@ -20809,7 +20835,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="23"/>
       <c r="B661" s="20" t="s">
         <v>152</v>
@@ -20832,7 +20858,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="23">
         <f>EDATE(A659,1)</f>
         <v>41883</v>
@@ -20860,7 +20886,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="23">
         <f t="shared" si="35"/>
         <v>41913</v>
@@ -20890,7 +20916,7 @@
         <v>45206</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="23"/>
       <c r="B664" s="20" t="s">
         <v>483</v>
@@ -20913,7 +20939,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="23">
         <f>EDATE(A663,1)</f>
         <v>41944</v>
@@ -20943,7 +20969,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="23"/>
       <c r="B666" s="20" t="s">
         <v>54</v>
@@ -20968,7 +20994,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="23"/>
       <c r="B667" s="20" t="s">
         <v>306</v>
@@ -20991,7 +21017,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="23">
         <f>EDATE(A665,1)</f>
         <v>41974</v>
@@ -21021,7 +21047,7 @@
         <v>45275</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="23"/>
       <c r="B669" s="20" t="s">
         <v>307</v>
@@ -21044,7 +21070,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="45" t="s">
         <v>308</v>
       </c>
@@ -21065,7 +21091,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="23">
         <f>EDATE(A668,1)</f>
         <v>42005</v>
@@ -21095,7 +21121,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="23"/>
       <c r="B672" s="20" t="s">
         <v>50</v>
@@ -21118,7 +21144,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="23"/>
       <c r="B673" s="20" t="s">
         <v>309</v>
@@ -21141,7 +21167,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="23">
         <f>EDATE(A671,1)</f>
         <v>42036</v>
@@ -21171,7 +21197,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="23"/>
       <c r="B675" s="20" t="s">
         <v>310</v>
@@ -21194,7 +21220,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="23">
         <f>EDATE(A674,1)</f>
         <v>42064</v>
@@ -21218,7 +21244,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="23">
         <f t="shared" ref="A677:A692" si="37">EDATE(A676,1)</f>
         <v>42095</v>
@@ -21248,7 +21274,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="23"/>
       <c r="B678" s="20" t="s">
         <v>50</v>
@@ -21271,7 +21297,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="23"/>
       <c r="B679" s="20" t="s">
         <v>311</v>
@@ -21294,7 +21320,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="23">
         <f>EDATE(A677,1)</f>
         <v>42125</v>
@@ -21324,7 +21350,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="23"/>
       <c r="B681" s="20" t="s">
         <v>68</v>
@@ -21349,7 +21375,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="23"/>
       <c r="B682" s="20" t="s">
         <v>312</v>
@@ -21372,7 +21398,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="23">
         <f>EDATE(A680,1)</f>
         <v>42156</v>
@@ -21402,7 +21428,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="23"/>
       <c r="B684" s="20" t="s">
         <v>313</v>
@@ -21425,7 +21451,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="23">
         <f>EDATE(A683,1)</f>
         <v>42186</v>
@@ -21455,7 +21481,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="23"/>
       <c r="B686" s="20" t="s">
         <v>53</v>
@@ -21480,7 +21506,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="23"/>
       <c r="B687" s="20" t="s">
         <v>53</v>
@@ -21505,7 +21531,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="23"/>
       <c r="B688" s="20" t="s">
         <v>314</v>
@@ -21528,7 +21554,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="23">
         <f>EDATE(A685,1)</f>
         <v>42217</v>
@@ -21558,7 +21584,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="23"/>
       <c r="B690" s="20" t="s">
         <v>315</v>
@@ -21581,7 +21607,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="23">
         <f>EDATE(A689,1)</f>
         <v>42248</v>
@@ -21609,7 +21635,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="23">
         <f t="shared" si="37"/>
         <v>42278</v>
@@ -21639,7 +21665,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="23"/>
       <c r="B693" s="20" t="s">
         <v>50</v>
@@ -21662,7 +21688,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="23"/>
       <c r="B694" s="20" t="s">
         <v>53</v>
@@ -21685,7 +21711,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="23"/>
       <c r="B695" s="20" t="s">
         <v>317</v>
@@ -21708,7 +21734,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="23">
         <f>EDATE(A692,1)</f>
         <v>42309</v>
@@ -21736,7 +21762,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="23"/>
       <c r="B697" s="20" t="s">
         <v>53</v>
@@ -21761,7 +21787,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="23">
         <f>EDATE(A696,1)</f>
         <v>42339</v>
@@ -21791,7 +21817,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="23"/>
       <c r="B699" s="20" t="s">
         <v>319</v>
@@ -21814,7 +21840,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="45" t="s">
         <v>320</v>
       </c>
@@ -21835,7 +21861,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="23">
         <f>EDATE(A698,1)</f>
         <v>42370</v>
@@ -21865,7 +21891,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="23"/>
       <c r="B702" s="20" t="s">
         <v>50</v>
@@ -21888,7 +21914,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="23"/>
       <c r="B703" s="20" t="s">
         <v>223</v>
@@ -21911,7 +21937,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="23">
         <f>EDATE(A701,1)</f>
         <v>42401</v>
@@ -21941,7 +21967,7 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="23"/>
       <c r="B705" s="20" t="s">
         <v>50</v>
@@ -21964,7 +21990,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="23"/>
       <c r="B706" s="20" t="s">
         <v>53</v>
@@ -21989,7 +22015,7 @@
         <v>44983</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="23"/>
       <c r="B707" s="20" t="s">
         <v>321</v>
@@ -22012,7 +22038,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="23">
         <f>EDATE(A704,1)</f>
         <v>42430</v>
@@ -22040,7 +22066,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="23">
         <f t="shared" ref="A709:A717" si="38">EDATE(A708,1)</f>
         <v>42461</v>
@@ -22070,7 +22096,7 @@
         <v>45042</v>
       </c>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="23"/>
       <c r="B710" s="20" t="s">
         <v>323</v>
@@ -22093,7 +22119,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="23">
         <f>EDATE(A709,1)</f>
         <v>42491</v>
@@ -22121,7 +22147,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="23">
         <f t="shared" si="38"/>
         <v>42522</v>
@@ -22151,7 +22177,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="23"/>
       <c r="B713" s="20" t="s">
         <v>325</v>
@@ -22174,7 +22200,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="53"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="23">
         <f>EDATE(A712,1)</f>
         <v>42552</v>
@@ -22202,7 +22228,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="23">
         <f t="shared" si="38"/>
         <v>42583</v>
@@ -22230,7 +22256,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="23">
         <f t="shared" si="38"/>
         <v>42614</v>
@@ -22258,7 +22284,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="23">
         <f t="shared" si="38"/>
         <v>42644</v>
@@ -22288,7 +22314,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="23"/>
       <c r="B718" s="20" t="s">
         <v>53</v>
@@ -22313,7 +22339,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="23"/>
       <c r="B719" s="20" t="s">
         <v>328</v>
@@ -22336,7 +22362,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="23">
         <f>EDATE(A717,1)</f>
         <v>42675</v>
@@ -22366,7 +22392,7 @@
         <v>45251</v>
       </c>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="23"/>
       <c r="B721" s="20" t="s">
         <v>50</v>
@@ -22389,7 +22415,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="23"/>
       <c r="B722" s="20" t="s">
         <v>329</v>
@@ -22412,7 +22438,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="23">
         <f>EDATE(A720,1)</f>
         <v>42705</v>
@@ -22442,7 +22468,7 @@
         <v>45280</v>
       </c>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="23"/>
       <c r="B724" s="20" t="s">
         <v>87</v>
@@ -22467,7 +22493,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="23"/>
       <c r="B725" s="20" t="s">
         <v>330</v>
@@ -22490,7 +22516,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="45" t="s">
         <v>331</v>
       </c>
@@ -22511,7 +22537,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="23">
         <f>EDATE(A723,1)</f>
         <v>42736</v>
@@ -22539,7 +22565,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="23"/>
       <c r="B728" s="20" t="s">
         <v>53</v>
@@ -22564,7 +22590,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="23"/>
       <c r="B729" s="20" t="s">
         <v>332</v>
@@ -22587,7 +22613,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="23">
         <f>EDATE(A727,1)</f>
         <v>42767</v>
@@ -22615,7 +22641,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="23"/>
       <c r="B731" s="20" t="s">
         <v>53</v>
@@ -22640,7 +22666,7 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="23"/>
       <c r="B732" s="20" t="s">
         <v>57</v>
@@ -22665,7 +22691,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="23"/>
       <c r="B733" s="20" t="s">
         <v>53</v>
@@ -22690,7 +22716,7 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="23"/>
       <c r="B734" s="20" t="s">
         <v>56</v>
@@ -22715,7 +22741,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="23"/>
       <c r="B735" s="20" t="s">
         <v>333</v>
@@ -22738,7 +22764,7 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="23">
         <f>EDATE(A730,1)</f>
         <v>42795</v>
@@ -22762,7 +22788,7 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="23">
         <f t="shared" ref="A737:A746" si="40">EDATE(A736,1)</f>
         <v>42826</v>
@@ -22786,7 +22812,7 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="23">
         <f t="shared" si="40"/>
         <v>42856</v>
@@ -22810,7 +22836,7 @@
       <c r="J738" s="11"/>
       <c r="K738" s="20"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="23">
         <f t="shared" si="40"/>
         <v>42887</v>
@@ -22840,7 +22866,7 @@
         <v>45083</v>
       </c>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="23"/>
       <c r="B740" s="20" t="s">
         <v>87</v>
@@ -22865,7 +22891,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="23">
         <f>EDATE(A739,1)</f>
         <v>42917</v>
@@ -22895,7 +22921,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="23"/>
       <c r="B742" s="20" t="s">
         <v>53</v>
@@ -22920,7 +22946,7 @@
         <v>45197</v>
       </c>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="23">
         <f>EDATE(A741,1)</f>
         <v>42948</v>
@@ -22944,7 +22970,7 @@
       <c r="J743" s="11"/>
       <c r="K743" s="20"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="23">
         <f t="shared" si="40"/>
         <v>42979</v>
@@ -22968,7 +22994,7 @@
       <c r="J744" s="11"/>
       <c r="K744" s="20"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="23">
         <f t="shared" si="40"/>
         <v>43009</v>
@@ -22992,7 +23018,7 @@
       <c r="J745" s="11"/>
       <c r="K745" s="20"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="23">
         <f t="shared" si="40"/>
         <v>43040</v>
@@ -23016,7 +23042,7 @@
       <c r="J746" s="11"/>
       <c r="K746" s="20"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="23">
         <f>EDATE(A746,1)</f>
         <v>43070</v>
@@ -23044,7 +23070,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="23"/>
       <c r="B748" s="20" t="s">
         <v>73</v>
@@ -23067,7 +23093,7 @@
       <c r="J748" s="11"/>
       <c r="K748" s="20"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="45" t="s">
         <v>335</v>
       </c>
@@ -23088,7 +23114,7 @@
       <c r="J749" s="11"/>
       <c r="K749" s="20"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="23">
         <f>EDATE(A747,1)</f>
         <v>43101</v>
@@ -23118,7 +23144,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="23"/>
       <c r="B751" s="20" t="s">
         <v>50</v>
@@ -23141,7 +23167,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="23">
         <f>EDATE(A750,1)</f>
         <v>43132</v>
@@ -23165,7 +23191,7 @@
       <c r="J752" s="11"/>
       <c r="K752" s="20"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="23">
         <f t="shared" ref="A753:A762" si="41">EDATE(A752,1)</f>
         <v>43160</v>
@@ -23193,7 +23219,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="23"/>
       <c r="B754" s="20" t="s">
         <v>53</v>
@@ -23218,7 +23244,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="23"/>
       <c r="B755" s="20" t="s">
         <v>50</v>
@@ -23241,7 +23267,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="23">
         <f>EDATE(A753,1)</f>
         <v>43191</v>
@@ -23265,7 +23291,7 @@
       <c r="J756" s="11"/>
       <c r="K756" s="20"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="23">
         <f t="shared" si="41"/>
         <v>43221</v>
@@ -23289,7 +23315,7 @@
       <c r="J757" s="11"/>
       <c r="K757" s="20"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="23">
         <f t="shared" si="41"/>
         <v>43252</v>
@@ -23319,7 +23345,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="23">
         <f t="shared" si="41"/>
         <v>43282</v>
@@ -23343,7 +23369,7 @@
       <c r="J759" s="11"/>
       <c r="K759" s="20"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="23">
         <f t="shared" si="41"/>
         <v>43313</v>
@@ -23367,7 +23393,7 @@
       <c r="J760" s="11"/>
       <c r="K760" s="20"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="23">
         <f t="shared" si="41"/>
         <v>43344</v>
@@ -23391,7 +23417,7 @@
       <c r="J761" s="11"/>
       <c r="K761" s="20"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="23">
         <f t="shared" si="41"/>
         <v>43374</v>
@@ -23421,7 +23447,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" s="23">
         <f>EDATE(A762,1)</f>
         <v>43405</v>
@@ -23451,7 +23477,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" s="23">
         <f>EDATE(A763,1)</f>
         <v>43435</v>
@@ -23481,7 +23507,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" s="23"/>
       <c r="B765" s="20" t="s">
         <v>53</v>
@@ -23506,7 +23532,7 @@
         <v>45258</v>
       </c>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="23"/>
       <c r="B766" s="20" t="s">
         <v>53</v>
@@ -23531,7 +23557,7 @@
         <v>45277</v>
       </c>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" s="45" t="s">
         <v>46</v>
       </c>
@@ -23552,7 +23578,7 @@
       <c r="J767" s="11"/>
       <c r="K767" s="20"/>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" s="39">
         <v>43466</v>
       </c>
@@ -23579,7 +23605,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" s="39">
         <v>43497</v>
       </c>
@@ -23608,7 +23634,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A770" s="39">
         <v>43525</v>
       </c>
@@ -23631,7 +23657,7 @@
       <c r="J770" s="11"/>
       <c r="K770" s="20"/>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A771" s="39">
         <v>43556</v>
       </c>
@@ -23654,7 +23680,7 @@
       <c r="J771" s="11"/>
       <c r="K771" s="20"/>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A772" s="39">
         <v>43586</v>
       </c>
@@ -23683,7 +23709,7 @@
         <v>43592</v>
       </c>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A773" s="39">
         <v>43617</v>
       </c>
@@ -23706,7 +23732,7 @@
       <c r="J773" s="11"/>
       <c r="K773" s="20"/>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" s="39">
         <v>43647</v>
       </c>
@@ -23733,7 +23759,7 @@
         <v>43655</v>
       </c>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A775" s="39">
         <v>43678</v>
       </c>
@@ -23756,7 +23782,7 @@
       <c r="J775" s="11"/>
       <c r="K775" s="20"/>
     </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A776" s="39">
         <v>43709</v>
       </c>
@@ -23785,7 +23811,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A777" s="39"/>
       <c r="B777" s="20" t="s">
         <v>56</v>
@@ -23810,7 +23836,7 @@
         <v>43718</v>
       </c>
     </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A778" s="39">
         <v>43739</v>
       </c>
@@ -23839,7 +23865,7 @@
         <v>43794</v>
       </c>
     </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A779" s="39">
         <v>43770</v>
       </c>
@@ -23862,7 +23888,7 @@
       <c r="J779" s="11"/>
       <c r="K779" s="20"/>
     </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A780" s="39">
         <v>43800</v>
       </c>
@@ -23891,7 +23917,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A781" s="39"/>
       <c r="B781" s="20" t="s">
         <v>50</v>
@@ -23899,7 +23925,7 @@
       <c r="C781" s="13"/>
       <c r="D781" s="38"/>
       <c r="E781" s="13">
-        <f t="shared" ref="E781:E844" si="42">SUM(C781,E780)-D781</f>
+        <f t="shared" ref="E781:E846" si="42">SUM(C781,E780)-D781</f>
         <v>-16.858000000000082</v>
       </c>
       <c r="F781" s="20"/>
@@ -23914,7 +23940,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A782" s="45" t="s">
         <v>48</v>
       </c>
@@ -23935,7 +23961,7 @@
       <c r="J782" s="11"/>
       <c r="K782" s="20"/>
     </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A783" s="39">
         <v>43831</v>
       </c>
@@ -23962,7 +23988,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A784" s="39">
         <v>43862</v>
       </c>
@@ -23991,7 +24017,7 @@
         <v>43879</v>
       </c>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A785" s="39">
         <v>43891</v>
       </c>
@@ -24014,7 +24040,7 @@
       <c r="J785" s="11"/>
       <c r="K785" s="20"/>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A786" s="39">
         <v>43922</v>
       </c>
@@ -24037,7 +24063,7 @@
       <c r="J786" s="11"/>
       <c r="K786" s="20"/>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A787" s="39">
         <v>43952</v>
       </c>
@@ -24060,7 +24086,7 @@
       <c r="J787" s="11"/>
       <c r="K787" s="20"/>
     </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A788" s="39">
         <v>43983</v>
       </c>
@@ -24083,7 +24109,7 @@
       <c r="J788" s="11"/>
       <c r="K788" s="20"/>
     </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A789" s="39">
         <v>44013</v>
       </c>
@@ -24110,7 +24136,7 @@
         <v>44020</v>
       </c>
     </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A790" s="39">
         <v>44044</v>
       </c>
@@ -24133,7 +24159,7 @@
       <c r="J790" s="11"/>
       <c r="K790" s="20"/>
     </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A791" s="39">
         <v>44075</v>
       </c>
@@ -24156,7 +24182,7 @@
       <c r="J791" s="11"/>
       <c r="K791" s="20"/>
     </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A792" s="39">
         <v>44105</v>
       </c>
@@ -24183,7 +24209,7 @@
         <v>44119</v>
       </c>
     </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A793" s="39">
         <v>44136</v>
       </c>
@@ -24210,7 +24236,7 @@
         <v>44169</v>
       </c>
     </row>
-    <row r="794" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A794" s="39">
         <v>44166</v>
       </c>
@@ -24239,7 +24265,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="795" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A795" s="39"/>
       <c r="B795" s="20" t="s">
         <v>51</v>
@@ -24264,7 +24290,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="796" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A796" s="45" t="s">
         <v>47</v>
       </c>
@@ -24285,7 +24311,7 @@
       <c r="J796" s="11"/>
       <c r="K796" s="20"/>
     </row>
-    <row r="797" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A797" s="39">
         <v>44197</v>
       </c>
@@ -24308,7 +24334,7 @@
       <c r="J797" s="11"/>
       <c r="K797" s="20"/>
     </row>
-    <row r="798" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A798" s="39">
         <v>44228</v>
       </c>
@@ -24335,7 +24361,7 @@
         <v>44253</v>
       </c>
     </row>
-    <row r="799" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A799" s="39">
         <v>44256</v>
       </c>
@@ -24358,7 +24384,7 @@
       <c r="J799" s="11"/>
       <c r="K799" s="20"/>
     </row>
-    <row r="800" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A800" s="39">
         <v>44287</v>
       </c>
@@ -24381,7 +24407,7 @@
       <c r="J800" s="11"/>
       <c r="K800" s="20"/>
     </row>
-    <row r="801" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A801" s="39">
         <v>44317</v>
       </c>
@@ -24404,7 +24430,7 @@
       <c r="J801" s="11"/>
       <c r="K801" s="20"/>
     </row>
-    <row r="802" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A802" s="39">
         <v>44348</v>
       </c>
@@ -24431,7 +24457,7 @@
         <v>44385</v>
       </c>
     </row>
-    <row r="803" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A803" s="39"/>
       <c r="B803" s="20" t="s">
         <v>57</v>
@@ -24456,7 +24482,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="804" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A804" s="39"/>
       <c r="B804" s="20" t="s">
         <v>56</v>
@@ -24481,7 +24507,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="805" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A805" s="39">
         <v>44378</v>
       </c>
@@ -24504,7 +24530,7 @@
       <c r="J805" s="11"/>
       <c r="K805" s="20"/>
     </row>
-    <row r="806" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A806" s="39">
         <v>44409</v>
       </c>
@@ -24527,7 +24553,7 @@
       <c r="J806" s="11"/>
       <c r="K806" s="20"/>
     </row>
-    <row r="807" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A807" s="39">
         <v>44440</v>
       </c>
@@ -24550,7 +24576,7 @@
       <c r="J807" s="11"/>
       <c r="K807" s="20"/>
     </row>
-    <row r="808" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A808" s="39">
         <v>44470</v>
       </c>
@@ -24573,7 +24599,7 @@
       <c r="J808" s="11"/>
       <c r="K808" s="20"/>
     </row>
-    <row r="809" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A809" s="39">
         <v>44501</v>
       </c>
@@ -24600,7 +24626,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="810" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A810" s="39"/>
       <c r="B810" s="20" t="s">
         <v>65</v>
@@ -24623,7 +24649,7 @@
         <v>44509</v>
       </c>
     </row>
-    <row r="811" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A811" s="39">
         <v>44531</v>
       </c>
@@ -24650,7 +24676,7 @@
       <c r="J811" s="11"/>
       <c r="K811" s="20"/>
     </row>
-    <row r="812" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A812" s="45" t="s">
         <v>49</v>
       </c>
@@ -24671,7 +24697,7 @@
       <c r="J812" s="11"/>
       <c r="K812" s="20"/>
     </row>
-    <row r="813" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A813" s="39">
         <v>44562</v>
       </c>
@@ -24694,7 +24720,7 @@
       <c r="J813" s="11"/>
       <c r="K813" s="20"/>
     </row>
-    <row r="814" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A814" s="39">
         <v>44593</v>
       </c>
@@ -24717,7 +24743,7 @@
       <c r="J814" s="11"/>
       <c r="K814" s="20"/>
     </row>
-    <row r="815" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A815" s="39">
         <v>44621</v>
       </c>
@@ -24744,7 +24770,7 @@
         <v>44650</v>
       </c>
     </row>
-    <row r="816" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A816" s="39"/>
       <c r="B816" s="20" t="s">
         <v>143</v>
@@ -24767,7 +24793,7 @@
       <c r="J816" s="11"/>
       <c r="K816" s="46"/>
     </row>
-    <row r="817" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A817" s="39">
         <v>44652</v>
       </c>
@@ -24794,7 +24820,7 @@
       <c r="J817" s="11"/>
       <c r="K817" s="20"/>
     </row>
-    <row r="818" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A818" s="39">
         <v>44682</v>
       </c>
@@ -24823,7 +24849,7 @@
         <v>44708</v>
       </c>
     </row>
-    <row r="819" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A819" s="39"/>
       <c r="B819" s="20" t="s">
         <v>480</v>
@@ -24846,7 +24872,7 @@
       <c r="J819" s="11"/>
       <c r="K819" s="46"/>
     </row>
-    <row r="820" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A820" s="39">
         <v>44713</v>
       </c>
@@ -24873,7 +24899,7 @@
       <c r="J820" s="11"/>
       <c r="K820" s="20"/>
     </row>
-    <row r="821" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A821" s="39">
         <v>44743</v>
       </c>
@@ -24902,7 +24928,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="822" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A822" s="39"/>
       <c r="B822" s="20" t="s">
         <v>478</v>
@@ -24925,7 +24951,7 @@
       <c r="J822" s="11"/>
       <c r="K822" s="20"/>
     </row>
-    <row r="823" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A823" s="39"/>
       <c r="B823" s="20" t="s">
         <v>477</v>
@@ -24948,7 +24974,7 @@
       <c r="J823" s="11"/>
       <c r="K823" s="20"/>
     </row>
-    <row r="824" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A824" s="39">
         <v>44774</v>
       </c>
@@ -24975,7 +25001,7 @@
       <c r="J824" s="11"/>
       <c r="K824" s="20"/>
     </row>
-    <row r="825" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A825" s="39">
         <v>44805</v>
       </c>
@@ -25002,7 +25028,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="826" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A826" s="39"/>
       <c r="B826" s="20" t="s">
         <v>475</v>
@@ -25025,7 +25051,7 @@
       <c r="J826" s="11"/>
       <c r="K826" s="46"/>
     </row>
-    <row r="827" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A827" s="39">
         <v>44835</v>
       </c>
@@ -25054,7 +25080,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="828" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A828" s="39"/>
       <c r="B828" s="20" t="s">
         <v>474</v>
@@ -25077,7 +25103,7 @@
       <c r="J828" s="11"/>
       <c r="K828" s="46"/>
     </row>
-    <row r="829" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A829" s="39">
         <v>44866</v>
       </c>
@@ -25106,7 +25132,7 @@
         <v>44798</v>
       </c>
     </row>
-    <row r="830" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A830" s="39"/>
       <c r="B830" s="20" t="s">
         <v>50</v>
@@ -25129,7 +25155,7 @@
         <v>44879</v>
       </c>
     </row>
-    <row r="831" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A831" s="39"/>
       <c r="B831" s="20" t="s">
         <v>473</v>
@@ -25152,7 +25178,7 @@
       <c r="J831" s="11"/>
       <c r="K831" s="46"/>
     </row>
-    <row r="832" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A832" s="39">
         <v>44896</v>
       </c>
@@ -25181,7 +25207,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="833" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A833" s="39"/>
       <c r="B833" s="20" t="s">
         <v>68</v>
@@ -25206,7 +25232,7 @@
         <v>44910</v>
       </c>
     </row>
-    <row r="834" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A834" s="39"/>
       <c r="B834" s="20" t="s">
         <v>56</v>
@@ -25231,7 +25257,7 @@
         <v>44924</v>
       </c>
     </row>
-    <row r="835" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A835" s="39"/>
       <c r="B835" s="20" t="s">
         <v>472</v>
@@ -25254,7 +25280,7 @@
       <c r="J835" s="11"/>
       <c r="K835" s="46"/>
     </row>
-    <row r="836" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A836" s="45" t="s">
         <v>70</v>
       </c>
@@ -25275,7 +25301,7 @@
       <c r="J836" s="11"/>
       <c r="K836" s="20"/>
     </row>
-    <row r="837" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A837" s="39">
         <v>44957</v>
       </c>
@@ -25302,47 +25328,45 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="838" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A838" s="39">
-        <v>44985</v>
-      </c>
+    <row r="838" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A838" s="39"/>
       <c r="B838" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C838" s="13">
-        <v>1.25</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="C838" s="13"/>
       <c r="D838" s="38">
-        <v>2</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="E838" s="13">
-        <f t="shared" si="42"/>
-        <v>10.489999999999915</v>
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>11.966999999999871</v>
       </c>
       <c r="F838" s="20"/>
-      <c r="G838" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G838" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H838" s="38"/>
       <c r="I838" s="9"/>
       <c r="J838" s="11"/>
-      <c r="K838" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="839" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K838" s="46"/>
+    </row>
+    <row r="839" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A839" s="39">
-        <v>45016</v>
-      </c>
-      <c r="B839" s="20"/>
+        <v>44985</v>
+      </c>
+      <c r="B839" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C839" s="13">
         <v>1.25</v>
       </c>
-      <c r="D839" s="38"/>
+      <c r="D839" s="38">
+        <v>2</v>
+      </c>
       <c r="E839" s="13">
-        <f t="shared" si="42"/>
-        <v>11.739999999999915</v>
+        <f>SUM(C839,E837)-D839</f>
+        <v>10.489999999999915</v>
       </c>
       <c r="F839" s="20"/>
       <c r="G839" s="13">
@@ -25352,45 +25376,52 @@
       <c r="H839" s="38"/>
       <c r="I839" s="9"/>
       <c r="J839" s="11"/>
-      <c r="K839" s="20"/>
-    </row>
-    <row r="840" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A840" s="39">
-        <v>45046</v>
-      </c>
-      <c r="B840" s="20"/>
-      <c r="C840" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D840" s="38"/>
+      <c r="K839" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="840" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A840" s="39"/>
+      <c r="B840" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="C840" s="13"/>
+      <c r="D840" s="38">
+        <v>0.129</v>
+      </c>
       <c r="E840" s="13">
-        <f t="shared" si="42"/>
-        <v>12.989999999999915</v>
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>11.966999999999871</v>
       </c>
       <c r="F840" s="20"/>
-      <c r="G840" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G840" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H840" s="38"/>
-      <c r="I840" s="9"/>
+      <c r="I840" s="9">
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>90.5</v>
+      </c>
       <c r="J840" s="11"/>
       <c r="K840" s="20"/>
     </row>
-    <row r="841" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A841" s="39">
-        <v>45077</v>
+        <v>45016</v>
       </c>
       <c r="B841" s="20" t="s">
-        <v>50</v>
+        <v>492</v>
       </c>
       <c r="C841" s="13">
         <v>1.25</v>
       </c>
-      <c r="D841" s="38"/>
+      <c r="D841" s="38">
+        <v>0.63500000000000001</v>
+      </c>
       <c r="E841" s="13">
-        <f t="shared" si="42"/>
-        <v>14.239999999999915</v>
+        <f>SUM(C841,E839)-D841</f>
+        <v>11.104999999999915</v>
       </c>
       <c r="F841" s="20"/>
       <c r="G841" s="13">
@@ -25400,117 +25431,112 @@
       <c r="H841" s="38"/>
       <c r="I841" s="9"/>
       <c r="J841" s="11"/>
-      <c r="K841" s="46">
-        <v>45078</v>
-      </c>
-    </row>
-    <row r="842" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K841" s="20"/>
+    </row>
+    <row r="842" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A842" s="39">
-        <v>45107</v>
+        <v>45046</v>
       </c>
       <c r="B842" s="20" t="s">
-        <v>53</v>
+        <v>491</v>
       </c>
       <c r="C842" s="13">
         <v>1.25</v>
       </c>
-      <c r="D842" s="38"/>
+      <c r="D842" s="38">
+        <v>2.3000000000000007E-2</v>
+      </c>
       <c r="E842" s="13">
         <f t="shared" si="42"/>
-        <v>15.489999999999915</v>
+        <v>12.331999999999915</v>
       </c>
       <c r="F842" s="20"/>
       <c r="G842" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H842" s="38">
-        <v>1</v>
-      </c>
+      <c r="H842" s="38"/>
       <c r="I842" s="9"/>
       <c r="J842" s="11"/>
-      <c r="K842" s="46">
-        <v>45078</v>
-      </c>
-    </row>
-    <row r="843" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A843" s="39"/>
+      <c r="K842" s="20"/>
+    </row>
+    <row r="843" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A843" s="39">
+        <v>45077</v>
+      </c>
       <c r="B843" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C843" s="13"/>
+        <v>50</v>
+      </c>
+      <c r="C843" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D843" s="38"/>
       <c r="E843" s="13">
         <f t="shared" si="42"/>
-        <v>15.489999999999915</v>
+        <v>13.581999999999915</v>
       </c>
       <c r="F843" s="20"/>
-      <c r="G843" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H843" s="38">
-        <v>1</v>
-      </c>
+      <c r="G843" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H843" s="38"/>
       <c r="I843" s="9"/>
       <c r="J843" s="11"/>
       <c r="K843" s="46">
-        <v>45096</v>
-      </c>
-    </row>
-    <row r="844" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A844" s="39">
-        <v>45138</v>
-      </c>
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="844" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A844" s="39"/>
       <c r="B844" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C844" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D844" s="38"/>
-      <c r="E844" s="13">
-        <f t="shared" si="42"/>
-        <v>16.739999999999917</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="C844" s="13"/>
+      <c r="D844" s="38">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="E844" s="13"/>
       <c r="F844" s="20"/>
-      <c r="G844" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H844" s="38">
-        <v>1</v>
-      </c>
+      <c r="G844" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H844" s="38"/>
       <c r="I844" s="9"/>
       <c r="J844" s="11"/>
-      <c r="K844" s="20"/>
-    </row>
-    <row r="845" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A845" s="39"/>
+      <c r="K844" s="46"/>
+    </row>
+    <row r="845" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A845" s="39">
+        <v>45107</v>
+      </c>
       <c r="B845" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C845" s="13"/>
-      <c r="D845" s="38">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C845" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D845" s="38"/>
       <c r="E845" s="13">
-        <f t="shared" ref="E845:E857" si="43">SUM(C845,E844)-D845</f>
-        <v>13.739999999999917</v>
+        <f>SUM(C845,E843)-D845</f>
+        <v>14.831999999999915</v>
       </c>
       <c r="F845" s="20"/>
-      <c r="G845" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H845" s="38"/>
+      <c r="G845" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H845" s="38">
+        <v>1</v>
+      </c>
       <c r="I845" s="9"/>
       <c r="J845" s="11"/>
-      <c r="K845" s="20" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="846" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K845" s="46" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="846" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A846" s="39"/>
       <c r="B846" s="20" t="s">
         <v>53</v>
@@ -25518,8 +25544,8 @@
       <c r="C846" s="13"/>
       <c r="D846" s="38"/>
       <c r="E846" s="13">
-        <f t="shared" si="43"/>
-        <v>13.739999999999917</v>
+        <f t="shared" si="42"/>
+        <v>14.831999999999915</v>
       </c>
       <c r="F846" s="20"/>
       <c r="G846" s="13" t="str">
@@ -25532,70 +25558,57 @@
       <c r="I846" s="9"/>
       <c r="J846" s="11"/>
       <c r="K846" s="46">
-        <v>45124</v>
-      </c>
-    </row>
-    <row r="847" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A847" s="39">
-        <v>45168</v>
-      </c>
+        <v>45096</v>
+      </c>
+    </row>
+    <row r="847" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A847" s="39"/>
       <c r="B847" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C847" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D847" s="38"/>
+        <v>478</v>
+      </c>
+      <c r="C847" s="13"/>
+      <c r="D847" s="38">
+        <v>1</v>
+      </c>
       <c r="E847" s="13">
-        <f t="shared" si="43"/>
-        <v>14.989999999999917</v>
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>11.966999999999871</v>
       </c>
       <c r="F847" s="20"/>
-      <c r="G847" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H847" s="38">
-        <v>1</v>
-      </c>
+      <c r="G847" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H847" s="38"/>
       <c r="I847" s="9"/>
       <c r="J847" s="11"/>
       <c r="K847" s="46">
-        <v>45149</v>
-      </c>
-    </row>
-    <row r="848" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A848" s="39">
-        <v>45199</v>
-      </c>
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="848" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A848" s="39"/>
       <c r="B848" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C848" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D848" s="38"/>
-      <c r="E848" s="13">
-        <f t="shared" si="43"/>
-        <v>16.239999999999917</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="C848" s="13"/>
+      <c r="D848" s="38">
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="E848" s="13"/>
       <c r="F848" s="20"/>
-      <c r="G848" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H848" s="38">
-        <v>1</v>
-      </c>
+      <c r="G848" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H848" s="38"/>
       <c r="I848" s="9"/>
       <c r="J848" s="11"/>
-      <c r="K848" s="46">
-        <v>45194</v>
-      </c>
-    </row>
-    <row r="849" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K848" s="46"/>
+    </row>
+    <row r="849" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A849" s="39">
-        <v>45229</v>
+        <v>45138</v>
       </c>
       <c r="B849" s="20" t="s">
         <v>53</v>
@@ -25605,12 +25618,12 @@
       </c>
       <c r="D849" s="38"/>
       <c r="E849" s="13">
-        <f t="shared" si="43"/>
-        <v>17.489999999999917</v>
+        <f>SUM(C849,E846)-D849</f>
+        <v>16.081999999999915</v>
       </c>
       <c r="F849" s="20"/>
       <c r="G849" s="13">
-        <f>C849</f>
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H849" s="38">
@@ -25618,115 +25631,117 @@
       </c>
       <c r="I849" s="9"/>
       <c r="J849" s="11"/>
-      <c r="K849" s="46">
-        <v>45215</v>
-      </c>
-    </row>
-    <row r="850" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A850" s="39">
-        <v>45260</v>
-      </c>
-      <c r="B850" s="20"/>
-      <c r="C850" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D850" s="38"/>
+      <c r="K849" s="20"/>
+    </row>
+    <row r="850" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A850" s="39"/>
+      <c r="B850" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C850" s="13"/>
+      <c r="D850" s="38">
+        <v>3</v>
+      </c>
       <c r="E850" s="13">
-        <f t="shared" si="43"/>
-        <v>18.739999999999917</v>
+        <f t="shared" ref="E850:E868" si="43">SUM(C850,E849)-D850</f>
+        <v>13.081999999999915</v>
       </c>
       <c r="F850" s="20"/>
-      <c r="G850" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G850" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H850" s="38"/>
       <c r="I850" s="9"/>
       <c r="J850" s="11"/>
-      <c r="K850" s="20"/>
-    </row>
-    <row r="851" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A851" s="39">
-        <v>45290</v>
-      </c>
+      <c r="K850" s="20" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="851" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A851" s="39"/>
       <c r="B851" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C851" s="13"/>
       <c r="D851" s="38"/>
       <c r="E851" s="13">
         <f t="shared" si="43"/>
-        <v>18.739999999999917</v>
+        <v>13.081999999999915</v>
       </c>
       <c r="F851" s="20"/>
       <c r="G851" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H851" s="38"/>
+      <c r="H851" s="38">
+        <v>1</v>
+      </c>
       <c r="I851" s="9"/>
       <c r="J851" s="11"/>
       <c r="K851" s="46">
-        <v>45278</v>
-      </c>
-    </row>
-    <row r="852" spans="1:11" x14ac:dyDescent="0.3">
+        <v>45124</v>
+      </c>
+    </row>
+    <row r="852" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A852" s="39"/>
       <c r="B852" s="20" t="s">
-        <v>53</v>
+        <v>488</v>
       </c>
       <c r="C852" s="13"/>
-      <c r="D852" s="38"/>
-      <c r="E852" s="13">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>18.739999999999895</v>
-      </c>
+      <c r="D852" s="38">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="E852" s="13"/>
       <c r="F852" s="20"/>
       <c r="G852" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H852" s="38">
-        <v>1</v>
-      </c>
+      <c r="H852" s="38"/>
       <c r="I852" s="9"/>
       <c r="J852" s="11"/>
-      <c r="K852" s="46">
-        <v>45264</v>
-      </c>
-    </row>
-    <row r="853" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A853" s="45" t="s">
-        <v>482</v>
-      </c>
-      <c r="B853" s="20"/>
-      <c r="C853" s="13"/>
+      <c r="K852" s="46"/>
+    </row>
+    <row r="853" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A853" s="39">
+        <v>45168</v>
+      </c>
+      <c r="B853" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C853" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D853" s="38"/>
       <c r="E853" s="13">
         <f>SUM(C853,E851)-D853</f>
-        <v>18.739999999999917</v>
+        <v>14.331999999999915</v>
       </c>
       <c r="F853" s="20"/>
-      <c r="G853" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H853" s="38"/>
+      <c r="G853" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H853" s="38">
+        <v>1</v>
+      </c>
       <c r="I853" s="9"/>
       <c r="J853" s="11"/>
-      <c r="K853" s="20"/>
-    </row>
-    <row r="854" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A854" s="39">
-        <v>45321</v>
-      </c>
-      <c r="B854" s="20"/>
+      <c r="K853" s="46">
+        <v>45149</v>
+      </c>
+    </row>
+    <row r="854" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A854" s="39"/>
+      <c r="B854" s="20" t="s">
+        <v>487</v>
+      </c>
       <c r="C854" s="13"/>
-      <c r="D854" s="38"/>
-      <c r="E854" s="13">
-        <f t="shared" si="43"/>
-        <v>18.739999999999917</v>
-      </c>
+      <c r="D854" s="38">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="E854" s="13"/>
       <c r="F854" s="20"/>
       <c r="G854" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -25735,40 +25750,47 @@
       <c r="H854" s="38"/>
       <c r="I854" s="9"/>
       <c r="J854" s="11"/>
-      <c r="K854" s="20"/>
-    </row>
-    <row r="855" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K854" s="46"/>
+    </row>
+    <row r="855" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A855" s="39">
-        <v>45351</v>
-      </c>
-      <c r="B855" s="20"/>
-      <c r="C855" s="13"/>
+        <v>45199</v>
+      </c>
+      <c r="B855" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C855" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D855" s="38"/>
       <c r="E855" s="13">
-        <f t="shared" si="43"/>
-        <v>18.739999999999917</v>
+        <f>SUM(C855,E853)-D855</f>
+        <v>15.581999999999915</v>
       </c>
       <c r="F855" s="20"/>
-      <c r="G855" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H855" s="38"/>
+      <c r="G855" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H855" s="38">
+        <v>1</v>
+      </c>
       <c r="I855" s="9"/>
       <c r="J855" s="11"/>
-      <c r="K855" s="20"/>
-    </row>
-    <row r="856" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A856" s="39">
-        <v>45381</v>
-      </c>
-      <c r="B856" s="20"/>
+      <c r="K855" s="46">
+        <v>45194</v>
+      </c>
+    </row>
+    <row r="856" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A856" s="39"/>
+      <c r="B856" s="20" t="s">
+        <v>106</v>
+      </c>
       <c r="C856" s="13"/>
-      <c r="D856" s="38"/>
-      <c r="E856" s="13">
-        <f t="shared" si="43"/>
-        <v>18.739999999999917</v>
-      </c>
+      <c r="D856" s="38">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E856" s="13"/>
       <c r="F856" s="20"/>
       <c r="G856" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -25777,35 +25799,50 @@
       <c r="H856" s="38"/>
       <c r="I856" s="9"/>
       <c r="J856" s="11"/>
-      <c r="K856" s="20"/>
-    </row>
-    <row r="857" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K856" s="46"/>
+    </row>
+    <row r="857" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A857" s="39">
-        <v>45388</v>
-      </c>
-      <c r="B857" s="20"/>
-      <c r="C857" s="13"/>
+        <v>45229</v>
+      </c>
+      <c r="B857" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C857" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D857" s="38"/>
       <c r="E857" s="13">
-        <f t="shared" si="43"/>
-        <v>18.739999999999917</v>
+        <f>SUM(C857,E855)-D857</f>
+        <v>16.831999999999915</v>
       </c>
       <c r="F857" s="20"/>
-      <c r="G857" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H857" s="38"/>
+      <c r="G857" s="13">
+        <f>C857</f>
+        <v>1.25</v>
+      </c>
+      <c r="H857" s="38">
+        <v>1</v>
+      </c>
       <c r="I857" s="9"/>
       <c r="J857" s="11"/>
-      <c r="K857" s="20"/>
-    </row>
-    <row r="858" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K857" s="46">
+        <v>45215</v>
+      </c>
+    </row>
+    <row r="858" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A858" s="39"/>
-      <c r="B858" s="20"/>
+      <c r="B858" s="20" t="s">
+        <v>478</v>
+      </c>
       <c r="C858" s="13"/>
-      <c r="D858" s="38"/>
-      <c r="E858" s="13"/>
+      <c r="D858" s="38">
+        <v>1</v>
+      </c>
+      <c r="E858" s="13">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>11.966999999999871</v>
+      </c>
       <c r="F858" s="20"/>
       <c r="G858" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -25814,14 +25851,23 @@
       <c r="H858" s="38"/>
       <c r="I858" s="9"/>
       <c r="J858" s="11"/>
-      <c r="K858" s="20"/>
-    </row>
-    <row r="859" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K858" s="46">
+        <v>45203</v>
+      </c>
+    </row>
+    <row r="859" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A859" s="39"/>
-      <c r="B859" s="20"/>
+      <c r="B859" s="20" t="s">
+        <v>486</v>
+      </c>
       <c r="C859" s="13"/>
-      <c r="D859" s="38"/>
-      <c r="E859" s="13"/>
+      <c r="D859" s="38">
+        <v>1.9000000000000003E-2</v>
+      </c>
+      <c r="E859" s="13">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>11.966999999999871</v>
+      </c>
       <c r="F859" s="20"/>
       <c r="G859" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -25830,30 +25876,48 @@
       <c r="H859" s="38"/>
       <c r="I859" s="9"/>
       <c r="J859" s="11"/>
-      <c r="K859" s="20"/>
-    </row>
-    <row r="860" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A860" s="39"/>
-      <c r="B860" s="20"/>
-      <c r="C860" s="13"/>
-      <c r="D860" s="38"/>
-      <c r="E860" s="13"/>
+      <c r="K859" s="46"/>
+    </row>
+    <row r="860" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A860" s="39">
+        <v>45260</v>
+      </c>
+      <c r="B860" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C860" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D860" s="38">
+        <v>0.16200000000000003</v>
+      </c>
+      <c r="E860" s="13">
+        <f>SUM(C860,E857)-D860</f>
+        <v>17.919999999999916</v>
+      </c>
       <c r="F860" s="20"/>
-      <c r="G860" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G860" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H860" s="38"/>
       <c r="I860" s="9"/>
       <c r="J860" s="11"/>
       <c r="K860" s="20"/>
     </row>
-    <row r="861" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A861" s="39"/>
-      <c r="B861" s="20"/>
+    <row r="861" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A861" s="39">
+        <v>45290</v>
+      </c>
+      <c r="B861" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C861" s="13"/>
       <c r="D861" s="38"/>
-      <c r="E861" s="13"/>
+      <c r="E861" s="13">
+        <f t="shared" si="43"/>
+        <v>17.919999999999916</v>
+      </c>
       <c r="F861" s="20"/>
       <c r="G861" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -25862,29 +25926,44 @@
       <c r="H861" s="38"/>
       <c r="I861" s="9"/>
       <c r="J861" s="11"/>
-      <c r="K861" s="20"/>
-    </row>
-    <row r="862" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K861" s="46">
+        <v>45278</v>
+      </c>
+    </row>
+    <row r="862" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A862" s="39"/>
-      <c r="B862" s="20"/>
+      <c r="B862" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C862" s="13"/>
       <c r="D862" s="38"/>
-      <c r="E862" s="13"/>
+      <c r="E862" s="13">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>11.966999999999871</v>
+      </c>
       <c r="F862" s="20"/>
       <c r="G862" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H862" s="38"/>
+      <c r="H862" s="38">
+        <v>1</v>
+      </c>
       <c r="I862" s="9"/>
       <c r="J862" s="11"/>
-      <c r="K862" s="20"/>
-    </row>
-    <row r="863" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K862" s="46">
+        <v>45264</v>
+      </c>
+    </row>
+    <row r="863" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A863" s="39"/>
-      <c r="B863" s="20"/>
+      <c r="B863" s="20" t="s">
+        <v>485</v>
+      </c>
       <c r="C863" s="13"/>
-      <c r="D863" s="38"/>
+      <c r="D863" s="38">
+        <v>1.6480000000000001</v>
+      </c>
       <c r="E863" s="13"/>
       <c r="F863" s="20"/>
       <c r="G863" s="13" t="str">
@@ -25894,14 +25973,19 @@
       <c r="H863" s="38"/>
       <c r="I863" s="9"/>
       <c r="J863" s="11"/>
-      <c r="K863" s="20"/>
-    </row>
-    <row r="864" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A864" s="39"/>
+      <c r="K863" s="46"/>
+    </row>
+    <row r="864" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A864" s="45" t="s">
+        <v>482</v>
+      </c>
       <c r="B864" s="20"/>
       <c r="C864" s="13"/>
       <c r="D864" s="38"/>
-      <c r="E864" s="13"/>
+      <c r="E864" s="13">
+        <f>SUM(C864,E861)-D864</f>
+        <v>17.919999999999916</v>
+      </c>
       <c r="F864" s="20"/>
       <c r="G864" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -25912,12 +25996,17 @@
       <c r="J864" s="11"/>
       <c r="K864" s="20"/>
     </row>
-    <row r="865" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A865" s="39"/>
+    <row r="865" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A865" s="39">
+        <v>45321</v>
+      </c>
       <c r="B865" s="20"/>
       <c r="C865" s="13"/>
       <c r="D865" s="38"/>
-      <c r="E865" s="13"/>
+      <c r="E865" s="13">
+        <f t="shared" si="43"/>
+        <v>17.919999999999916</v>
+      </c>
       <c r="F865" s="20"/>
       <c r="G865" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -25928,12 +26017,17 @@
       <c r="J865" s="11"/>
       <c r="K865" s="20"/>
     </row>
-    <row r="866" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A866" s="39"/>
+    <row r="866" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A866" s="39">
+        <v>45351</v>
+      </c>
       <c r="B866" s="20"/>
       <c r="C866" s="13"/>
       <c r="D866" s="38"/>
-      <c r="E866" s="13"/>
+      <c r="E866" s="13">
+        <f t="shared" si="43"/>
+        <v>17.919999999999916</v>
+      </c>
       <c r="F866" s="20"/>
       <c r="G866" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -25944,12 +26038,17 @@
       <c r="J866" s="11"/>
       <c r="K866" s="20"/>
     </row>
-    <row r="867" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A867" s="39"/>
+    <row r="867" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A867" s="39">
+        <v>45381</v>
+      </c>
       <c r="B867" s="20"/>
       <c r="C867" s="13"/>
       <c r="D867" s="38"/>
-      <c r="E867" s="13"/>
+      <c r="E867" s="13">
+        <f t="shared" si="43"/>
+        <v>17.919999999999916</v>
+      </c>
       <c r="F867" s="20"/>
       <c r="G867" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -25960,12 +26059,17 @@
       <c r="J867" s="11"/>
       <c r="K867" s="20"/>
     </row>
-    <row r="868" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A868" s="39"/>
+    <row r="868" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A868" s="39">
+        <v>45388</v>
+      </c>
       <c r="B868" s="20"/>
       <c r="C868" s="13"/>
       <c r="D868" s="38"/>
-      <c r="E868" s="13"/>
+      <c r="E868" s="13">
+        <f t="shared" si="43"/>
+        <v>17.919999999999916</v>
+      </c>
       <c r="F868" s="20"/>
       <c r="G868" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -25976,7 +26080,7 @@
       <c r="J868" s="11"/>
       <c r="K868" s="20"/>
     </row>
-    <row r="869" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A869" s="39"/>
       <c r="B869" s="20"/>
       <c r="C869" s="13"/>
@@ -25992,7 +26096,7 @@
       <c r="J869" s="11"/>
       <c r="K869" s="20"/>
     </row>
-    <row r="870" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A870" s="39"/>
       <c r="B870" s="20"/>
       <c r="C870" s="13"/>
@@ -26008,7 +26112,7 @@
       <c r="J870" s="11"/>
       <c r="K870" s="20"/>
     </row>
-    <row r="871" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A871" s="39"/>
       <c r="B871" s="20"/>
       <c r="C871" s="13"/>
@@ -26024,7 +26128,7 @@
       <c r="J871" s="11"/>
       <c r="K871" s="20"/>
     </row>
-    <row r="872" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A872" s="39"/>
       <c r="B872" s="20"/>
       <c r="C872" s="13"/>
@@ -26040,7 +26144,7 @@
       <c r="J872" s="11"/>
       <c r="K872" s="20"/>
     </row>
-    <row r="873" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A873" s="39"/>
       <c r="B873" s="20"/>
       <c r="C873" s="13"/>
@@ -26056,7 +26160,7 @@
       <c r="J873" s="11"/>
       <c r="K873" s="20"/>
     </row>
-    <row r="874" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A874" s="39"/>
       <c r="B874" s="20"/>
       <c r="C874" s="13"/>
@@ -26072,21 +26176,197 @@
       <c r="J874" s="11"/>
       <c r="K874" s="20"/>
     </row>
-    <row r="875" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A875" s="58"/>
-      <c r="B875" s="15"/>
-      <c r="C875" s="59"/>
-      <c r="D875" s="40"/>
+    <row r="875" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A875" s="39"/>
+      <c r="B875" s="20"/>
+      <c r="C875" s="13"/>
+      <c r="D875" s="38"/>
       <c r="E875" s="13"/>
-      <c r="F875" s="15"/>
-      <c r="G875" s="59" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H875" s="40"/>
+      <c r="F875" s="20"/>
+      <c r="G875" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H875" s="38"/>
       <c r="I875" s="9"/>
-      <c r="J875" s="12"/>
-      <c r="K875" s="15"/>
+      <c r="J875" s="11"/>
+      <c r="K875" s="20"/>
+    </row>
+    <row r="876" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A876" s="39"/>
+      <c r="B876" s="20"/>
+      <c r="C876" s="13"/>
+      <c r="D876" s="38"/>
+      <c r="E876" s="13"/>
+      <c r="F876" s="20"/>
+      <c r="G876" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H876" s="38"/>
+      <c r="I876" s="9"/>
+      <c r="J876" s="11"/>
+      <c r="K876" s="20"/>
+    </row>
+    <row r="877" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A877" s="39"/>
+      <c r="B877" s="20"/>
+      <c r="C877" s="13"/>
+      <c r="D877" s="38"/>
+      <c r="E877" s="13"/>
+      <c r="F877" s="20"/>
+      <c r="G877" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H877" s="38"/>
+      <c r="I877" s="9"/>
+      <c r="J877" s="11"/>
+      <c r="K877" s="20"/>
+    </row>
+    <row r="878" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A878" s="39"/>
+      <c r="B878" s="20"/>
+      <c r="C878" s="13"/>
+      <c r="D878" s="38"/>
+      <c r="E878" s="13"/>
+      <c r="F878" s="20"/>
+      <c r="G878" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H878" s="38"/>
+      <c r="I878" s="9"/>
+      <c r="J878" s="11"/>
+      <c r="K878" s="20"/>
+    </row>
+    <row r="879" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A879" s="39"/>
+      <c r="B879" s="20"/>
+      <c r="C879" s="13"/>
+      <c r="D879" s="38"/>
+      <c r="E879" s="13"/>
+      <c r="F879" s="20"/>
+      <c r="G879" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H879" s="38"/>
+      <c r="I879" s="9"/>
+      <c r="J879" s="11"/>
+      <c r="K879" s="20"/>
+    </row>
+    <row r="880" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A880" s="39"/>
+      <c r="B880" s="20"/>
+      <c r="C880" s="13"/>
+      <c r="D880" s="38"/>
+      <c r="E880" s="13"/>
+      <c r="F880" s="20"/>
+      <c r="G880" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H880" s="38"/>
+      <c r="I880" s="9"/>
+      <c r="J880" s="11"/>
+      <c r="K880" s="20"/>
+    </row>
+    <row r="881" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A881" s="39"/>
+      <c r="B881" s="20"/>
+      <c r="C881" s="13"/>
+      <c r="D881" s="38"/>
+      <c r="E881" s="13"/>
+      <c r="F881" s="20"/>
+      <c r="G881" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H881" s="38"/>
+      <c r="I881" s="9"/>
+      <c r="J881" s="11"/>
+      <c r="K881" s="20"/>
+    </row>
+    <row r="882" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A882" s="39"/>
+      <c r="B882" s="20"/>
+      <c r="C882" s="13"/>
+      <c r="D882" s="38"/>
+      <c r="E882" s="13"/>
+      <c r="F882" s="20"/>
+      <c r="G882" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H882" s="38"/>
+      <c r="I882" s="9"/>
+      <c r="J882" s="11"/>
+      <c r="K882" s="20"/>
+    </row>
+    <row r="883" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A883" s="39"/>
+      <c r="B883" s="20"/>
+      <c r="C883" s="13"/>
+      <c r="D883" s="38"/>
+      <c r="E883" s="13"/>
+      <c r="F883" s="20"/>
+      <c r="G883" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H883" s="38"/>
+      <c r="I883" s="9"/>
+      <c r="J883" s="11"/>
+      <c r="K883" s="20"/>
+    </row>
+    <row r="884" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A884" s="39"/>
+      <c r="B884" s="20"/>
+      <c r="C884" s="13"/>
+      <c r="D884" s="38"/>
+      <c r="E884" s="13"/>
+      <c r="F884" s="20"/>
+      <c r="G884" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H884" s="38"/>
+      <c r="I884" s="9"/>
+      <c r="J884" s="11"/>
+      <c r="K884" s="20"/>
+    </row>
+    <row r="885" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A885" s="39"/>
+      <c r="B885" s="20"/>
+      <c r="C885" s="13"/>
+      <c r="D885" s="38"/>
+      <c r="E885" s="13"/>
+      <c r="F885" s="20"/>
+      <c r="G885" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H885" s="38"/>
+      <c r="I885" s="9"/>
+      <c r="J885" s="11"/>
+      <c r="K885" s="20"/>
+    </row>
+    <row r="886" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A886" s="58"/>
+      <c r="B886" s="15"/>
+      <c r="C886" s="59"/>
+      <c r="D886" s="40"/>
+      <c r="E886" s="13"/>
+      <c r="F886" s="15"/>
+      <c r="G886" s="59" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H886" s="40"/>
+      <c r="I886" s="9"/>
+      <c r="J886" s="12"/>
+      <c r="K886" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -26103,10 +26383,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -26129,28 +26409,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="70" t="s">
         <v>33</v>
       </c>
@@ -26163,7 +26443,7 @@
       <c r="K1" s="71"/>
       <c r="L1" s="71"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -26192,19 +26472,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" s="11">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G3" s="42">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>8.3000000000000018E-2</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="J3" s="44">
         <v>24</v>
@@ -26218,17 +26498,17 @@
         <v>0.2919999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="37" t="s">
         <v>28</v>
       </c>
@@ -26249,7 +26529,7 @@
       <c r="K6" s="72"/>
       <c r="L6" s="72"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -26276,7 +26556,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -26302,7 +26582,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -26328,7 +26608,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -26354,7 +26634,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -26380,7 +26660,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -26406,7 +26686,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -26432,7 +26712,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -26458,7 +26738,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -26478,7 +26758,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -26498,7 +26778,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -26518,7 +26798,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -26539,7 +26819,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -26560,7 +26840,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -26581,7 +26861,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -26602,7 +26882,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -26623,7 +26903,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -26644,7 +26924,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -26665,7 +26945,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -26686,7 +26966,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -26707,7 +26987,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -26728,7 +27008,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -26749,7 +27029,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -26770,7 +27050,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -26791,7 +27071,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -26812,7 +27092,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -26833,7 +27113,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -26854,7 +27134,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -26875,7 +27155,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -26896,7 +27176,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -26917,7 +27197,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -26938,7 +27218,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -26947,7 +27227,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -26956,7 +27236,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -26965,7 +27245,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -26974,7 +27254,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -26983,7 +27263,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -26992,7 +27272,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -27001,7 +27281,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -27010,7 +27290,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -27019,7 +27299,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -27028,7 +27308,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -27037,7 +27317,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -27046,7 +27326,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -27055,7 +27335,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -27064,7 +27344,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -27073,7 +27353,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -27082,7 +27362,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -27091,7 +27371,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -27100,7 +27380,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -27109,7 +27389,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -27118,7 +27398,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -27127,7 +27407,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -27136,7 +27416,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -27145,7 +27425,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -27154,7 +27434,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -27163,7 +27443,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -27172,7 +27452,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -27181,7 +27461,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -27190,7 +27470,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -27199,7 +27479,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/BUDGET/PENALES, GUILLERMA.xlsx
+++ b/REGULAR/BUDGET/PENALES, GUILLERMA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="494">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2260,7 +2260,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2303,7 +2303,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2367,7 +2367,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2427,7 +2427,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2493,7 +2493,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2556,7 +2556,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2654,7 +2654,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2713,7 +2713,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2778,7 +2778,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2821,7 +2821,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2896,7 +2896,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3082,7 +3082,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3148,7 +3148,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3206,7 +3206,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3272,7 +3272,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3328,7 +3328,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3403,7 +3403,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3446,7 +3446,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3512,7 +3512,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3568,7 +3568,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4015,9 +4015,9 @@
   <dimension ref="A2:K886"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3705" topLeftCell="A834" activePane="bottomLeft"/>
+      <pane ySplit="3705" topLeftCell="A855" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F840" sqref="F840"/>
+      <selection pane="bottomLeft" activeCell="K865" sqref="K865"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26000,7 +26000,9 @@
       <c r="A865" s="39">
         <v>45321</v>
       </c>
-      <c r="B865" s="20"/>
+      <c r="B865" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C865" s="13"/>
       <c r="D865" s="38"/>
       <c r="E865" s="13">
@@ -26015,7 +26017,9 @@
       <c r="H865" s="38"/>
       <c r="I865" s="9"/>
       <c r="J865" s="11"/>
-      <c r="K865" s="20"/>
+      <c r="K865" s="46">
+        <v>45309</v>
+      </c>
     </row>
     <row r="866" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A866" s="39">

--- a/REGULAR/BUDGET/PENALES, GUILLERMA.xlsx
+++ b/REGULAR/BUDGET/PENALES, GUILLERMA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\BUDGET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\BUDGET\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85E5E5E-515B-4F98-A392-2A4C44698F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="494">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1521,7 +1522,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2260,7 +2261,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2303,7 +2304,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2367,7 +2368,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2427,7 +2428,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2493,7 +2494,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2556,7 +2557,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2654,7 +2655,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2713,7 +2714,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2778,7 +2779,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2821,7 +2822,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2896,7 +2897,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3082,7 +3083,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3148,7 +3149,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3206,7 +3207,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3272,7 +3273,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3328,7 +3329,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3403,7 +3404,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3446,7 +3447,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3512,7 +3513,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3568,7 +3569,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3647,7 +3648,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3664,26 +3665,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K886" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K886"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K887" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K887" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3990,7 +3991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4000,7 +4001,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4008,34 +4009,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K886"/>
+  <dimension ref="A2:K887"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3705" topLeftCell="A855" activePane="bottomLeft"/>
-      <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="K865" sqref="K865"/>
+      <pane ySplit="3708" topLeftCell="A855" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="K867" sqref="K867"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4058,7 +4059,7 @@
       <c r="J2" s="62"/>
       <c r="K2" s="63"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4078,7 +4079,7 @@
       <c r="J3" s="64"/>
       <c r="K3" s="65"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4100,7 +4101,7 @@
       <c r="J4" s="66"/>
       <c r="K4" s="67"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4108,7 +4109,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4121,7 +4122,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="60" t="s">
@@ -4138,7 +4139,7 @@
       <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4173,7 +4174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4182,7 +4183,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>11.966999999999871</v>
+        <v>13.216999999999871</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4192,12 +4193,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>90.5</v>
+        <v>91.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
         <v>72</v>
       </c>
@@ -4219,7 +4220,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>32295</v>
       </c>
@@ -4242,7 +4243,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <f>EDATE(A11,1)</f>
         <v>32325</v>
@@ -4266,7 +4267,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <f>EDATE(A12,1)</f>
         <v>32356</v>
@@ -4290,7 +4291,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <f t="shared" ref="A14:A17" si="1">EDATE(A13,1)</f>
         <v>32387</v>
@@ -4314,7 +4315,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <f t="shared" si="1"/>
         <v>32417</v>
@@ -4338,7 +4339,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <f t="shared" si="1"/>
         <v>32448</v>
@@ -4362,7 +4363,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
         <f t="shared" si="1"/>
         <v>32478</v>
@@ -4390,7 +4391,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="45" t="s">
         <v>74</v>
       </c>
@@ -4411,7 +4412,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
         <f>EDATE(A17,1)</f>
         <v>32509</v>
@@ -4435,7 +4436,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <f>EDATE(A19,1)</f>
         <v>32540</v>
@@ -4459,7 +4460,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
         <f t="shared" ref="A21:A30" si="2">EDATE(A20,1)</f>
         <v>32568</v>
@@ -4483,7 +4484,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
         <f t="shared" si="2"/>
         <v>32599</v>
@@ -4507,7 +4508,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
         <f t="shared" si="2"/>
         <v>32629</v>
@@ -4531,7 +4532,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <f t="shared" si="2"/>
         <v>32660</v>
@@ -4555,7 +4556,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
         <f t="shared" si="2"/>
         <v>32690</v>
@@ -4579,7 +4580,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
         <f t="shared" si="2"/>
         <v>32721</v>
@@ -4603,7 +4604,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23">
         <f>EDATE(A26,1)</f>
         <v>32752</v>
@@ -4627,7 +4628,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23">
         <f t="shared" si="2"/>
         <v>32782</v>
@@ -4651,7 +4652,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
         <f t="shared" si="2"/>
         <v>32813</v>
@@ -4675,7 +4676,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <f t="shared" si="2"/>
         <v>32843</v>
@@ -4703,7 +4704,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="45" t="s">
         <v>75</v>
       </c>
@@ -4724,7 +4725,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="23">
         <f>EDATE(A30,1)</f>
         <v>32874</v>
@@ -4748,7 +4749,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23">
         <f>EDATE(A32,1)</f>
         <v>32905</v>
@@ -4772,7 +4773,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="23">
         <f t="shared" ref="A34:A43" si="3">EDATE(A33,1)</f>
         <v>32933</v>
@@ -4796,7 +4797,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
         <f t="shared" si="3"/>
         <v>32964</v>
@@ -4820,7 +4821,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23">
         <f t="shared" si="3"/>
         <v>32994</v>
@@ -4844,7 +4845,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23">
         <f t="shared" si="3"/>
         <v>33025</v>
@@ -4868,7 +4869,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23">
         <f t="shared" si="3"/>
         <v>33055</v>
@@ -4892,7 +4893,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23">
         <f t="shared" si="3"/>
         <v>33086</v>
@@ -4916,7 +4917,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23">
         <f t="shared" si="3"/>
         <v>33117</v>
@@ -4940,7 +4941,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
         <f t="shared" si="3"/>
         <v>33147</v>
@@ -4964,7 +4965,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="23">
         <f t="shared" si="3"/>
         <v>33178</v>
@@ -4988,7 +4989,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="23">
         <f t="shared" si="3"/>
         <v>33208</v>
@@ -5016,7 +5017,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="45" t="s">
         <v>76</v>
       </c>
@@ -5037,7 +5038,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23">
         <f>EDATE(A43,1)</f>
         <v>33239</v>
@@ -5061,7 +5062,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23">
         <f>EDATE(A45,1)</f>
         <v>33270</v>
@@ -5085,7 +5086,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23">
         <f t="shared" ref="A47:A56" si="4">EDATE(A46,1)</f>
         <v>33298</v>
@@ -5109,7 +5110,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23">
         <f t="shared" si="4"/>
         <v>33329</v>
@@ -5133,7 +5134,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
         <f t="shared" si="4"/>
         <v>33359</v>
@@ -5157,7 +5158,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23">
         <f t="shared" si="4"/>
         <v>33390</v>
@@ -5181,7 +5182,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="23">
         <f t="shared" si="4"/>
         <v>33420</v>
@@ -5205,7 +5206,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
         <f t="shared" si="4"/>
         <v>33451</v>
@@ -5229,7 +5230,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23">
         <f t="shared" si="4"/>
         <v>33482</v>
@@ -5253,7 +5254,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
         <f t="shared" si="4"/>
         <v>33512</v>
@@ -5277,7 +5278,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="23">
         <f>EDATE(A54,1)</f>
         <v>33543</v>
@@ -5301,7 +5302,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23">
         <f t="shared" si="4"/>
         <v>33573</v>
@@ -5329,7 +5330,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="45" t="s">
         <v>77</v>
       </c>
@@ -5350,7 +5351,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="23">
         <f>EDATE(A56,1)</f>
         <v>33604</v>
@@ -5374,7 +5375,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23">
         <f>EDATE(A58,1)</f>
         <v>33635</v>
@@ -5398,7 +5399,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="23">
         <f t="shared" ref="A60:A69" si="5">EDATE(A59,1)</f>
         <v>33664</v>
@@ -5422,7 +5423,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="23">
         <f t="shared" si="5"/>
         <v>33695</v>
@@ -5446,7 +5447,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="23">
         <f t="shared" si="5"/>
         <v>33725</v>
@@ -5470,7 +5471,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="23">
         <f t="shared" si="5"/>
         <v>33756</v>
@@ -5494,7 +5495,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="23">
         <f t="shared" si="5"/>
         <v>33786</v>
@@ -5518,7 +5519,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="23">
         <f t="shared" si="5"/>
         <v>33817</v>
@@ -5542,7 +5543,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="23">
         <f t="shared" si="5"/>
         <v>33848</v>
@@ -5566,7 +5567,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="23">
         <f t="shared" si="5"/>
         <v>33878</v>
@@ -5590,7 +5591,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23">
         <f>EDATE(A67,1)</f>
         <v>33909</v>
@@ -5614,7 +5615,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="23">
         <f t="shared" si="5"/>
         <v>33939</v>
@@ -5642,7 +5643,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="45" t="s">
         <v>78</v>
       </c>
@@ -5663,7 +5664,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="23">
         <f>EDATE(A69,1)</f>
         <v>33970</v>
@@ -5687,7 +5688,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <f>EDATE(A71,1)</f>
         <v>34001</v>
@@ -5711,7 +5712,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23">
         <f t="shared" ref="A73:A81" si="6">EDATE(A72,1)</f>
         <v>34029</v>
@@ -5735,7 +5736,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="23">
         <f t="shared" si="6"/>
         <v>34060</v>
@@ -5759,7 +5760,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="23">
         <f t="shared" si="6"/>
         <v>34090</v>
@@ -5783,7 +5784,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="23">
         <f t="shared" si="6"/>
         <v>34121</v>
@@ -5807,7 +5808,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="23">
         <f t="shared" si="6"/>
         <v>34151</v>
@@ -5831,7 +5832,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="23">
         <f t="shared" si="6"/>
         <v>34182</v>
@@ -5855,7 +5856,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="23">
         <f t="shared" si="6"/>
         <v>34213</v>
@@ -5879,7 +5880,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="23">
         <f t="shared" si="6"/>
         <v>34243</v>
@@ -5903,7 +5904,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="23">
         <f t="shared" si="6"/>
         <v>34274</v>
@@ -5927,7 +5928,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23">
         <f>EDATE(A81,1)</f>
         <v>34304</v>
@@ -5955,7 +5956,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="49" t="s">
         <v>79</v>
       </c>
@@ -5976,7 +5977,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="50" t="s">
         <v>80</v>
       </c>
@@ -6001,7 +6002,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="52" t="s">
         <v>82</v>
       </c>
@@ -6026,7 +6027,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="23">
         <v>34608</v>
       </c>
@@ -6053,7 +6054,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="23">
         <f>EDATE(A86,1)</f>
         <v>34639</v>
@@ -6081,7 +6082,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="23">
         <f>EDATE(A87,1)</f>
         <v>34669</v>
@@ -6109,7 +6110,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="45" t="s">
         <v>86</v>
       </c>
@@ -6130,7 +6131,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="23">
         <f>EDATE(A88,1)</f>
         <v>34700</v>
@@ -6158,7 +6159,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="23"/>
       <c r="B91" s="20" t="s">
         <v>87</v>
@@ -6181,7 +6182,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23">
         <f>EDATE(A90,1)</f>
         <v>34731</v>
@@ -6209,7 +6210,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="23">
         <f t="shared" ref="A93:A107" si="8">EDATE(A92,1)</f>
         <v>34759</v>
@@ -6237,7 +6238,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="23"/>
       <c r="B94" s="20" t="s">
         <v>53</v>
@@ -6260,7 +6261,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="23">
         <f>EDATE(A93,1)</f>
         <v>34790</v>
@@ -6288,7 +6289,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
         <f t="shared" si="8"/>
         <v>34820</v>
@@ -6316,7 +6317,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="23"/>
       <c r="B97" s="20" t="s">
         <v>53</v>
@@ -6339,7 +6340,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="23">
         <f>EDATE(A96,1)</f>
         <v>34851</v>
@@ -6367,7 +6368,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>91</v>
@@ -6390,7 +6391,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="23">
         <f>EDATE(A98,1)</f>
         <v>34881</v>
@@ -6418,7 +6419,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="23"/>
       <c r="B101" s="20" t="s">
         <v>54</v>
@@ -6441,7 +6442,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="23">
         <f>EDATE(A100,1)</f>
         <v>34912</v>
@@ -6469,7 +6470,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="23"/>
       <c r="B103" s="20" t="s">
         <v>54</v>
@@ -6492,7 +6493,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="23">
         <f>EDATE(A102,1)</f>
         <v>34943</v>
@@ -6520,7 +6521,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="23">
         <f t="shared" si="8"/>
         <v>34973</v>
@@ -6548,7 +6549,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="23">
         <f>EDATE(A105,1)</f>
         <v>35004</v>
@@ -6572,7 +6573,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="23">
         <f t="shared" si="8"/>
         <v>35034</v>
@@ -6598,7 +6599,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="45" t="s">
         <v>94</v>
       </c>
@@ -6619,7 +6620,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23">
         <f>EDATE(A107,1)</f>
         <v>35065</v>
@@ -6643,7 +6644,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="23">
         <f>EDATE(A109,1)</f>
         <v>35096</v>
@@ -6671,7 +6672,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>95</v>
@@ -6694,7 +6695,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="23">
         <f>EDATE(A110,1)</f>
         <v>35125</v>
@@ -6718,7 +6719,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="23">
         <f t="shared" ref="A113:A122" si="9">EDATE(A112,1)</f>
         <v>35156</v>
@@ -6742,7 +6743,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="23">
         <f t="shared" si="9"/>
         <v>35186</v>
@@ -6770,7 +6771,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="23"/>
       <c r="B115" s="20" t="s">
         <v>53</v>
@@ -6793,7 +6794,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="23">
         <f>EDATE(A114,1)</f>
         <v>35217</v>
@@ -6821,7 +6822,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>96</v>
@@ -6844,7 +6845,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="23">
         <f>EDATE(A116,1)</f>
         <v>35247</v>
@@ -6868,7 +6869,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="23">
         <f t="shared" si="9"/>
         <v>35278</v>
@@ -6896,7 +6897,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="23"/>
       <c r="B120" s="20" t="s">
         <v>53</v>
@@ -6919,7 +6920,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="23">
         <f>EDATE(A119,1)</f>
         <v>35309</v>
@@ -6943,7 +6944,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="23">
         <f t="shared" si="9"/>
         <v>35339</v>
@@ -6971,7 +6972,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="23"/>
       <c r="B123" s="20" t="s">
         <v>85</v>
@@ -6994,7 +6995,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="23">
         <f>EDATE(A122,1)</f>
         <v>35370</v>
@@ -7022,7 +7023,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="23">
         <f>EDATE(A124,1)</f>
         <v>35400</v>
@@ -7050,7 +7051,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="45" t="s">
         <v>98</v>
       </c>
@@ -7071,7 +7072,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="23">
         <f>EDATE(A125,1)</f>
         <v>35431</v>
@@ -7095,7 +7096,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="23">
         <f>EDATE(A127,1)</f>
         <v>35462</v>
@@ -7119,7 +7120,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="23">
         <f t="shared" ref="A129:A140" si="10">EDATE(A128,1)</f>
         <v>35490</v>
@@ -7143,7 +7144,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="23">
         <f t="shared" si="10"/>
         <v>35521</v>
@@ -7167,7 +7168,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="23">
         <f t="shared" si="10"/>
         <v>35551</v>
@@ -7191,7 +7192,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="23">
         <f t="shared" si="10"/>
         <v>35582</v>
@@ -7215,7 +7216,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="23">
         <f t="shared" si="10"/>
         <v>35612</v>
@@ -7245,7 +7246,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="23"/>
       <c r="B134" s="20" t="s">
         <v>53</v>
@@ -7270,7 +7271,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="23">
         <f>EDATE(A133,1)</f>
         <v>35643</v>
@@ -7300,7 +7301,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="23"/>
       <c r="B136" s="20" t="s">
         <v>53</v>
@@ -7325,7 +7326,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23">
         <f>EDATE(A135,1)</f>
         <v>35674</v>
@@ -7355,7 +7356,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="23">
         <f>EDATE(A137,1)</f>
         <v>35704</v>
@@ -7385,7 +7386,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="23">
         <f t="shared" si="10"/>
         <v>35735</v>
@@ -7413,7 +7414,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="23">
         <f t="shared" si="10"/>
         <v>35765</v>
@@ -7441,7 +7442,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="45" t="s">
         <v>101</v>
       </c>
@@ -7462,7 +7463,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="23">
         <f>EDATE(A140,1)</f>
         <v>35796</v>
@@ -7486,7 +7487,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="23">
         <f>EDATE(A142,1)</f>
         <v>35827</v>
@@ -7510,7 +7511,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="23">
         <f t="shared" ref="A144:A148" si="12">EDATE(A143,1)</f>
         <v>35855</v>
@@ -7534,7 +7535,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="23">
         <f t="shared" si="12"/>
         <v>35886</v>
@@ -7562,7 +7563,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="23">
         <f t="shared" si="12"/>
         <v>35916</v>
@@ -7590,7 +7591,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="23">
         <f t="shared" si="12"/>
         <v>35947</v>
@@ -7618,7 +7619,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="23">
         <f t="shared" si="12"/>
         <v>35977</v>
@@ -7648,7 +7649,7 @@
         <v>45122</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="23"/>
       <c r="B149" s="20" t="s">
         <v>103</v>
@@ -7671,7 +7672,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="23">
         <f>EDATE(A148,1)</f>
         <v>36008</v>
@@ -7701,7 +7702,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>50</v>
@@ -7724,7 +7725,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="23"/>
       <c r="B152" s="20" t="s">
         <v>104</v>
@@ -7747,7 +7748,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="23">
         <f>EDATE(A150,1)</f>
         <v>36039</v>
@@ -7777,7 +7778,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>105</v>
@@ -7800,7 +7801,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="23">
         <f>EDATE(A153,1)</f>
         <v>36069</v>
@@ -7830,7 +7831,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>53</v>
@@ -7853,7 +7854,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="53"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="23"/>
       <c r="B157" s="20" t="s">
         <v>106</v>
@@ -7876,7 +7877,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="53"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="23">
         <f>EDATE(A155,1)</f>
         <v>36100</v>
@@ -7904,7 +7905,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="23">
         <f>EDATE(A158,1)</f>
         <v>36130</v>
@@ -7928,7 +7929,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="45" t="s">
         <v>108</v>
       </c>
@@ -7949,7 +7950,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="23">
         <f>EDATE(A159,1)</f>
         <v>36161</v>
@@ -7979,7 +7980,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="23"/>
       <c r="B162" s="20" t="s">
         <v>109</v>
@@ -8002,7 +8003,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="23">
         <f>EDATE(A161,1)</f>
         <v>36192</v>
@@ -8032,7 +8033,7 @@
         <v>44982</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>51</v>
@@ -8055,7 +8056,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="23"/>
       <c r="B165" s="20" t="s">
         <v>53</v>
@@ -8080,7 +8081,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
         <v>110</v>
@@ -8103,7 +8104,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="23">
         <f>EDATE(A163,1)</f>
         <v>36220</v>
@@ -8131,7 +8132,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="23">
         <f t="shared" ref="A168" si="13">EDATE(A167,1)</f>
         <v>36251</v>
@@ -8159,7 +8160,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
         <v>53</v>
@@ -8184,7 +8185,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="23"/>
       <c r="B170" s="20" t="s">
         <v>112</v>
@@ -8207,7 +8208,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="23">
         <f>EDATE(A168,1)</f>
         <v>36281</v>
@@ -8237,7 +8238,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>50</v>
@@ -8260,7 +8261,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="23"/>
       <c r="B173" s="20" t="s">
         <v>113</v>
@@ -8283,7 +8284,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="23">
         <f>EDATE(A171,1)</f>
         <v>36312</v>
@@ -8313,7 +8314,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="23"/>
       <c r="B175" s="20" t="s">
         <v>50</v>
@@ -8336,7 +8337,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>114</v>
@@ -8359,7 +8360,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="23">
         <f>EDATE(A174,1)</f>
         <v>36342</v>
@@ -8389,7 +8390,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
         <v>53</v>
@@ -8414,7 +8415,7 @@
         <v>45137</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="23"/>
       <c r="B179" s="20" t="s">
         <v>116</v>
@@ -8437,7 +8438,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="53"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="23">
         <f>EDATE(A177,1)</f>
         <v>36373</v>
@@ -8467,7 +8468,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>117</v>
@@ -8490,7 +8491,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="23"/>
       <c r="B182" s="20" t="s">
         <v>50</v>
@@ -8513,7 +8514,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="23">
         <f>EDATE(A180,1)</f>
         <v>36404</v>
@@ -8543,7 +8544,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>53</v>
@@ -8568,7 +8569,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="23"/>
       <c r="B185" s="20" t="s">
         <v>118</v>
@@ -8591,7 +8592,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="23">
         <f>EDATE(A183,1)</f>
         <v>36434</v>
@@ -8621,7 +8622,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="23"/>
       <c r="B187" s="20" t="s">
         <v>91</v>
@@ -8646,7 +8647,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>119</v>
@@ -8669,7 +8670,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="23">
         <f>EDATE(A186,1)</f>
         <v>36465</v>
@@ -8699,7 +8700,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
         <v>97</v>
@@ -8724,7 +8725,7 @@
         <v>45255</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="23"/>
       <c r="B191" s="20" t="s">
         <v>120</v>
@@ -8747,7 +8748,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="23">
         <f>EDATE(A189,1)</f>
         <v>36495</v>
@@ -8777,7 +8778,7 @@
         <v>45277</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>53</v>
@@ -8802,7 +8803,7 @@
         <v>45275</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="23"/>
       <c r="B194" s="20" t="s">
         <v>121</v>
@@ -8825,7 +8826,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="45" t="s">
         <v>122</v>
       </c>
@@ -8846,7 +8847,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="23">
         <f>EDATE(A192,1)</f>
         <v>36526</v>
@@ -8876,7 +8877,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="23"/>
       <c r="B197" s="20" t="s">
         <v>50</v>
@@ -8899,7 +8900,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>123</v>
@@ -8922,7 +8923,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="23"/>
       <c r="B199" s="20" t="s">
         <v>56</v>
@@ -8947,7 +8948,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="23">
         <f>EDATE(A196,1)</f>
         <v>36557</v>
@@ -8975,7 +8976,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="23">
         <f t="shared" ref="A201" si="14">EDATE(A200,1)</f>
         <v>36586</v>
@@ -9005,7 +9006,7 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>124</v>
@@ -9028,7 +9029,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="23">
         <f>EDATE(A201,1)</f>
         <v>36617</v>
@@ -9058,7 +9059,7 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>50</v>
@@ -9081,7 +9082,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="23"/>
       <c r="B205" s="20" t="s">
         <v>125</v>
@@ -9104,7 +9105,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="23">
         <f>EDATE(A203,1)</f>
         <v>36647</v>
@@ -9132,7 +9133,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="23">
         <f>EDATE(A206,1)</f>
         <v>36678</v>
@@ -9160,7 +9161,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>127</v>
@@ -9183,7 +9184,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="23">
         <f>EDATE(A207,1)</f>
         <v>36708</v>
@@ -9213,7 +9214,7 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
         <v>128</v>
@@ -9236,7 +9237,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="23">
         <f>EDATE(A209,1)</f>
         <v>36739</v>
@@ -9266,7 +9267,7 @@
         <v>45145</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>91</v>
@@ -9291,7 +9292,7 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="23"/>
       <c r="B213" s="20" t="s">
         <v>123</v>
@@ -9314,7 +9315,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="23">
         <f>EDATE(A211,1)</f>
         <v>36770</v>
@@ -9344,7 +9345,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>91</v>
@@ -9369,7 +9370,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
         <v>129</v>
@@ -9392,7 +9393,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="23">
         <f>EDATE(A214,1)</f>
         <v>36800</v>
@@ -9422,7 +9423,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="23"/>
       <c r="B218" s="20" t="s">
         <v>91</v>
@@ -9447,7 +9448,7 @@
         <v>45229</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>130</v>
@@ -9470,7 +9471,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="23">
         <f>EDATE(A217,1)</f>
         <v>36831</v>
@@ -9500,7 +9501,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="23"/>
       <c r="B221" s="20" t="s">
         <v>54</v>
@@ -9525,7 +9526,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="23"/>
       <c r="B222" s="20" t="s">
         <v>56</v>
@@ -9550,7 +9551,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="23"/>
       <c r="B223" s="20" t="s">
         <v>131</v>
@@ -9573,7 +9574,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="23">
         <f>EDATE(A220,1)</f>
         <v>36861</v>
@@ -9603,7 +9604,7 @@
         <v>45271</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="23"/>
       <c r="B225" s="20" t="s">
         <v>92</v>
@@ -9628,7 +9629,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>132</v>
@@ -9651,7 +9652,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="45" t="s">
         <v>133</v>
       </c>
@@ -9672,7 +9673,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="23">
         <f>EDATE(A224,1)</f>
         <v>36892</v>
@@ -9700,7 +9701,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="23">
         <f>EDATE(A228,1)</f>
         <v>36923</v>
@@ -9730,7 +9731,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="23"/>
       <c r="B230" s="20" t="s">
         <v>53</v>
@@ -9755,7 +9756,7 @@
         <v>44973</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="23"/>
       <c r="B231" s="20" t="s">
         <v>134</v>
@@ -9778,7 +9779,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="23">
         <f>EDATE(A229,1)</f>
         <v>36951</v>
@@ -9806,7 +9807,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="23">
         <f t="shared" ref="A233:A234" si="16">EDATE(A232,1)</f>
         <v>36982</v>
@@ -9834,7 +9835,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="23">
         <f t="shared" si="16"/>
         <v>37012</v>
@@ -9864,7 +9865,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>137</v>
@@ -9887,7 +9888,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="23">
         <f>EDATE(A234,1)</f>
         <v>37043</v>
@@ -9917,7 +9918,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="23"/>
       <c r="B237" s="20" t="s">
         <v>50</v>
@@ -9940,7 +9941,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="23"/>
       <c r="B238" s="20" t="s">
         <v>50</v>
@@ -9963,7 +9964,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="23"/>
       <c r="B239" s="20" t="s">
         <v>138</v>
@@ -9986,7 +9987,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="53"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="23">
         <f>EDATE(A236,1)</f>
         <v>37073</v>
@@ -10016,7 +10017,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
         <v>53</v>
@@ -10041,7 +10042,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
         <v>139</v>
@@ -10064,7 +10065,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="23">
         <f>EDATE(A240,1)</f>
         <v>37104</v>
@@ -10094,7 +10095,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="23"/>
       <c r="B244" s="20" t="s">
         <v>140</v>
@@ -10117,7 +10118,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="23">
         <f>EDATE(A243,1)</f>
         <v>37135</v>
@@ -10147,7 +10148,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="23"/>
       <c r="B246" s="20" t="s">
         <v>115</v>
@@ -10172,7 +10173,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
         <v>141</v>
@@ -10195,7 +10196,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="23">
         <f>EDATE(A245,1)</f>
         <v>37165</v>
@@ -10225,7 +10226,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="23"/>
       <c r="B249" s="20" t="s">
         <v>53</v>
@@ -10250,7 +10251,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="23"/>
       <c r="B250" s="20" t="s">
         <v>142</v>
@@ -10273,7 +10274,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="23">
         <f>EDATE(A248,1)</f>
         <v>37196</v>
@@ -10303,7 +10304,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="23"/>
       <c r="B252" s="20" t="s">
         <v>53</v>
@@ -10328,7 +10329,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
         <v>143</v>
@@ -10351,7 +10352,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="23">
         <f>EDATE(A251,1)</f>
         <v>37226</v>
@@ -10379,7 +10380,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="45" t="s">
         <v>145</v>
       </c>
@@ -10400,7 +10401,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="23">
         <f>EDATE(A254,1)</f>
         <v>37257</v>
@@ -10428,7 +10429,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="23">
         <f>EDATE(A256,1)</f>
         <v>37288</v>
@@ -10458,7 +10459,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>92</v>
@@ -10483,7 +10484,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="23"/>
       <c r="B259" s="20" t="s">
         <v>54</v>
@@ -10508,7 +10509,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="23"/>
       <c r="B260" s="20" t="s">
         <v>50</v>
@@ -10531,7 +10532,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="23"/>
       <c r="B261" s="20" t="s">
         <v>50</v>
@@ -10554,7 +10555,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="23"/>
       <c r="B262" s="20" t="s">
         <v>53</v>
@@ -10579,7 +10580,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>56</v>
@@ -10604,7 +10605,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="23"/>
       <c r="B264" s="20" t="s">
         <v>148</v>
@@ -10627,7 +10628,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="53"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="23">
         <f>EDATE(A257,1)</f>
         <v>37316</v>
@@ -10655,7 +10656,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="23">
         <f t="shared" ref="A266:A291" si="17">EDATE(A265,1)</f>
         <v>37347</v>
@@ -10685,7 +10686,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="23"/>
       <c r="B267" s="20" t="s">
         <v>149</v>
@@ -10708,7 +10709,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="23">
         <f>EDATE(A266,1)</f>
         <v>37377</v>
@@ -10738,7 +10739,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="23"/>
       <c r="B269" s="20" t="s">
         <v>56</v>
@@ -10763,7 +10764,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>53</v>
@@ -10788,7 +10789,7 @@
         <v>45073</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="23"/>
       <c r="B271" s="20" t="s">
         <v>53</v>
@@ -10813,7 +10814,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>56</v>
@@ -10838,7 +10839,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="23"/>
       <c r="B273" s="20" t="s">
         <v>150</v>
@@ -10861,7 +10862,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="23">
         <f>EDATE(A268,1)</f>
         <v>37408</v>
@@ -10889,7 +10890,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="23"/>
       <c r="B275" s="20" t="s">
         <v>56</v>
@@ -10914,7 +10915,7 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="23"/>
       <c r="B276" s="20" t="s">
         <v>151</v>
@@ -10937,7 +10938,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="53"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>53</v>
@@ -10962,7 +10963,7 @@
         <v>45105</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="23">
         <f>EDATE(A274,1)</f>
         <v>37438</v>
@@ -10992,7 +10993,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>92</v>
@@ -11017,7 +11018,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="23"/>
       <c r="B280" s="20" t="s">
         <v>152</v>
@@ -11040,7 +11041,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="23">
         <f>EDATE(A278,1)</f>
         <v>37469</v>
@@ -11070,7 +11071,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="23"/>
       <c r="B282" s="20" t="s">
         <v>153</v>
@@ -11093,7 +11094,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="23"/>
       <c r="B283" s="20" t="s">
         <v>53</v>
@@ -11118,7 +11119,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="23">
         <f>EDATE(A281,1)</f>
         <v>37500</v>
@@ -11148,7 +11149,7 @@
         <v>45167</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
         <v>92</v>
@@ -11173,7 +11174,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
         <v>56</v>
@@ -11198,7 +11199,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="23"/>
       <c r="B287" s="20" t="s">
         <v>154</v>
@@ -11221,7 +11222,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="53"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="23">
         <f>EDATE(A284,1)</f>
         <v>37530</v>
@@ -11251,7 +11252,7 @@
         <v>45215</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>155</v>
@@ -11274,7 +11275,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="23">
         <f>EDATE(A288,1)</f>
         <v>37561</v>
@@ -11302,7 +11303,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="23">
         <f t="shared" si="17"/>
         <v>37591</v>
@@ -11332,7 +11333,7 @@
         <v>45276</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="23"/>
       <c r="B292" s="20" t="s">
         <v>157</v>
@@ -11355,7 +11356,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="45" t="s">
         <v>158</v>
       </c>
@@ -11376,7 +11377,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="23">
         <f>EDATE(A291,1)</f>
         <v>37622</v>
@@ -11406,7 +11407,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="23"/>
       <c r="B295" s="20" t="s">
         <v>53</v>
@@ -11431,7 +11432,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="23"/>
       <c r="B296" s="20" t="s">
         <v>159</v>
@@ -11454,7 +11455,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="23">
         <f>EDATE(A294,1)</f>
         <v>37653</v>
@@ -11484,7 +11485,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
         <v>161</v>
@@ -11507,7 +11508,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="23">
         <f>EDATE(A297,1)</f>
         <v>37681</v>
@@ -11535,7 +11536,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="23"/>
       <c r="B300" s="20" t="s">
         <v>163</v>
@@ -11558,7 +11559,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="23">
         <f>EDATE(A299,1)</f>
         <v>37712</v>
@@ -11588,7 +11589,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="23"/>
       <c r="B302" s="20" t="s">
         <v>53</v>
@@ -11613,7 +11614,7 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
         <v>164</v>
@@ -11636,7 +11637,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="23">
         <f>EDATE(A301,1)</f>
         <v>37742</v>
@@ -11666,7 +11667,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="23"/>
       <c r="B305" s="20" t="s">
         <v>50</v>
@@ -11689,7 +11690,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="23"/>
       <c r="B306" s="20" t="s">
         <v>165</v>
@@ -11712,7 +11713,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="53"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="23">
         <f>EDATE(A304,1)</f>
         <v>37773</v>
@@ -11742,7 +11743,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="23"/>
       <c r="B308" s="20" t="s">
         <v>166</v>
@@ -11765,7 +11766,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="23">
         <f>EDATE(A307,1)</f>
         <v>37803</v>
@@ -11795,7 +11796,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
         <v>50</v>
@@ -11818,7 +11819,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="23"/>
       <c r="B311" s="20" t="s">
         <v>167</v>
@@ -11841,7 +11842,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="23"/>
       <c r="B312" s="20" t="s">
         <v>92</v>
@@ -11866,7 +11867,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="23">
         <f>EDATE(A309,1)</f>
         <v>37834</v>
@@ -11890,7 +11891,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="23">
         <f t="shared" ref="A314:A318" si="19">EDATE(A313,1)</f>
         <v>37865</v>
@@ -11916,7 +11917,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="23"/>
       <c r="B315" s="20" t="s">
         <v>56</v>
@@ -11939,7 +11940,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="23"/>
       <c r="B316" s="20" t="s">
         <v>168</v>
@@ -11962,7 +11963,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="23">
         <f>EDATE(A314,1)</f>
         <v>37895</v>
@@ -11990,7 +11991,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="23">
         <f t="shared" si="19"/>
         <v>37926</v>
@@ -12020,7 +12021,7 @@
         <v>45254</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="23"/>
       <c r="B319" s="20" t="s">
         <v>170</v>
@@ -12043,7 +12044,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="53"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="23">
         <f>EDATE(A318,1)</f>
         <v>37956</v>
@@ -12073,7 +12074,7 @@
         <v>45277</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
         <v>53</v>
@@ -12098,7 +12099,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="23"/>
       <c r="B322" s="20" t="s">
         <v>171</v>
@@ -12121,7 +12122,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="45" t="s">
         <v>172</v>
       </c>
@@ -12142,7 +12143,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="23">
         <f>EDATE(A320,1)</f>
         <v>37987</v>
@@ -12170,7 +12171,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="23">
         <f>EDATE(A324,1)</f>
         <v>38018</v>
@@ -12198,7 +12199,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="23"/>
       <c r="B326" s="20" t="s">
         <v>54</v>
@@ -12223,7 +12224,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="23">
         <f>EDATE(A325,1)</f>
         <v>38047</v>
@@ -12253,7 +12254,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="23"/>
       <c r="B328" s="20" t="s">
         <v>50</v>
@@ -12276,7 +12277,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="23"/>
       <c r="B329" s="20" t="s">
         <v>175</v>
@@ -12299,7 +12300,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="23">
         <f>EDATE(A327,1)</f>
         <v>38078</v>
@@ -12327,7 +12328,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="23"/>
       <c r="B331" s="20" t="s">
         <v>54</v>
@@ -12352,7 +12353,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="23"/>
       <c r="B332" s="20" t="s">
         <v>176</v>
@@ -12375,7 +12376,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="23">
         <f>EDATE(A330,1)</f>
         <v>38108</v>
@@ -12405,7 +12406,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="23"/>
       <c r="B334" s="20" t="s">
         <v>50</v>
@@ -12428,7 +12429,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="23"/>
       <c r="B335" s="20" t="s">
         <v>177</v>
@@ -12451,7 +12452,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="23">
         <f>EDATE(A333,1)</f>
         <v>38139</v>
@@ -12481,7 +12482,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="23"/>
       <c r="B337" s="20" t="s">
         <v>51</v>
@@ -12506,7 +12507,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="23"/>
       <c r="B338" s="20" t="s">
         <v>53</v>
@@ -12531,7 +12532,7 @@
         <v>45101</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="23"/>
       <c r="B339" s="20" t="s">
         <v>56</v>
@@ -12556,7 +12557,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
         <v>127</v>
@@ -12579,7 +12580,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="23">
         <f>EDATE(A336,1)</f>
         <v>38169</v>
@@ -12605,7 +12606,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="23"/>
       <c r="B342" s="20" t="s">
         <v>178</v>
@@ -12628,7 +12629,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="23">
         <f>EDATE(A341,1)</f>
         <v>38200</v>
@@ -12658,7 +12659,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="23"/>
       <c r="B344" s="20" t="s">
         <v>92</v>
@@ -12683,7 +12684,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="23"/>
       <c r="B345" s="20" t="s">
         <v>119</v>
@@ -12706,7 +12707,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="23">
         <f>EDATE(A343,1)</f>
         <v>38231</v>
@@ -12736,7 +12737,7 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="23"/>
       <c r="B347" s="20" t="s">
         <v>53</v>
@@ -12761,7 +12762,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="23"/>
       <c r="B348" s="20" t="s">
         <v>179</v>
@@ -12784,7 +12785,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="53"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="23">
         <f>EDATE(A346,1)</f>
         <v>38261</v>
@@ -12814,7 +12815,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="23"/>
       <c r="B350" s="20" t="s">
         <v>180</v>
@@ -12837,7 +12838,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="53"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="23">
         <f t="shared" ref="A351" si="21">EDATE(A349,1)</f>
         <v>38292</v>
@@ -12867,7 +12868,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="23"/>
       <c r="B352" s="20" t="s">
         <v>181</v>
@@ -12890,7 +12891,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="23">
         <f>EDATE(A351,1)</f>
         <v>38322</v>
@@ -12920,7 +12921,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="23"/>
       <c r="B354" s="20" t="s">
         <v>53</v>
@@ -12945,7 +12946,7 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="23"/>
       <c r="B355" s="20" t="s">
         <v>182</v>
@@ -12968,7 +12969,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="45" t="s">
         <v>183</v>
       </c>
@@ -12989,7 +12990,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="23">
         <f>EDATE(A353,1)</f>
         <v>38353</v>
@@ -13017,7 +13018,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="23"/>
       <c r="B358" s="20" t="s">
         <v>53</v>
@@ -13042,7 +13043,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="23"/>
       <c r="B359" s="20" t="s">
         <v>53</v>
@@ -13067,7 +13068,7 @@
         <v>44957</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="23"/>
       <c r="B360" s="20" t="s">
         <v>184</v>
@@ -13090,7 +13091,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="23">
         <f>EDATE(A357,1)</f>
         <v>38384</v>
@@ -13120,7 +13121,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="23"/>
       <c r="B362" s="20" t="s">
         <v>185</v>
@@ -13143,7 +13144,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="23">
         <f>EDATE(A361,1)</f>
         <v>38412</v>
@@ -13173,7 +13174,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="23"/>
       <c r="B364" s="20" t="s">
         <v>186</v>
@@ -13196,7 +13197,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="23">
         <f>EDATE(A363,1)</f>
         <v>38443</v>
@@ -13224,7 +13225,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="23">
         <f t="shared" ref="A366:A388" si="22">EDATE(A365,1)</f>
         <v>38473</v>
@@ -13254,7 +13255,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="23"/>
       <c r="B367" s="20" t="s">
         <v>68</v>
@@ -13279,7 +13280,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="23"/>
       <c r="B368" s="20" t="s">
         <v>56</v>
@@ -13304,7 +13305,7 @@
         <v>45073</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="23"/>
       <c r="B369" s="20" t="s">
         <v>188</v>
@@ -13327,7 +13328,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="53"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="23">
         <f>EDATE(A366,1)</f>
         <v>38504</v>
@@ -13357,7 +13358,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="23"/>
       <c r="B371" s="20" t="s">
         <v>50</v>
@@ -13380,7 +13381,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="23"/>
       <c r="B372" s="20" t="s">
         <v>56</v>
@@ -13405,7 +13406,7 @@
         <v>45105</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="23"/>
       <c r="B373" s="20" t="s">
         <v>53</v>
@@ -13430,7 +13431,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="23"/>
       <c r="B374" s="20" t="s">
         <v>189</v>
@@ -13453,7 +13454,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="23">
         <f>EDATE(A370,1)</f>
         <v>38534</v>
@@ -13483,7 +13484,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="23"/>
       <c r="B376" s="20" t="s">
         <v>53</v>
@@ -13508,7 +13509,7 @@
         <v>45129</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="23"/>
       <c r="B377" s="20" t="s">
         <v>53</v>
@@ -13533,7 +13534,7 @@
         <v>45137</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
         <v>190</v>
@@ -13556,7 +13557,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="23">
         <f>EDATE(A375,1)</f>
         <v>38565</v>
@@ -13584,7 +13585,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="23"/>
       <c r="B380" s="20" t="s">
         <v>53</v>
@@ -13605,7 +13606,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="23"/>
       <c r="B381" s="20" t="s">
         <v>191</v>
@@ -13628,7 +13629,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="23">
         <f>EDATE(A379,1)</f>
         <v>38596</v>
@@ -13658,7 +13659,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="23"/>
       <c r="B383" s="20" t="s">
         <v>68</v>
@@ -13683,7 +13684,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="23"/>
       <c r="B384" s="20" t="s">
         <v>192</v>
@@ -13706,7 +13707,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="23">
         <f>EDATE(A382,1)</f>
         <v>38626</v>
@@ -13734,7 +13735,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="23"/>
       <c r="B386" s="20" t="s">
         <v>194</v>
@@ -13757,7 +13758,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="23">
         <f>EDATE(A385,1)</f>
         <v>38657</v>
@@ -13785,7 +13786,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="23">
         <f t="shared" si="22"/>
         <v>38687</v>
@@ -13815,7 +13816,7 @@
         <v>45283</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="23"/>
       <c r="B389" s="20" t="s">
         <v>196</v>
@@ -13840,7 +13841,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="45" t="s">
         <v>197</v>
       </c>
@@ -13861,7 +13862,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="23">
         <f>EDATE(A388,1)</f>
         <v>38718</v>
@@ -13891,7 +13892,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="23"/>
       <c r="B392" s="20" t="s">
         <v>50</v>
@@ -13914,7 +13915,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="23"/>
       <c r="B393" s="20" t="s">
         <v>198</v>
@@ -13937,7 +13938,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="23">
         <f>EDATE(A391,1)</f>
         <v>38749</v>
@@ -13965,7 +13966,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="23">
         <f t="shared" ref="A395:A411" si="23">EDATE(A394,1)</f>
         <v>38777</v>
@@ -13993,7 +13994,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="23"/>
       <c r="B396" s="20" t="s">
         <v>50</v>
@@ -14016,7 +14017,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="23"/>
       <c r="B397" s="20" t="s">
         <v>200</v>
@@ -14039,7 +14040,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="23">
         <f>EDATE(A395,1)</f>
         <v>38808</v>
@@ -14067,7 +14068,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="23"/>
       <c r="B399" s="20" t="s">
         <v>68</v>
@@ -14092,7 +14093,7 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="23"/>
       <c r="B400" s="20" t="s">
         <v>202</v>
@@ -14117,7 +14118,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="23"/>
       <c r="B401" s="20" t="s">
         <v>54</v>
@@ -14142,7 +14143,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="23"/>
       <c r="B402" s="20" t="s">
         <v>68</v>
@@ -14167,7 +14168,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="23">
         <f>EDATE(A398,1)</f>
         <v>38838</v>
@@ -14195,7 +14196,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="23">
         <f t="shared" si="23"/>
         <v>38869</v>
@@ -14223,7 +14224,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="23">
         <f t="shared" si="23"/>
         <v>38899</v>
@@ -14253,7 +14254,7 @@
         <v>45125</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="23"/>
       <c r="B406" s="20" t="s">
         <v>53</v>
@@ -14278,7 +14279,7 @@
         <v>45127</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="23"/>
       <c r="B407" s="20" t="s">
         <v>68</v>
@@ -14303,7 +14304,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="23"/>
       <c r="B408" s="20" t="s">
         <v>92</v>
@@ -14328,7 +14329,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="23"/>
       <c r="B409" s="20" t="s">
         <v>205</v>
@@ -14351,7 +14352,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="23">
         <f>EDATE(A405,1)</f>
         <v>38930</v>
@@ -14379,7 +14380,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="23">
         <f t="shared" si="23"/>
         <v>38961</v>
@@ -14409,7 +14410,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="23"/>
       <c r="B412" s="20" t="s">
         <v>207</v>
@@ -14432,7 +14433,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="23">
         <f>EDATE(A411,1)</f>
         <v>38991</v>
@@ -14460,7 +14461,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="23">
         <f>EDATE(A413,1)</f>
         <v>39022</v>
@@ -14490,7 +14491,7 @@
         <v>45260</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="23"/>
       <c r="B415" s="20" t="s">
         <v>209</v>
@@ -14513,7 +14514,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="23">
         <f>EDATE(A414,1)</f>
         <v>39052</v>
@@ -14543,7 +14544,7 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="23"/>
       <c r="B417" s="20" t="s">
         <v>210</v>
@@ -14566,7 +14567,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="45" t="s">
         <v>211</v>
       </c>
@@ -14587,7 +14588,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="23">
         <f>EDATE(A416,1)</f>
         <v>39083</v>
@@ -14617,7 +14618,7 @@
         <v>44930</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="23"/>
       <c r="B420" s="20" t="s">
         <v>68</v>
@@ -14642,7 +14643,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="23"/>
       <c r="B421" s="20" t="s">
         <v>50</v>
@@ -14665,7 +14666,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="23"/>
       <c r="B422" s="20" t="s">
         <v>212</v>
@@ -14688,7 +14689,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="23">
         <f>EDATE(A419,1)</f>
         <v>39114</v>
@@ -14718,7 +14719,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="23"/>
       <c r="B424" s="20" t="s">
         <v>213</v>
@@ -14743,7 +14744,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="23"/>
       <c r="B425" s="20" t="s">
         <v>214</v>
@@ -14766,7 +14767,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="23">
         <f>EDATE(A423,1)</f>
         <v>39142</v>
@@ -14794,7 +14795,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="23"/>
       <c r="B427" s="20" t="s">
         <v>68</v>
@@ -14819,7 +14820,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="23"/>
       <c r="B428" s="20" t="s">
         <v>53</v>
@@ -14844,7 +14845,7 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="23"/>
       <c r="B429" s="20" t="s">
         <v>215</v>
@@ -14867,7 +14868,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="23">
         <f>EDATE(A426,1)</f>
         <v>39173</v>
@@ -14897,7 +14898,7 @@
         <v>45032</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="23"/>
       <c r="B431" s="20" t="s">
         <v>216</v>
@@ -14920,7 +14921,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="53"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="23">
         <f>EDATE(A430,1)</f>
         <v>39203</v>
@@ -14950,7 +14951,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="23"/>
       <c r="B433" s="20" t="s">
         <v>53</v>
@@ -14975,7 +14976,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="23"/>
       <c r="B434" s="20" t="s">
         <v>50</v>
@@ -14998,7 +14999,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="23"/>
       <c r="B435" s="20" t="s">
         <v>217</v>
@@ -15021,7 +15022,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="23">
         <f>EDATE(A432,1)</f>
         <v>39234</v>
@@ -15051,7 +15052,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="23"/>
       <c r="B437" s="20" t="s">
         <v>218</v>
@@ -15074,7 +15075,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="23">
         <f>EDATE(A436,1)</f>
         <v>39264</v>
@@ -15104,7 +15105,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="23"/>
       <c r="B439" s="20" t="s">
         <v>219</v>
@@ -15127,7 +15128,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="23">
         <f>EDATE(A438,1)</f>
         <v>39295</v>
@@ -15157,7 +15158,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="23"/>
       <c r="B441" s="20" t="s">
         <v>220</v>
@@ -15180,7 +15181,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="23">
         <f>EDATE(A440,1)</f>
         <v>39326</v>
@@ -15210,7 +15211,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="23"/>
       <c r="B443" s="20" t="s">
         <v>221</v>
@@ -15233,7 +15234,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="23">
         <f>EDATE(A442,1)</f>
         <v>39356</v>
@@ -15261,7 +15262,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="23">
         <f t="shared" ref="A445" si="25">EDATE(A444,1)</f>
         <v>39387</v>
@@ -15291,7 +15292,7 @@
         <v>45238</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="23"/>
       <c r="B446" s="20" t="s">
         <v>54</v>
@@ -15316,7 +15317,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="23"/>
       <c r="B447" s="20" t="s">
         <v>68</v>
@@ -15341,7 +15342,7 @@
         <v>45279</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="23"/>
       <c r="B448" s="20" t="s">
         <v>223</v>
@@ -15364,7 +15365,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="23">
         <f>EDATE(A445,1)</f>
         <v>39417</v>
@@ -15392,7 +15393,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="45" t="s">
         <v>225</v>
       </c>
@@ -15413,7 +15414,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="23">
         <f>EDATE(A449,1)</f>
         <v>39448</v>
@@ -15441,7 +15442,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="23"/>
       <c r="B452" s="20" t="s">
         <v>68</v>
@@ -15466,7 +15467,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="23"/>
       <c r="B453" s="20" t="s">
         <v>226</v>
@@ -15489,7 +15490,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="23">
         <f>EDATE(A451,1)</f>
         <v>39479</v>
@@ -15519,7 +15520,7 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="23"/>
       <c r="B455" s="20" t="s">
         <v>53</v>
@@ -15544,7 +15545,7 @@
         <v>47150</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="23"/>
       <c r="B456" s="20" t="s">
         <v>227</v>
@@ -15567,7 +15568,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="23">
         <f>EDATE(A454,1)</f>
         <v>39508</v>
@@ -15597,7 +15598,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="23"/>
       <c r="B458" s="20" t="s">
         <v>50</v>
@@ -15620,7 +15621,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="23"/>
       <c r="B459" s="20" t="s">
         <v>228</v>
@@ -15643,7 +15644,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="23">
         <f>EDATE(A457,1)</f>
         <v>39539</v>
@@ -15673,7 +15674,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="23"/>
       <c r="B461" s="20" t="s">
         <v>53</v>
@@ -15698,7 +15699,7 @@
         <v>45038</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="23"/>
       <c r="B462" s="20" t="s">
         <v>229</v>
@@ -15721,7 +15722,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="23">
         <f>EDATE(A460,1)</f>
         <v>39569</v>
@@ -15751,7 +15752,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="23"/>
       <c r="B464" s="20" t="s">
         <v>85</v>
@@ -15776,7 +15777,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="23"/>
       <c r="B465" s="20" t="s">
         <v>230</v>
@@ -15799,7 +15800,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="23">
         <f>EDATE(A463,1)</f>
         <v>39600</v>
@@ -15829,7 +15830,7 @@
         <v>45094</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="23"/>
       <c r="B467" s="20" t="s">
         <v>53</v>
@@ -15854,7 +15855,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="23"/>
       <c r="B468" s="20" t="s">
         <v>50</v>
@@ -15877,7 +15878,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="23">
         <f>EDATE(A466,1)</f>
         <v>39630</v>
@@ -15907,7 +15908,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="23"/>
       <c r="B470" s="20" t="s">
         <v>231</v>
@@ -15930,7 +15931,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="53"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="23">
         <f>EDATE(A469,1)</f>
         <v>39661</v>
@@ -15958,7 +15959,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="23"/>
       <c r="B472" s="20" t="s">
         <v>232</v>
@@ -15981,7 +15982,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="23">
         <f>EDATE(A471,1)</f>
         <v>39692</v>
@@ -16011,7 +16012,7 @@
         <v>45178</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="23"/>
       <c r="B474" s="20" t="s">
         <v>233</v>
@@ -16034,7 +16035,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="23">
         <f>EDATE(A473,1)</f>
         <v>39722</v>
@@ -16064,7 +16065,7 @@
         <v>45228</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="23"/>
       <c r="B476" s="20" t="s">
         <v>68</v>
@@ -16089,7 +16090,7 @@
         <v>45269</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="23"/>
       <c r="B477" s="20" t="s">
         <v>234</v>
@@ -16112,7 +16113,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="23">
         <f t="shared" ref="A478" si="27">EDATE(A475,1)</f>
         <v>39753</v>
@@ -16140,7 +16141,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="23">
         <f>EDATE(A478,1)</f>
         <v>39783</v>
@@ -16170,7 +16171,7 @@
         <v>45282</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="23"/>
       <c r="B480" s="20" t="s">
         <v>236</v>
@@ -16193,7 +16194,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="45" t="s">
         <v>237</v>
       </c>
@@ -16214,7 +16215,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="23">
         <f>EDATE(A479,1)</f>
         <v>39814</v>
@@ -16244,7 +16245,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="23"/>
       <c r="B483" s="20" t="s">
         <v>238</v>
@@ -16267,7 +16268,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="23">
         <f>EDATE(A482,1)</f>
         <v>39845</v>
@@ -16297,7 +16298,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="23"/>
       <c r="B485" s="20" t="s">
         <v>53</v>
@@ -16322,7 +16323,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="23"/>
       <c r="B486" s="20" t="s">
         <v>213</v>
@@ -16347,7 +16348,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="23"/>
       <c r="B487" s="20" t="s">
         <v>50</v>
@@ -16370,7 +16371,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="23"/>
       <c r="B488" s="20" t="s">
         <v>239</v>
@@ -16393,7 +16394,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="23">
         <f>EDATE(A484,1)</f>
         <v>39873</v>
@@ -16421,7 +16422,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="23">
         <f t="shared" ref="A490:A501" si="28">EDATE(A489,1)</f>
         <v>39904</v>
@@ -16449,7 +16450,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="23">
         <f t="shared" si="28"/>
         <v>39934</v>
@@ -16479,7 +16480,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="23"/>
       <c r="B492" s="20" t="s">
         <v>53</v>
@@ -16504,7 +16505,7 @@
         <v>45073</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="23"/>
       <c r="B493" s="20" t="s">
         <v>242</v>
@@ -16527,7 +16528,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="23">
         <f>EDATE(A491,1)</f>
         <v>39965</v>
@@ -16557,7 +16558,7 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="23"/>
       <c r="B495" s="20" t="s">
         <v>243</v>
@@ -16580,7 +16581,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="23">
         <f>EDATE(A494,1)</f>
         <v>39995</v>
@@ -16608,7 +16609,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="23"/>
       <c r="B497" s="20" t="s">
         <v>53</v>
@@ -16633,7 +16634,7 @@
         <v>45109</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="23">
         <f>EDATE(A496,1)</f>
         <v>40026</v>
@@ -16663,7 +16664,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="23"/>
       <c r="B499" s="20" t="s">
         <v>245</v>
@@ -16686,7 +16687,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="23">
         <f>EDATE(A498,1)</f>
         <v>40057</v>
@@ -16714,7 +16715,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="23">
         <f t="shared" si="28"/>
         <v>40087</v>
@@ -16744,7 +16745,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="23"/>
       <c r="B502" s="20" t="s">
         <v>50</v>
@@ -16767,7 +16768,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="23"/>
       <c r="B503" s="20" t="s">
         <v>247</v>
@@ -16790,7 +16791,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="23">
         <f>EDATE(A501,1)</f>
         <v>40118</v>
@@ -16820,7 +16821,7 @@
         <v>45257</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="23"/>
       <c r="B505" s="20" t="s">
         <v>248</v>
@@ -16843,7 +16844,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="23">
         <f>EDATE(A504,1)</f>
         <v>40148</v>
@@ -16871,7 +16872,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="23"/>
       <c r="B507" s="20" t="s">
         <v>249</v>
@@ -16894,7 +16895,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="23"/>
       <c r="B508" s="20" t="s">
         <v>53</v>
@@ -16919,7 +16920,7 @@
         <v>45277</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="45" t="s">
         <v>250</v>
       </c>
@@ -16940,7 +16941,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="23">
         <f>EDATE(A506,1)</f>
         <v>40179</v>
@@ -16970,7 +16971,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="23"/>
       <c r="B511" s="20" t="s">
         <v>50</v>
@@ -16993,7 +16994,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="23"/>
       <c r="B512" s="20" t="s">
         <v>53</v>
@@ -17018,7 +17019,7 @@
         <v>44954</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="23"/>
       <c r="B513" s="20" t="s">
         <v>251</v>
@@ -17041,7 +17042,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="23">
         <f>EDATE(A510,1)</f>
         <v>40210</v>
@@ -17069,7 +17070,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="23"/>
       <c r="B515" s="20" t="s">
         <v>53</v>
@@ -17094,7 +17095,7 @@
         <v>44975</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="23"/>
       <c r="B516" s="20" t="s">
         <v>53</v>
@@ -17119,7 +17120,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="23"/>
       <c r="B517" s="20" t="s">
         <v>54</v>
@@ -17144,7 +17145,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="23"/>
       <c r="B518" s="20" t="s">
         <v>252</v>
@@ -17167,7 +17168,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="23">
         <f>EDATE(A514,1)</f>
         <v>40238</v>
@@ -17197,7 +17198,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="23"/>
       <c r="B520" s="20" t="s">
         <v>53</v>
@@ -17222,7 +17223,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="23"/>
       <c r="B521" s="20" t="s">
         <v>127</v>
@@ -17245,7 +17246,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="23">
         <f>EDATE(A519,1)</f>
         <v>40269</v>
@@ -17275,7 +17276,7 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="23"/>
       <c r="B523" s="20" t="s">
         <v>53</v>
@@ -17300,7 +17301,7 @@
         <v>45037</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="23"/>
       <c r="B524" s="20" t="s">
         <v>253</v>
@@ -17323,7 +17324,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="23">
         <f>EDATE(A522,1)</f>
         <v>40299</v>
@@ -17353,7 +17354,7 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="23"/>
       <c r="B526" s="20" t="s">
         <v>53</v>
@@ -17378,7 +17379,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="23"/>
       <c r="B527" s="20" t="s">
         <v>53</v>
@@ -17403,7 +17404,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="23"/>
       <c r="B528" s="20" t="s">
         <v>53</v>
@@ -17428,7 +17429,7 @@
         <v>45067</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="23"/>
       <c r="B529" s="20" t="s">
         <v>254</v>
@@ -17451,7 +17452,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="23">
         <f>EDATE(A525,1)</f>
         <v>40330</v>
@@ -17481,7 +17482,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="23"/>
       <c r="B531" s="20" t="s">
         <v>256</v>
@@ -17504,7 +17505,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="23">
         <f>EDATE(A530,1)</f>
         <v>40360</v>
@@ -17534,7 +17535,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="23"/>
       <c r="B533" s="20" t="s">
         <v>53</v>
@@ -17559,7 +17560,7 @@
         <v>45134</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="23"/>
       <c r="B534" s="20" t="s">
         <v>50</v>
@@ -17582,7 +17583,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="23"/>
       <c r="B535" s="20" t="s">
         <v>257</v>
@@ -17605,7 +17606,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="23">
         <f>EDATE(A532,1)</f>
         <v>40391</v>
@@ -17635,7 +17636,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="23"/>
       <c r="B537" s="20" t="s">
         <v>54</v>
@@ -17660,7 +17661,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="23"/>
       <c r="B538" s="20" t="s">
         <v>258</v>
@@ -17683,7 +17684,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="23"/>
       <c r="B539" s="20" t="s">
         <v>92</v>
@@ -17706,7 +17707,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="23">
         <f>EDATE(A536,1)</f>
         <v>40422</v>
@@ -17736,7 +17737,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="23"/>
       <c r="B541" s="20" t="s">
         <v>56</v>
@@ -17761,7 +17762,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="23"/>
       <c r="B542" s="20" t="s">
         <v>259</v>
@@ -17784,7 +17785,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="23">
         <f>EDATE(A540,1)</f>
         <v>40452</v>
@@ -17814,7 +17815,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="23"/>
       <c r="B544" s="20" t="s">
         <v>260</v>
@@ -17837,7 +17838,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="23">
         <f>EDATE(A543,1)</f>
         <v>40483</v>
@@ -17867,7 +17868,7 @@
         <v>45256</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="23"/>
       <c r="B546" s="20" t="s">
         <v>261</v>
@@ -17890,7 +17891,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="23"/>
       <c r="B547" s="20" t="s">
         <v>53</v>
@@ -17915,7 +17916,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="23">
         <f t="shared" ref="A548" si="30">EDATE(A545,1)</f>
         <v>40513</v>
@@ -17943,7 +17944,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="45" t="s">
         <v>262</v>
       </c>
@@ -17964,7 +17965,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="23">
         <f>EDATE(A548,1)</f>
         <v>40544</v>
@@ -17992,7 +17993,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="23"/>
       <c r="B551" s="20" t="s">
         <v>54</v>
@@ -18017,7 +18018,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="23"/>
       <c r="B552" s="20" t="s">
         <v>263</v>
@@ -18040,7 +18041,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="23">
         <f>EDATE(A550,1)</f>
         <v>40575</v>
@@ -18070,7 +18071,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="23"/>
       <c r="B554" s="20" t="s">
         <v>92</v>
@@ -18095,7 +18096,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="23"/>
       <c r="B555" s="20" t="s">
         <v>264</v>
@@ -18118,7 +18119,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="23">
         <f>EDATE(A553,1)</f>
         <v>40603</v>
@@ -18148,7 +18149,7 @@
         <v>44987</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="23"/>
       <c r="B557" s="20" t="s">
         <v>50</v>
@@ -18171,7 +18172,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="23"/>
       <c r="B558" s="20" t="s">
         <v>53</v>
@@ -18196,7 +18197,7 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="23"/>
       <c r="B559" s="20" t="s">
         <v>265</v>
@@ -18219,7 +18220,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="23">
         <f>EDATE(A556,1)</f>
         <v>40634</v>
@@ -18247,7 +18248,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="23">
         <f t="shared" ref="A561:A566" si="31">EDATE(A560,1)</f>
         <v>40664</v>
@@ -18275,7 +18276,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="23">
         <f t="shared" si="31"/>
         <v>40695</v>
@@ -18305,7 +18306,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="23"/>
       <c r="B563" s="20" t="s">
         <v>50</v>
@@ -18328,7 +18329,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="23"/>
       <c r="B564" s="20" t="s">
         <v>268</v>
@@ -18351,7 +18352,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="23">
         <f>EDATE(A562,1)</f>
         <v>40725</v>
@@ -18379,7 +18380,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="23">
         <f t="shared" si="31"/>
         <v>40756</v>
@@ -18409,7 +18410,7 @@
         <v>45142</v>
       </c>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="23"/>
       <c r="B567" s="20" t="s">
         <v>53</v>
@@ -18434,7 +18435,7 @@
         <v>45161</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="23"/>
       <c r="B568" s="20" t="s">
         <v>270</v>
@@ -18457,7 +18458,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="23">
         <f>EDATE(A566,1)</f>
         <v>40787</v>
@@ -18487,7 +18488,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="23"/>
       <c r="B570" s="20" t="s">
         <v>53</v>
@@ -18512,7 +18513,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="23"/>
       <c r="B571" s="20" t="s">
         <v>271</v>
@@ -18535,7 +18536,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="23">
         <f>EDATE(A569,1)</f>
         <v>40817</v>
@@ -18565,7 +18566,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="23"/>
       <c r="B573" s="20" t="s">
         <v>54</v>
@@ -18590,7 +18591,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="23"/>
       <c r="B574" s="20" t="s">
         <v>53</v>
@@ -18615,7 +18616,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="23"/>
       <c r="B575" s="20" t="s">
         <v>272</v>
@@ -18638,7 +18639,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="23">
         <f>EDATE(A572,1)</f>
         <v>40848</v>
@@ -18668,7 +18669,7 @@
         <v>45253</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="23"/>
       <c r="B577" s="20" t="s">
         <v>273</v>
@@ -18691,7 +18692,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="23">
         <f>EDATE(A576,1)</f>
         <v>40878</v>
@@ -18721,7 +18722,7 @@
         <v>45289</v>
       </c>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="23"/>
       <c r="B579" s="20" t="s">
         <v>274</v>
@@ -18744,7 +18745,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="45" t="s">
         <v>275</v>
       </c>
@@ -18765,7 +18766,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="23">
         <f>EDATE(A578,1)</f>
         <v>40909</v>
@@ -18793,7 +18794,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="23"/>
       <c r="B582" s="20" t="s">
         <v>53</v>
@@ -18818,7 +18819,7 @@
         <v>44952</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="23"/>
       <c r="B583" s="20" t="s">
         <v>276</v>
@@ -18841,7 +18842,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="23">
         <f>EDATE(A581,1)</f>
         <v>40940</v>
@@ -18871,7 +18872,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="23"/>
       <c r="B585" s="20" t="s">
         <v>54</v>
@@ -18896,7 +18897,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="23"/>
       <c r="B586" s="20" t="s">
         <v>56</v>
@@ -18921,7 +18922,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="23"/>
       <c r="B587" s="20" t="s">
         <v>277</v>
@@ -18944,7 +18945,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="23">
         <f>EDATE(A584,1)</f>
         <v>40969</v>
@@ -18974,7 +18975,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="23"/>
       <c r="B589" s="20" t="s">
         <v>278</v>
@@ -18997,7 +18998,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="23">
         <f>EDATE(A588,1)</f>
         <v>41000</v>
@@ -19027,7 +19028,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="23"/>
       <c r="B591" s="20" t="s">
         <v>50</v>
@@ -19050,7 +19051,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="23"/>
       <c r="B592" s="20" t="s">
         <v>53</v>
@@ -19075,7 +19076,7 @@
         <v>45042</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="23"/>
       <c r="B593" s="20" t="s">
         <v>279</v>
@@ -19098,7 +19099,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="53"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="23">
         <f>EDATE(A590,1)</f>
         <v>41030</v>
@@ -19128,7 +19129,7 @@
         <v>45053</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="23"/>
       <c r="B595" s="20" t="s">
         <v>54</v>
@@ -19153,7 +19154,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="23"/>
       <c r="B596" s="20" t="s">
         <v>53</v>
@@ -19178,7 +19179,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="23"/>
       <c r="B597" s="20" t="s">
         <v>280</v>
@@ -19201,7 +19202,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="23">
         <f>EDATE(A594,1)</f>
         <v>41061</v>
@@ -19229,7 +19230,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="23">
         <f t="shared" ref="A599:A601" si="33">EDATE(A598,1)</f>
         <v>41091</v>
@@ -19257,7 +19258,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="23">
         <f t="shared" si="33"/>
         <v>41122</v>
@@ -19285,7 +19286,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="23">
         <f t="shared" si="33"/>
         <v>41153</v>
@@ -19315,7 +19316,7 @@
         <v>45189</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="23"/>
       <c r="B602" s="20" t="s">
         <v>92</v>
@@ -19340,7 +19341,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="23"/>
       <c r="B603" s="20" t="s">
         <v>283</v>
@@ -19363,7 +19364,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="23">
         <f>EDATE(A601,1)</f>
         <v>41183</v>
@@ -19393,7 +19394,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="23"/>
       <c r="B605" s="20" t="s">
         <v>284</v>
@@ -19416,7 +19417,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="23">
         <f>EDATE(A604,1)</f>
         <v>41214</v>
@@ -19446,7 +19447,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="23"/>
       <c r="B607" s="20" t="s">
         <v>285</v>
@@ -19469,7 +19470,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="23">
         <f>EDATE(A606,1)</f>
         <v>41244</v>
@@ -19497,7 +19498,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="23"/>
       <c r="B609" s="20" t="s">
         <v>286</v>
@@ -19520,7 +19521,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="45" t="s">
         <v>287</v>
       </c>
@@ -19541,7 +19542,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="23">
         <f>EDATE(A608,1)</f>
         <v>41275</v>
@@ -19571,7 +19572,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="23"/>
       <c r="B612" s="20" t="s">
         <v>288</v>
@@ -19594,7 +19595,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="53"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="23">
         <f>EDATE(A611,1)</f>
         <v>41306</v>
@@ -19622,7 +19623,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="23"/>
       <c r="B614" s="20" t="s">
         <v>53</v>
@@ -19647,7 +19648,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="23"/>
       <c r="B615" s="20" t="s">
         <v>289</v>
@@ -19670,7 +19671,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="53"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="23">
         <f>EDATE(A613,1)</f>
         <v>41334</v>
@@ -19698,7 +19699,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="23">
         <f t="shared" ref="A617:A631" si="34">EDATE(A616,1)</f>
         <v>41365</v>
@@ -19726,7 +19727,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="23"/>
       <c r="B618" s="20" t="s">
         <v>54</v>
@@ -19751,7 +19752,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="23"/>
       <c r="B619" s="20" t="s">
         <v>53</v>
@@ -19776,7 +19777,7 @@
         <v>45031</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="23"/>
       <c r="B620" s="20" t="s">
         <v>291</v>
@@ -19799,7 +19800,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="23">
         <f>EDATE(A617,1)</f>
         <v>41395</v>
@@ -19829,7 +19830,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="23"/>
       <c r="B622" s="20" t="s">
         <v>292</v>
@@ -19852,7 +19853,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="23">
         <f>EDATE(A621,1)</f>
         <v>41426</v>
@@ -19882,7 +19883,7 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="23"/>
       <c r="B624" s="20" t="s">
         <v>293</v>
@@ -19905,7 +19906,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="23">
         <f>EDATE(A623,1)</f>
         <v>41456</v>
@@ -19935,7 +19936,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="23"/>
       <c r="B626" s="20" t="s">
         <v>87</v>
@@ -19960,7 +19961,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="23"/>
       <c r="B627" s="20" t="s">
         <v>294</v>
@@ -19983,7 +19984,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="23">
         <f>EDATE(A625,1)</f>
         <v>41487</v>
@@ -20013,7 +20014,7 @@
         <v>45153</v>
       </c>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="23"/>
       <c r="B629" s="20" t="s">
         <v>295</v>
@@ -20036,7 +20037,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="23">
         <f>EDATE(A628,1)</f>
         <v>41518</v>
@@ -20064,7 +20065,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="23">
         <f t="shared" si="34"/>
         <v>41548</v>
@@ -20094,7 +20095,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="23"/>
       <c r="B632" s="20" t="s">
         <v>185</v>
@@ -20117,7 +20118,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="23">
         <f>EDATE(A631,1)</f>
         <v>41579</v>
@@ -20147,7 +20148,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="23"/>
       <c r="B634" s="20" t="s">
         <v>50</v>
@@ -20170,7 +20171,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="23"/>
       <c r="B635" s="20" t="s">
         <v>87</v>
@@ -20195,7 +20196,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="23"/>
       <c r="B636" s="20" t="s">
         <v>116</v>
@@ -20218,7 +20219,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="23">
         <f>EDATE(A633,1)</f>
         <v>41609</v>
@@ -20248,7 +20249,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="23"/>
       <c r="B638" s="20" t="s">
         <v>53</v>
@@ -20273,7 +20274,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="23"/>
       <c r="B639" s="20" t="s">
         <v>297</v>
@@ -20296,7 +20297,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="23"/>
       <c r="B640" s="20" t="s">
         <v>298</v>
@@ -20319,7 +20320,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="45" t="s">
         <v>299</v>
       </c>
@@ -20340,7 +20341,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="23">
         <f>EDATE(A637,1)</f>
         <v>41640</v>
@@ -20370,7 +20371,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="23"/>
       <c r="B643" s="20" t="s">
         <v>202</v>
@@ -20395,7 +20396,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="23"/>
       <c r="B644" s="20" t="s">
         <v>300</v>
@@ -20418,7 +20419,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="23">
         <f>EDATE(A642,1)</f>
         <v>41671</v>
@@ -20446,7 +20447,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="23">
         <f t="shared" ref="A646:A663" si="35">EDATE(A645,1)</f>
         <v>41699</v>
@@ -20470,7 +20471,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="23">
         <f t="shared" si="35"/>
         <v>41730</v>
@@ -20498,7 +20499,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="23"/>
       <c r="B648" s="20" t="s">
         <v>302</v>
@@ -20523,7 +20524,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="23">
         <f>EDATE(A647,1)</f>
         <v>41760</v>
@@ -20553,7 +20554,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="23"/>
       <c r="B650" s="20" t="s">
         <v>106</v>
@@ -20576,7 +20577,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="23">
         <f>EDATE(A649,1)</f>
         <v>41791</v>
@@ -20606,7 +20607,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="23"/>
       <c r="B652" s="20" t="s">
         <v>53</v>
@@ -20631,7 +20632,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="23"/>
       <c r="B653" s="20" t="s">
         <v>53</v>
@@ -20656,7 +20657,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="23"/>
       <c r="B654" s="20" t="s">
         <v>303</v>
@@ -20679,7 +20680,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="23">
         <f>EDATE(A651,1)</f>
         <v>41821</v>
@@ -20709,7 +20710,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="23"/>
       <c r="B656" s="20" t="s">
         <v>50</v>
@@ -20732,7 +20733,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="23"/>
       <c r="B657" s="20" t="s">
         <v>92</v>
@@ -20757,7 +20758,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="23"/>
       <c r="B658" s="20" t="s">
         <v>304</v>
@@ -20780,7 +20781,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="23">
         <f>EDATE(A655,1)</f>
         <v>41852</v>
@@ -20810,7 +20811,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="23"/>
       <c r="B660" s="20" t="s">
         <v>53</v>
@@ -20835,7 +20836,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="23"/>
       <c r="B661" s="20" t="s">
         <v>152</v>
@@ -20858,7 +20859,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="23">
         <f>EDATE(A659,1)</f>
         <v>41883</v>
@@ -20886,7 +20887,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="23">
         <f t="shared" si="35"/>
         <v>41913</v>
@@ -20916,7 +20917,7 @@
         <v>45206</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="23"/>
       <c r="B664" s="20" t="s">
         <v>483</v>
@@ -20939,7 +20940,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="23">
         <f>EDATE(A663,1)</f>
         <v>41944</v>
@@ -20969,7 +20970,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="23"/>
       <c r="B666" s="20" t="s">
         <v>54</v>
@@ -20994,7 +20995,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="23"/>
       <c r="B667" s="20" t="s">
         <v>306</v>
@@ -21017,7 +21018,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="23">
         <f>EDATE(A665,1)</f>
         <v>41974</v>
@@ -21047,7 +21048,7 @@
         <v>45275</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="23"/>
       <c r="B669" s="20" t="s">
         <v>307</v>
@@ -21070,7 +21071,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="45" t="s">
         <v>308</v>
       </c>
@@ -21091,7 +21092,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="23">
         <f>EDATE(A668,1)</f>
         <v>42005</v>
@@ -21121,7 +21122,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="23"/>
       <c r="B672" s="20" t="s">
         <v>50</v>
@@ -21144,7 +21145,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="23"/>
       <c r="B673" s="20" t="s">
         <v>309</v>
@@ -21167,7 +21168,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="23">
         <f>EDATE(A671,1)</f>
         <v>42036</v>
@@ -21197,7 +21198,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="23"/>
       <c r="B675" s="20" t="s">
         <v>310</v>
@@ -21220,7 +21221,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="23">
         <f>EDATE(A674,1)</f>
         <v>42064</v>
@@ -21244,7 +21245,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="23">
         <f t="shared" ref="A677:A692" si="37">EDATE(A676,1)</f>
         <v>42095</v>
@@ -21274,7 +21275,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="23"/>
       <c r="B678" s="20" t="s">
         <v>50</v>
@@ -21297,7 +21298,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="23"/>
       <c r="B679" s="20" t="s">
         <v>311</v>
@@ -21320,7 +21321,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="23">
         <f>EDATE(A677,1)</f>
         <v>42125</v>
@@ -21350,7 +21351,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="23"/>
       <c r="B681" s="20" t="s">
         <v>68</v>
@@ -21375,7 +21376,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="23"/>
       <c r="B682" s="20" t="s">
         <v>312</v>
@@ -21398,7 +21399,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="23">
         <f>EDATE(A680,1)</f>
         <v>42156</v>
@@ -21428,7 +21429,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="23"/>
       <c r="B684" s="20" t="s">
         <v>313</v>
@@ -21451,7 +21452,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="23">
         <f>EDATE(A683,1)</f>
         <v>42186</v>
@@ -21481,7 +21482,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="23"/>
       <c r="B686" s="20" t="s">
         <v>53</v>
@@ -21506,7 +21507,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="23"/>
       <c r="B687" s="20" t="s">
         <v>53</v>
@@ -21531,7 +21532,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="23"/>
       <c r="B688" s="20" t="s">
         <v>314</v>
@@ -21554,7 +21555,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="23">
         <f>EDATE(A685,1)</f>
         <v>42217</v>
@@ -21584,7 +21585,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="23"/>
       <c r="B690" s="20" t="s">
         <v>315</v>
@@ -21607,7 +21608,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="23">
         <f>EDATE(A689,1)</f>
         <v>42248</v>
@@ -21635,7 +21636,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="23">
         <f t="shared" si="37"/>
         <v>42278</v>
@@ -21665,7 +21666,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="23"/>
       <c r="B693" s="20" t="s">
         <v>50</v>
@@ -21688,7 +21689,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="23"/>
       <c r="B694" s="20" t="s">
         <v>53</v>
@@ -21711,7 +21712,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="23"/>
       <c r="B695" s="20" t="s">
         <v>317</v>
@@ -21734,7 +21735,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="23">
         <f>EDATE(A692,1)</f>
         <v>42309</v>
@@ -21762,7 +21763,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="23"/>
       <c r="B697" s="20" t="s">
         <v>53</v>
@@ -21787,7 +21788,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="23">
         <f>EDATE(A696,1)</f>
         <v>42339</v>
@@ -21817,7 +21818,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="23"/>
       <c r="B699" s="20" t="s">
         <v>319</v>
@@ -21840,7 +21841,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="45" t="s">
         <v>320</v>
       </c>
@@ -21861,7 +21862,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="23">
         <f>EDATE(A698,1)</f>
         <v>42370</v>
@@ -21891,7 +21892,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="23"/>
       <c r="B702" s="20" t="s">
         <v>50</v>
@@ -21914,7 +21915,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="23"/>
       <c r="B703" s="20" t="s">
         <v>223</v>
@@ -21937,7 +21938,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="23">
         <f>EDATE(A701,1)</f>
         <v>42401</v>
@@ -21967,7 +21968,7 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="23"/>
       <c r="B705" s="20" t="s">
         <v>50</v>
@@ -21990,7 +21991,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="23"/>
       <c r="B706" s="20" t="s">
         <v>53</v>
@@ -22015,7 +22016,7 @@
         <v>44983</v>
       </c>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="23"/>
       <c r="B707" s="20" t="s">
         <v>321</v>
@@ -22038,7 +22039,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="23">
         <f>EDATE(A704,1)</f>
         <v>42430</v>
@@ -22066,7 +22067,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="23">
         <f t="shared" ref="A709:A717" si="38">EDATE(A708,1)</f>
         <v>42461</v>
@@ -22096,7 +22097,7 @@
         <v>45042</v>
       </c>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A710" s="23"/>
       <c r="B710" s="20" t="s">
         <v>323</v>
@@ -22119,7 +22120,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A711" s="23">
         <f>EDATE(A709,1)</f>
         <v>42491</v>
@@ -22147,7 +22148,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A712" s="23">
         <f t="shared" si="38"/>
         <v>42522</v>
@@ -22177,7 +22178,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A713" s="23"/>
       <c r="B713" s="20" t="s">
         <v>325</v>
@@ -22200,7 +22201,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="53"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A714" s="23">
         <f>EDATE(A712,1)</f>
         <v>42552</v>
@@ -22228,7 +22229,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A715" s="23">
         <f t="shared" si="38"/>
         <v>42583</v>
@@ -22256,7 +22257,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A716" s="23">
         <f t="shared" si="38"/>
         <v>42614</v>
@@ -22284,7 +22285,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A717" s="23">
         <f t="shared" si="38"/>
         <v>42644</v>
@@ -22314,7 +22315,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A718" s="23"/>
       <c r="B718" s="20" t="s">
         <v>53</v>
@@ -22339,7 +22340,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A719" s="23"/>
       <c r="B719" s="20" t="s">
         <v>328</v>
@@ -22362,7 +22363,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A720" s="23">
         <f>EDATE(A717,1)</f>
         <v>42675</v>
@@ -22392,7 +22393,7 @@
         <v>45251</v>
       </c>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A721" s="23"/>
       <c r="B721" s="20" t="s">
         <v>50</v>
@@ -22415,7 +22416,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A722" s="23"/>
       <c r="B722" s="20" t="s">
         <v>329</v>
@@ -22438,7 +22439,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A723" s="23">
         <f>EDATE(A720,1)</f>
         <v>42705</v>
@@ -22468,7 +22469,7 @@
         <v>45280</v>
       </c>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A724" s="23"/>
       <c r="B724" s="20" t="s">
         <v>87</v>
@@ -22493,7 +22494,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A725" s="23"/>
       <c r="B725" s="20" t="s">
         <v>330</v>
@@ -22516,7 +22517,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A726" s="45" t="s">
         <v>331</v>
       </c>
@@ -22537,7 +22538,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A727" s="23">
         <f>EDATE(A723,1)</f>
         <v>42736</v>
@@ -22565,7 +22566,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A728" s="23"/>
       <c r="B728" s="20" t="s">
         <v>53</v>
@@ -22590,7 +22591,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A729" s="23"/>
       <c r="B729" s="20" t="s">
         <v>332</v>
@@ -22613,7 +22614,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A730" s="23">
         <f>EDATE(A727,1)</f>
         <v>42767</v>
@@ -22641,7 +22642,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A731" s="23"/>
       <c r="B731" s="20" t="s">
         <v>53</v>
@@ -22666,7 +22667,7 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A732" s="23"/>
       <c r="B732" s="20" t="s">
         <v>57</v>
@@ -22691,7 +22692,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A733" s="23"/>
       <c r="B733" s="20" t="s">
         <v>53</v>
@@ -22716,7 +22717,7 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A734" s="23"/>
       <c r="B734" s="20" t="s">
         <v>56</v>
@@ -22741,7 +22742,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A735" s="23"/>
       <c r="B735" s="20" t="s">
         <v>333</v>
@@ -22764,7 +22765,7 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A736" s="23">
         <f>EDATE(A730,1)</f>
         <v>42795</v>
@@ -22788,7 +22789,7 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A737" s="23">
         <f t="shared" ref="A737:A746" si="40">EDATE(A736,1)</f>
         <v>42826</v>
@@ -22812,7 +22813,7 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A738" s="23">
         <f t="shared" si="40"/>
         <v>42856</v>
@@ -22836,7 +22837,7 @@
       <c r="J738" s="11"/>
       <c r="K738" s="20"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A739" s="23">
         <f t="shared" si="40"/>
         <v>42887</v>
@@ -22866,7 +22867,7 @@
         <v>45083</v>
       </c>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A740" s="23"/>
       <c r="B740" s="20" t="s">
         <v>87</v>
@@ -22891,7 +22892,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A741" s="23">
         <f>EDATE(A739,1)</f>
         <v>42917</v>
@@ -22921,7 +22922,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A742" s="23"/>
       <c r="B742" s="20" t="s">
         <v>53</v>
@@ -22946,7 +22947,7 @@
         <v>45197</v>
       </c>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A743" s="23">
         <f>EDATE(A741,1)</f>
         <v>42948</v>
@@ -22970,7 +22971,7 @@
       <c r="J743" s="11"/>
       <c r="K743" s="20"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A744" s="23">
         <f t="shared" si="40"/>
         <v>42979</v>
@@ -22994,7 +22995,7 @@
       <c r="J744" s="11"/>
       <c r="K744" s="20"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A745" s="23">
         <f t="shared" si="40"/>
         <v>43009</v>
@@ -23018,7 +23019,7 @@
       <c r="J745" s="11"/>
       <c r="K745" s="20"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A746" s="23">
         <f t="shared" si="40"/>
         <v>43040</v>
@@ -23042,7 +23043,7 @@
       <c r="J746" s="11"/>
       <c r="K746" s="20"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A747" s="23">
         <f>EDATE(A746,1)</f>
         <v>43070</v>
@@ -23070,7 +23071,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A748" s="23"/>
       <c r="B748" s="20" t="s">
         <v>73</v>
@@ -23093,7 +23094,7 @@
       <c r="J748" s="11"/>
       <c r="K748" s="20"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A749" s="45" t="s">
         <v>335</v>
       </c>
@@ -23114,7 +23115,7 @@
       <c r="J749" s="11"/>
       <c r="K749" s="20"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A750" s="23">
         <f>EDATE(A747,1)</f>
         <v>43101</v>
@@ -23144,7 +23145,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A751" s="23"/>
       <c r="B751" s="20" t="s">
         <v>50</v>
@@ -23167,7 +23168,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A752" s="23">
         <f>EDATE(A750,1)</f>
         <v>43132</v>
@@ -23191,7 +23192,7 @@
       <c r="J752" s="11"/>
       <c r="K752" s="20"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A753" s="23">
         <f t="shared" ref="A753:A762" si="41">EDATE(A752,1)</f>
         <v>43160</v>
@@ -23219,7 +23220,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A754" s="23"/>
       <c r="B754" s="20" t="s">
         <v>53</v>
@@ -23244,7 +23245,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A755" s="23"/>
       <c r="B755" s="20" t="s">
         <v>50</v>
@@ -23267,7 +23268,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A756" s="23">
         <f>EDATE(A753,1)</f>
         <v>43191</v>
@@ -23291,7 +23292,7 @@
       <c r="J756" s="11"/>
       <c r="K756" s="20"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A757" s="23">
         <f t="shared" si="41"/>
         <v>43221</v>
@@ -23315,7 +23316,7 @@
       <c r="J757" s="11"/>
       <c r="K757" s="20"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A758" s="23">
         <f t="shared" si="41"/>
         <v>43252</v>
@@ -23345,7 +23346,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A759" s="23">
         <f t="shared" si="41"/>
         <v>43282</v>
@@ -23369,7 +23370,7 @@
       <c r="J759" s="11"/>
       <c r="K759" s="20"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A760" s="23">
         <f t="shared" si="41"/>
         <v>43313</v>
@@ -23393,7 +23394,7 @@
       <c r="J760" s="11"/>
       <c r="K760" s="20"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A761" s="23">
         <f t="shared" si="41"/>
         <v>43344</v>
@@ -23417,7 +23418,7 @@
       <c r="J761" s="11"/>
       <c r="K761" s="20"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A762" s="23">
         <f t="shared" si="41"/>
         <v>43374</v>
@@ -23447,7 +23448,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A763" s="23">
         <f>EDATE(A762,1)</f>
         <v>43405</v>
@@ -23477,7 +23478,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A764" s="23">
         <f>EDATE(A763,1)</f>
         <v>43435</v>
@@ -23507,7 +23508,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A765" s="23"/>
       <c r="B765" s="20" t="s">
         <v>53</v>
@@ -23532,7 +23533,7 @@
         <v>45258</v>
       </c>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A766" s="23"/>
       <c r="B766" s="20" t="s">
         <v>53</v>
@@ -23557,7 +23558,7 @@
         <v>45277</v>
       </c>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A767" s="45" t="s">
         <v>46</v>
       </c>
@@ -23578,7 +23579,7 @@
       <c r="J767" s="11"/>
       <c r="K767" s="20"/>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A768" s="39">
         <v>43466</v>
       </c>
@@ -23605,7 +23606,7 @@
         <v>43483</v>
       </c>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A769" s="39">
         <v>43497</v>
       </c>
@@ -23634,7 +23635,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A770" s="39">
         <v>43525</v>
       </c>
@@ -23657,7 +23658,7 @@
       <c r="J770" s="11"/>
       <c r="K770" s="20"/>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A771" s="39">
         <v>43556</v>
       </c>
@@ -23680,7 +23681,7 @@
       <c r="J771" s="11"/>
       <c r="K771" s="20"/>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A772" s="39">
         <v>43586</v>
       </c>
@@ -23709,7 +23710,7 @@
         <v>43592</v>
       </c>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A773" s="39">
         <v>43617</v>
       </c>
@@ -23732,7 +23733,7 @@
       <c r="J773" s="11"/>
       <c r="K773" s="20"/>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A774" s="39">
         <v>43647</v>
       </c>
@@ -23759,7 +23760,7 @@
         <v>43655</v>
       </c>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A775" s="39">
         <v>43678</v>
       </c>
@@ -23782,7 +23783,7 @@
       <c r="J775" s="11"/>
       <c r="K775" s="20"/>
     </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A776" s="39">
         <v>43709</v>
       </c>
@@ -23811,7 +23812,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A777" s="39"/>
       <c r="B777" s="20" t="s">
         <v>56</v>
@@ -23836,7 +23837,7 @@
         <v>43718</v>
       </c>
     </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A778" s="39">
         <v>43739</v>
       </c>
@@ -23865,7 +23866,7 @@
         <v>43794</v>
       </c>
     </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A779" s="39">
         <v>43770</v>
       </c>
@@ -23888,7 +23889,7 @@
       <c r="J779" s="11"/>
       <c r="K779" s="20"/>
     </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A780" s="39">
         <v>43800</v>
       </c>
@@ -23917,7 +23918,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A781" s="39"/>
       <c r="B781" s="20" t="s">
         <v>50</v>
@@ -23940,7 +23941,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A782" s="45" t="s">
         <v>48</v>
       </c>
@@ -23961,7 +23962,7 @@
       <c r="J782" s="11"/>
       <c r="K782" s="20"/>
     </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A783" s="39">
         <v>43831</v>
       </c>
@@ -23988,7 +23989,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A784" s="39">
         <v>43862</v>
       </c>
@@ -24017,7 +24018,7 @@
         <v>43879</v>
       </c>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A785" s="39">
         <v>43891</v>
       </c>
@@ -24040,7 +24041,7 @@
       <c r="J785" s="11"/>
       <c r="K785" s="20"/>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A786" s="39">
         <v>43922</v>
       </c>
@@ -24063,7 +24064,7 @@
       <c r="J786" s="11"/>
       <c r="K786" s="20"/>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A787" s="39">
         <v>43952</v>
       </c>
@@ -24086,7 +24087,7 @@
       <c r="J787" s="11"/>
       <c r="K787" s="20"/>
     </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A788" s="39">
         <v>43983</v>
       </c>
@@ -24109,7 +24110,7 @@
       <c r="J788" s="11"/>
       <c r="K788" s="20"/>
     </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A789" s="39">
         <v>44013</v>
       </c>
@@ -24136,7 +24137,7 @@
         <v>44020</v>
       </c>
     </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A790" s="39">
         <v>44044</v>
       </c>
@@ -24159,7 +24160,7 @@
       <c r="J790" s="11"/>
       <c r="K790" s="20"/>
     </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A791" s="39">
         <v>44075</v>
       </c>
@@ -24182,7 +24183,7 @@
       <c r="J791" s="11"/>
       <c r="K791" s="20"/>
     </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A792" s="39">
         <v>44105</v>
       </c>
@@ -24209,7 +24210,7 @@
         <v>44119</v>
       </c>
     </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A793" s="39">
         <v>44136</v>
       </c>
@@ -24236,7 +24237,7 @@
         <v>44169</v>
       </c>
     </row>
-    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A794" s="39">
         <v>44166</v>
       </c>
@@ -24265,7 +24266,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A795" s="39"/>
       <c r="B795" s="20" t="s">
         <v>51</v>
@@ -24290,7 +24291,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A796" s="45" t="s">
         <v>47</v>
       </c>
@@ -24311,7 +24312,7 @@
       <c r="J796" s="11"/>
       <c r="K796" s="20"/>
     </row>
-    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A797" s="39">
         <v>44197</v>
       </c>
@@ -24334,7 +24335,7 @@
       <c r="J797" s="11"/>
       <c r="K797" s="20"/>
     </row>
-    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A798" s="39">
         <v>44228</v>
       </c>
@@ -24361,7 +24362,7 @@
         <v>44253</v>
       </c>
     </row>
-    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A799" s="39">
         <v>44256</v>
       </c>
@@ -24384,7 +24385,7 @@
       <c r="J799" s="11"/>
       <c r="K799" s="20"/>
     </row>
-    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A800" s="39">
         <v>44287</v>
       </c>
@@ -24407,7 +24408,7 @@
       <c r="J800" s="11"/>
       <c r="K800" s="20"/>
     </row>
-    <row r="801" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A801" s="39">
         <v>44317</v>
       </c>
@@ -24430,7 +24431,7 @@
       <c r="J801" s="11"/>
       <c r="K801" s="20"/>
     </row>
-    <row r="802" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A802" s="39">
         <v>44348</v>
       </c>
@@ -24457,7 +24458,7 @@
         <v>44385</v>
       </c>
     </row>
-    <row r="803" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A803" s="39"/>
       <c r="B803" s="20" t="s">
         <v>57</v>
@@ -24482,7 +24483,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="804" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A804" s="39"/>
       <c r="B804" s="20" t="s">
         <v>56</v>
@@ -24507,7 +24508,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="805" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A805" s="39">
         <v>44378</v>
       </c>
@@ -24530,7 +24531,7 @@
       <c r="J805" s="11"/>
       <c r="K805" s="20"/>
     </row>
-    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A806" s="39">
         <v>44409</v>
       </c>
@@ -24553,7 +24554,7 @@
       <c r="J806" s="11"/>
       <c r="K806" s="20"/>
     </row>
-    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A807" s="39">
         <v>44440</v>
       </c>
@@ -24576,7 +24577,7 @@
       <c r="J807" s="11"/>
       <c r="K807" s="20"/>
     </row>
-    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A808" s="39">
         <v>44470</v>
       </c>
@@ -24599,7 +24600,7 @@
       <c r="J808" s="11"/>
       <c r="K808" s="20"/>
     </row>
-    <row r="809" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A809" s="39">
         <v>44501</v>
       </c>
@@ -24626,7 +24627,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="810" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A810" s="39"/>
       <c r="B810" s="20" t="s">
         <v>65</v>
@@ -24649,7 +24650,7 @@
         <v>44509</v>
       </c>
     </row>
-    <row r="811" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A811" s="39">
         <v>44531</v>
       </c>
@@ -24676,7 +24677,7 @@
       <c r="J811" s="11"/>
       <c r="K811" s="20"/>
     </row>
-    <row r="812" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A812" s="45" t="s">
         <v>49</v>
       </c>
@@ -24697,7 +24698,7 @@
       <c r="J812" s="11"/>
       <c r="K812" s="20"/>
     </row>
-    <row r="813" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A813" s="39">
         <v>44562</v>
       </c>
@@ -24720,7 +24721,7 @@
       <c r="J813" s="11"/>
       <c r="K813" s="20"/>
     </row>
-    <row r="814" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A814" s="39">
         <v>44593</v>
       </c>
@@ -24743,7 +24744,7 @@
       <c r="J814" s="11"/>
       <c r="K814" s="20"/>
     </row>
-    <row r="815" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A815" s="39">
         <v>44621</v>
       </c>
@@ -24770,7 +24771,7 @@
         <v>44650</v>
       </c>
     </row>
-    <row r="816" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A816" s="39"/>
       <c r="B816" s="20" t="s">
         <v>143</v>
@@ -24793,7 +24794,7 @@
       <c r="J816" s="11"/>
       <c r="K816" s="46"/>
     </row>
-    <row r="817" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A817" s="39">
         <v>44652</v>
       </c>
@@ -24820,7 +24821,7 @@
       <c r="J817" s="11"/>
       <c r="K817" s="20"/>
     </row>
-    <row r="818" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A818" s="39">
         <v>44682</v>
       </c>
@@ -24849,7 +24850,7 @@
         <v>44708</v>
       </c>
     </row>
-    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A819" s="39"/>
       <c r="B819" s="20" t="s">
         <v>480</v>
@@ -24872,7 +24873,7 @@
       <c r="J819" s="11"/>
       <c r="K819" s="46"/>
     </row>
-    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A820" s="39">
         <v>44713</v>
       </c>
@@ -24899,7 +24900,7 @@
       <c r="J820" s="11"/>
       <c r="K820" s="20"/>
     </row>
-    <row r="821" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A821" s="39">
         <v>44743</v>
       </c>
@@ -24928,7 +24929,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="822" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A822" s="39"/>
       <c r="B822" s="20" t="s">
         <v>478</v>
@@ -24951,7 +24952,7 @@
       <c r="J822" s="11"/>
       <c r="K822" s="20"/>
     </row>
-    <row r="823" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A823" s="39"/>
       <c r="B823" s="20" t="s">
         <v>477</v>
@@ -24974,7 +24975,7 @@
       <c r="J823" s="11"/>
       <c r="K823" s="20"/>
     </row>
-    <row r="824" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A824" s="39">
         <v>44774</v>
       </c>
@@ -25001,7 +25002,7 @@
       <c r="J824" s="11"/>
       <c r="K824" s="20"/>
     </row>
-    <row r="825" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A825" s="39">
         <v>44805</v>
       </c>
@@ -25028,7 +25029,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="826" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A826" s="39"/>
       <c r="B826" s="20" t="s">
         <v>475</v>
@@ -25051,7 +25052,7 @@
       <c r="J826" s="11"/>
       <c r="K826" s="46"/>
     </row>
-    <row r="827" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A827" s="39">
         <v>44835</v>
       </c>
@@ -25080,7 +25081,7 @@
         <v>44848</v>
       </c>
     </row>
-    <row r="828" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A828" s="39"/>
       <c r="B828" s="20" t="s">
         <v>474</v>
@@ -25103,7 +25104,7 @@
       <c r="J828" s="11"/>
       <c r="K828" s="46"/>
     </row>
-    <row r="829" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A829" s="39">
         <v>44866</v>
       </c>
@@ -25132,7 +25133,7 @@
         <v>44798</v>
       </c>
     </row>
-    <row r="830" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A830" s="39"/>
       <c r="B830" s="20" t="s">
         <v>50</v>
@@ -25155,7 +25156,7 @@
         <v>44879</v>
       </c>
     </row>
-    <row r="831" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A831" s="39"/>
       <c r="B831" s="20" t="s">
         <v>473</v>
@@ -25178,7 +25179,7 @@
       <c r="J831" s="11"/>
       <c r="K831" s="46"/>
     </row>
-    <row r="832" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A832" s="39">
         <v>44896</v>
       </c>
@@ -25207,7 +25208,7 @@
         <v>44896</v>
       </c>
     </row>
-    <row r="833" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A833" s="39"/>
       <c r="B833" s="20" t="s">
         <v>68</v>
@@ -25232,7 +25233,7 @@
         <v>44910</v>
       </c>
     </row>
-    <row r="834" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A834" s="39"/>
       <c r="B834" s="20" t="s">
         <v>56</v>
@@ -25257,7 +25258,7 @@
         <v>44924</v>
       </c>
     </row>
-    <row r="835" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A835" s="39"/>
       <c r="B835" s="20" t="s">
         <v>472</v>
@@ -25280,7 +25281,7 @@
       <c r="J835" s="11"/>
       <c r="K835" s="46"/>
     </row>
-    <row r="836" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A836" s="45" t="s">
         <v>70</v>
       </c>
@@ -25301,7 +25302,7 @@
       <c r="J836" s="11"/>
       <c r="K836" s="20"/>
     </row>
-    <row r="837" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A837" s="39">
         <v>44957</v>
       </c>
@@ -25328,7 +25329,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="838" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A838" s="39"/>
       <c r="B838" s="20" t="s">
         <v>493</v>
@@ -25339,7 +25340,7 @@
       </c>
       <c r="E838" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>11.966999999999871</v>
+        <v>13.216999999999871</v>
       </c>
       <c r="F838" s="20"/>
       <c r="G838" s="13" t="str">
@@ -25351,7 +25352,7 @@
       <c r="J838" s="11"/>
       <c r="K838" s="46"/>
     </row>
-    <row r="839" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A839" s="39">
         <v>44985</v>
       </c>
@@ -25380,7 +25381,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="840" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A840" s="39"/>
       <c r="B840" s="20" t="s">
         <v>472</v>
@@ -25391,7 +25392,7 @@
       </c>
       <c r="E840" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>11.966999999999871</v>
+        <v>13.216999999999871</v>
       </c>
       <c r="F840" s="20"/>
       <c r="G840" s="13" t="str">
@@ -25401,12 +25402,12 @@
       <c r="H840" s="38"/>
       <c r="I840" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>90.5</v>
+        <v>91.75</v>
       </c>
       <c r="J840" s="11"/>
       <c r="K840" s="20"/>
     </row>
-    <row r="841" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A841" s="39">
         <v>45016</v>
       </c>
@@ -25433,7 +25434,7 @@
       <c r="J841" s="11"/>
       <c r="K841" s="20"/>
     </row>
-    <row r="842" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A842" s="39">
         <v>45046</v>
       </c>
@@ -25460,7 +25461,7 @@
       <c r="J842" s="11"/>
       <c r="K842" s="20"/>
     </row>
-    <row r="843" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A843" s="39">
         <v>45077</v>
       </c>
@@ -25487,7 +25488,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="844" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A844" s="39"/>
       <c r="B844" s="20" t="s">
         <v>490</v>
@@ -25507,7 +25508,7 @@
       <c r="J844" s="11"/>
       <c r="K844" s="46"/>
     </row>
-    <row r="845" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A845" s="39">
         <v>45107</v>
       </c>
@@ -25536,7 +25537,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="846" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A846" s="39"/>
       <c r="B846" s="20" t="s">
         <v>53</v>
@@ -25561,7 +25562,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="847" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A847" s="39"/>
       <c r="B847" s="20" t="s">
         <v>478</v>
@@ -25572,7 +25573,7 @@
       </c>
       <c r="E847" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>11.966999999999871</v>
+        <v>13.216999999999871</v>
       </c>
       <c r="F847" s="20"/>
       <c r="G847" s="13" t="str">
@@ -25586,7 +25587,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="848" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A848" s="39"/>
       <c r="B848" s="20" t="s">
         <v>290</v>
@@ -25606,7 +25607,7 @@
       <c r="J848" s="11"/>
       <c r="K848" s="46"/>
     </row>
-    <row r="849" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A849" s="39">
         <v>45138</v>
       </c>
@@ -25633,7 +25634,7 @@
       <c r="J849" s="11"/>
       <c r="K849" s="20"/>
     </row>
-    <row r="850" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A850" s="39"/>
       <c r="B850" s="20" t="s">
         <v>57</v>
@@ -25643,7 +25644,7 @@
         <v>3</v>
       </c>
       <c r="E850" s="13">
-        <f t="shared" ref="E850:E868" si="43">SUM(C850,E849)-D850</f>
+        <f t="shared" ref="E850:E869" si="43">SUM(C850,E849)-D850</f>
         <v>13.081999999999915</v>
       </c>
       <c r="F850" s="20"/>
@@ -25658,7 +25659,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="851" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A851" s="39"/>
       <c r="B851" s="20" t="s">
         <v>53</v>
@@ -25683,7 +25684,7 @@
         <v>45124</v>
       </c>
     </row>
-    <row r="852" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A852" s="39"/>
       <c r="B852" s="20" t="s">
         <v>488</v>
@@ -25703,7 +25704,7 @@
       <c r="J852" s="11"/>
       <c r="K852" s="46"/>
     </row>
-    <row r="853" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A853" s="39">
         <v>45168</v>
       </c>
@@ -25732,7 +25733,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="854" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A854" s="39"/>
       <c r="B854" s="20" t="s">
         <v>487</v>
@@ -25752,7 +25753,7 @@
       <c r="J854" s="11"/>
       <c r="K854" s="46"/>
     </row>
-    <row r="855" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A855" s="39">
         <v>45199</v>
       </c>
@@ -25781,7 +25782,7 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="856" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A856" s="39"/>
       <c r="B856" s="20" t="s">
         <v>106</v>
@@ -25801,7 +25802,7 @@
       <c r="J856" s="11"/>
       <c r="K856" s="46"/>
     </row>
-    <row r="857" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A857" s="39">
         <v>45229</v>
       </c>
@@ -25830,7 +25831,7 @@
         <v>45215</v>
       </c>
     </row>
-    <row r="858" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A858" s="39"/>
       <c r="B858" s="20" t="s">
         <v>478</v>
@@ -25841,7 +25842,7 @@
       </c>
       <c r="E858" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>11.966999999999871</v>
+        <v>13.216999999999871</v>
       </c>
       <c r="F858" s="20"/>
       <c r="G858" s="13" t="str">
@@ -25855,7 +25856,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="859" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A859" s="39"/>
       <c r="B859" s="20" t="s">
         <v>486</v>
@@ -25866,7 +25867,7 @@
       </c>
       <c r="E859" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>11.966999999999871</v>
+        <v>13.216999999999871</v>
       </c>
       <c r="F859" s="20"/>
       <c r="G859" s="13" t="str">
@@ -25878,7 +25879,7 @@
       <c r="J859" s="11"/>
       <c r="K859" s="46"/>
     </row>
-    <row r="860" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A860" s="39">
         <v>45260</v>
       </c>
@@ -25905,7 +25906,7 @@
       <c r="J860" s="11"/>
       <c r="K860" s="20"/>
     </row>
-    <row r="861" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A861" s="39">
         <v>45290</v>
       </c>
@@ -25930,7 +25931,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="862" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A862" s="39"/>
       <c r="B862" s="20" t="s">
         <v>53</v>
@@ -25939,7 +25940,7 @@
       <c r="D862" s="38"/>
       <c r="E862" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>11.966999999999871</v>
+        <v>13.216999999999871</v>
       </c>
       <c r="F862" s="20"/>
       <c r="G862" s="13" t="str">
@@ -25955,7 +25956,7 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="863" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A863" s="39"/>
       <c r="B863" s="20" t="s">
         <v>485</v>
@@ -25975,7 +25976,7 @@
       <c r="J863" s="11"/>
       <c r="K863" s="46"/>
     </row>
-    <row r="864" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A864" s="45" t="s">
         <v>482</v>
       </c>
@@ -25996,23 +25997,25 @@
       <c r="J864" s="11"/>
       <c r="K864" s="20"/>
     </row>
-    <row r="865" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A865" s="39">
-        <v>45321</v>
+        <v>45322</v>
       </c>
       <c r="B865" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C865" s="13"/>
+      <c r="C865" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D865" s="38"/>
       <c r="E865" s="13">
         <f t="shared" si="43"/>
-        <v>17.919999999999916</v>
+        <v>19.169999999999916</v>
       </c>
       <c r="F865" s="20"/>
-      <c r="G865" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G865" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H865" s="38"/>
       <c r="I865" s="9"/>
@@ -26021,16 +26024,16 @@
         <v>45309</v>
       </c>
     </row>
-    <row r="866" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A866" s="39">
-        <v>45351</v>
-      </c>
-      <c r="B866" s="20"/>
+    <row r="866" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A866" s="39"/>
+      <c r="B866" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C866" s="13"/>
       <c r="D866" s="38"/>
       <c r="E866" s="13">
-        <f t="shared" si="43"/>
-        <v>17.919999999999916</v>
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>13.216999999999871</v>
       </c>
       <c r="F866" s="20"/>
       <c r="G866" s="13" t="str">
@@ -26040,18 +26043,20 @@
       <c r="H866" s="38"/>
       <c r="I866" s="9"/>
       <c r="J866" s="11"/>
-      <c r="K866" s="20"/>
-    </row>
-    <row r="867" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K866" s="46">
+        <v>45316</v>
+      </c>
+    </row>
+    <row r="867" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A867" s="39">
-        <v>45381</v>
+        <v>45351</v>
       </c>
       <c r="B867" s="20"/>
       <c r="C867" s="13"/>
       <c r="D867" s="38"/>
       <c r="E867" s="13">
-        <f t="shared" si="43"/>
-        <v>17.919999999999916</v>
+        <f>SUM(C867,E865)-D867</f>
+        <v>19.169999999999916</v>
       </c>
       <c r="F867" s="20"/>
       <c r="G867" s="13" t="str">
@@ -26063,16 +26068,16 @@
       <c r="J867" s="11"/>
       <c r="K867" s="20"/>
     </row>
-    <row r="868" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A868" s="39">
-        <v>45388</v>
+        <v>45381</v>
       </c>
       <c r="B868" s="20"/>
       <c r="C868" s="13"/>
       <c r="D868" s="38"/>
       <c r="E868" s="13">
         <f t="shared" si="43"/>
-        <v>17.919999999999916</v>
+        <v>19.169999999999916</v>
       </c>
       <c r="F868" s="20"/>
       <c r="G868" s="13" t="str">
@@ -26084,12 +26089,17 @@
       <c r="J868" s="11"/>
       <c r="K868" s="20"/>
     </row>
-    <row r="869" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A869" s="39"/>
+    <row r="869" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A869" s="39">
+        <v>45388</v>
+      </c>
       <c r="B869" s="20"/>
       <c r="C869" s="13"/>
       <c r="D869" s="38"/>
-      <c r="E869" s="13"/>
+      <c r="E869" s="13">
+        <f t="shared" si="43"/>
+        <v>19.169999999999916</v>
+      </c>
       <c r="F869" s="20"/>
       <c r="G869" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
@@ -26100,7 +26110,7 @@
       <c r="J869" s="11"/>
       <c r="K869" s="20"/>
     </row>
-    <row r="870" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A870" s="39"/>
       <c r="B870" s="20"/>
       <c r="C870" s="13"/>
@@ -26116,7 +26126,7 @@
       <c r="J870" s="11"/>
       <c r="K870" s="20"/>
     </row>
-    <row r="871" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A871" s="39"/>
       <c r="B871" s="20"/>
       <c r="C871" s="13"/>
@@ -26132,7 +26142,7 @@
       <c r="J871" s="11"/>
       <c r="K871" s="20"/>
     </row>
-    <row r="872" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A872" s="39"/>
       <c r="B872" s="20"/>
       <c r="C872" s="13"/>
@@ -26148,7 +26158,7 @@
       <c r="J872" s="11"/>
       <c r="K872" s="20"/>
     </row>
-    <row r="873" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A873" s="39"/>
       <c r="B873" s="20"/>
       <c r="C873" s="13"/>
@@ -26164,7 +26174,7 @@
       <c r="J873" s="11"/>
       <c r="K873" s="20"/>
     </row>
-    <row r="874" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A874" s="39"/>
       <c r="B874" s="20"/>
       <c r="C874" s="13"/>
@@ -26180,7 +26190,7 @@
       <c r="J874" s="11"/>
       <c r="K874" s="20"/>
     </row>
-    <row r="875" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A875" s="39"/>
       <c r="B875" s="20"/>
       <c r="C875" s="13"/>
@@ -26196,7 +26206,7 @@
       <c r="J875" s="11"/>
       <c r="K875" s="20"/>
     </row>
-    <row r="876" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A876" s="39"/>
       <c r="B876" s="20"/>
       <c r="C876" s="13"/>
@@ -26212,7 +26222,7 @@
       <c r="J876" s="11"/>
       <c r="K876" s="20"/>
     </row>
-    <row r="877" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A877" s="39"/>
       <c r="B877" s="20"/>
       <c r="C877" s="13"/>
@@ -26228,7 +26238,7 @@
       <c r="J877" s="11"/>
       <c r="K877" s="20"/>
     </row>
-    <row r="878" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A878" s="39"/>
       <c r="B878" s="20"/>
       <c r="C878" s="13"/>
@@ -26244,7 +26254,7 @@
       <c r="J878" s="11"/>
       <c r="K878" s="20"/>
     </row>
-    <row r="879" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A879" s="39"/>
       <c r="B879" s="20"/>
       <c r="C879" s="13"/>
@@ -26260,7 +26270,7 @@
       <c r="J879" s="11"/>
       <c r="K879" s="20"/>
     </row>
-    <row r="880" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A880" s="39"/>
       <c r="B880" s="20"/>
       <c r="C880" s="13"/>
@@ -26276,7 +26286,7 @@
       <c r="J880" s="11"/>
       <c r="K880" s="20"/>
     </row>
-    <row r="881" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A881" s="39"/>
       <c r="B881" s="20"/>
       <c r="C881" s="13"/>
@@ -26292,7 +26302,7 @@
       <c r="J881" s="11"/>
       <c r="K881" s="20"/>
     </row>
-    <row r="882" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A882" s="39"/>
       <c r="B882" s="20"/>
       <c r="C882" s="13"/>
@@ -26308,7 +26318,7 @@
       <c r="J882" s="11"/>
       <c r="K882" s="20"/>
     </row>
-    <row r="883" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A883" s="39"/>
       <c r="B883" s="20"/>
       <c r="C883" s="13"/>
@@ -26324,7 +26334,7 @@
       <c r="J883" s="11"/>
       <c r="K883" s="20"/>
     </row>
-    <row r="884" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A884" s="39"/>
       <c r="B884" s="20"/>
       <c r="C884" s="13"/>
@@ -26340,7 +26350,7 @@
       <c r="J884" s="11"/>
       <c r="K884" s="20"/>
     </row>
-    <row r="885" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A885" s="39"/>
       <c r="B885" s="20"/>
       <c r="C885" s="13"/>
@@ -26356,21 +26366,37 @@
       <c r="J885" s="11"/>
       <c r="K885" s="20"/>
     </row>
-    <row r="886" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A886" s="58"/>
-      <c r="B886" s="15"/>
-      <c r="C886" s="59"/>
-      <c r="D886" s="40"/>
+    <row r="886" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A886" s="39"/>
+      <c r="B886" s="20"/>
+      <c r="C886" s="13"/>
+      <c r="D886" s="38"/>
       <c r="E886" s="13"/>
-      <c r="F886" s="15"/>
-      <c r="G886" s="59" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H886" s="40"/>
+      <c r="F886" s="20"/>
+      <c r="G886" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H886" s="38"/>
       <c r="I886" s="9"/>
-      <c r="J886" s="12"/>
-      <c r="K886" s="15"/>
+      <c r="J886" s="11"/>
+      <c r="K886" s="20"/>
+    </row>
+    <row r="887" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A887" s="58"/>
+      <c r="B887" s="15"/>
+      <c r="C887" s="59"/>
+      <c r="D887" s="40"/>
+      <c r="E887" s="13"/>
+      <c r="F887" s="15"/>
+      <c r="G887" s="59" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H887" s="40"/>
+      <c r="I887" s="9"/>
+      <c r="J887" s="12"/>
+      <c r="K887" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -26387,10 +26413,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -26413,28 +26439,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="70" t="s">
         <v>33</v>
       </c>
@@ -26447,7 +26473,7 @@
       <c r="K1" s="71"/>
       <c r="L1" s="71"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -26476,7 +26502,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -26502,17 +26528,17 @@
         <v>0.2919999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="37" t="s">
         <v>28</v>
       </c>
@@ -26533,7 +26559,7 @@
       <c r="K6" s="72"/>
       <c r="L6" s="72"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -26560,7 +26586,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -26586,7 +26612,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -26612,7 +26638,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -26638,7 +26664,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -26664,7 +26690,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -26690,7 +26716,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -26716,7 +26742,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -26742,7 +26768,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -26762,7 +26788,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -26782,7 +26808,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -26802,7 +26828,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -26823,7 +26849,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -26844,7 +26870,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -26865,7 +26891,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -26886,7 +26912,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -26907,7 +26933,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -26928,7 +26954,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -26949,7 +26975,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -26970,7 +26996,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -26991,7 +27017,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -27012,7 +27038,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -27033,7 +27059,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -27054,7 +27080,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -27075,7 +27101,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -27096,7 +27122,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -27117,7 +27143,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -27138,7 +27164,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -27159,7 +27185,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -27180,7 +27206,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -27201,7 +27227,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -27222,7 +27248,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -27231,7 +27257,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -27240,7 +27266,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -27249,7 +27275,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -27258,7 +27284,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -27267,7 +27293,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -27276,7 +27302,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -27285,7 +27311,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -27294,7 +27320,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -27303,7 +27329,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -27312,7 +27338,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -27321,7 +27347,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -27330,7 +27356,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -27339,7 +27365,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -27348,7 +27374,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -27357,7 +27383,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -27366,7 +27392,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -27375,7 +27401,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -27384,7 +27410,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -27393,7 +27419,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -27402,7 +27428,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -27411,7 +27437,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -27420,7 +27446,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -27429,7 +27455,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -27438,7 +27464,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -27447,7 +27473,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -27456,7 +27482,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -27465,7 +27491,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -27474,7 +27500,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -27483,7 +27509,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
